--- a/Semester-2/Data-and-Machine-Learning/Assessments/AT1-OptimisingPrice-Presentation/AssessmentTask01_presentation.xlsx
+++ b/Semester-2/Data-and-Machine-Learning/Assessments/AT1-OptimisingPrice-Presentation/AssessmentTask01_presentation.xlsx
@@ -1,27 +1,89 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\5001322\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\TAFE\Dual-Diploma-2024\Semester-2\Data-and-Machine-Learning\Assessments\AT1-OptimisingPrice-Presentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382222E4-0B66-4D6C-9732-20E9B0DD031A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7485" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Task 1" sheetId="1" r:id="rId1"/>
     <sheet name="Task 2 &amp; 3" sheetId="2" r:id="rId2"/>
     <sheet name="Task 4" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="PurchaceQuantity">'Task 1'!$B:$B</definedName>
+    <definedName name="Quantity">'Task 1'!$B$1</definedName>
+    <definedName name="RetailUnitPrice">'Task 1'!$F:$F</definedName>
+    <definedName name="TotalPrice">'Task 1'!$D:$D</definedName>
+    <definedName name="TotalUnits">Table3[TotalUnits]</definedName>
+    <definedName name="UnitPrice">'Task 1'!$C:$C</definedName>
+    <definedName name="UnitPurchacePrice">'Task 1'!$C:$C</definedName>
+    <definedName name="Units_Sold">'Task 1'!$G:$G</definedName>
+    <definedName name="units_sold_per_product">'Task 1'!$S$12</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="54">
   <si>
     <t>Product</t>
   </si>
@@ -139,16 +201,63 @@
   <si>
     <t>Unit Cost</t>
   </si>
+  <si>
+    <t>RetailUnitPrice</t>
+  </si>
+  <si>
+    <t>Units Sold</t>
+  </si>
+  <si>
+    <t>TotalUnits</t>
+  </si>
+  <si>
+    <t>PurchacePrice</t>
+  </si>
+  <si>
+    <t>UnitsSold</t>
+  </si>
+  <si>
+    <t>SalesIncome</t>
+  </si>
+  <si>
+    <t>Income Table</t>
+  </si>
+  <si>
+    <t>??? NAME THE TABLE???</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Variable Expense Table</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Single Unit Contribution</t>
+  </si>
+  <si>
+    <t>VariableCostsForSales</t>
+  </si>
+  <si>
+    <t>StockPercentageSold</t>
+  </si>
+  <si>
+    <t>Remaining Stock</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,8 +287,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,8 +308,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -234,18 +362,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -258,17 +396,140 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -281,10 +542,117 @@
 </styleSheet>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>0</v>
+    <v>8</v>
+    <v>0</v>
+    <v>3</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_error">
+    <k n="colOffset" t="i"/>
+    <k n="errorType" t="i"/>
+    <k n="rwOffset" t="i"/>
+    <k n="subType" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{53973AEC-E9E3-4471-A7E3-D5F42B40A02A}" name="Table3" displayName="Table3" ref="J3:P13" totalsRowShown="0" headerRowDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="J3:P13" xr:uid="{53973AEC-E9E3-4471-A7E3-D5F42B40A02A}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{04180E76-32F2-4955-AC93-E04E4793C8D9}" name="Product"/>
+    <tableColumn id="2" xr3:uid="{468ED6E1-71CB-4BE4-AB1A-E75CB755288D}" name="TotalUnits" dataDxfId="9">
+      <calculatedColumnFormula>SUMIF(A2:A245, J4, B2:B245)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{04386D9B-9882-432A-99E1-9EB7BF8FD18A}" name="PurchacePrice" dataDxfId="4">
+      <calculatedColumnFormula>SUMIF(A2:A245, Table3[[#This Row],[Product]], D2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{8AF79FAB-FD53-4C64-8A20-A39D623B2118}" name="UnitsSold" dataDxfId="3">
+      <calculatedColumnFormula>units_sold_per_product</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{21944251-D615-469A-AC73-C721D2A0B40C}" name="SalesIncome" dataDxfId="2">
+      <calculatedColumnFormula>Table3[[#This Row],[UnitsSold]]*F2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{4E018A35-8C5D-4677-A964-D154CF6E2AAB}" name="StockPercentageSold" dataDxfId="1" dataCellStyle="Percent">
+      <calculatedColumnFormula>(Table3[[#This Row],[UnitsSold]]/Table3[[#This Row],[TotalUnits]])*100</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{641F3081-9379-4CE9-9F09-CF0D6485A03D}" name="Remaining Stock" dataDxfId="0">
+      <calculatedColumnFormula>100-Table3[[#This Row],[StockPercentageSold]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D007CCC8-6B19-43D6-BD04-E60924EC0CB4}" name="Table6" displayName="Table6" ref="I23:L26" totalsRowShown="0">
+  <autoFilter ref="I23:L26" xr:uid="{D007CCC8-6B19-43D6-BD04-E60924EC0CB4}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{D238210E-7B6C-4F9D-8CD2-C938858FFFC4}" name="Process" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{DD0FADBA-10AD-47D2-844D-9652C35FA408}" name="Cost" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{038AD9B9-A3F0-444A-94F5-ED7D5885F0A8}" name="Single Unit Contribution" dataDxfId="7">
+      <calculatedColumnFormula>Table6[[#This Row],[Cost]]/K$13</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{AFF3AF5B-92BE-45EE-86F9-43A4C69C32AD}" name="VariableCostsForSales" dataDxfId="6">
+      <calculatedColumnFormula>Table6[[#This Row],[Single Unit Contribution]]*M$13</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -322,9 +690,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -359,7 +727,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -394,7 +762,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -567,3750 +935,6328 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H245"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S249"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15:J16"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="20"/>
+    <col min="5" max="5" width="3.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="28" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="20" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E1" s="27"/>
+      <c r="F1" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="3">
         <v>33</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="24">
         <v>1.7699999999999998</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="20">
         <f>C2*B2</f>
         <v>58.41</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="E2" s="18"/>
+      <c r="F2" s="20">
+        <f>C2*3</f>
+        <v>5.31</v>
+      </c>
+      <c r="G2" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+      <c r="H2" s="20" t="e" cm="1" vm="1">
+        <f t="array" aca="1" ref="H2" ca="1">RetailUnitPrice*Units_Sold</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2"/>
+      <c r="M2" s="7"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3">
         <v>87</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="20">
         <v>3.4899999999999998</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="20">
         <f t="shared" ref="D3:D66" si="0">C3*B3</f>
         <v>303.63</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="E3" s="18"/>
+      <c r="F3" s="20">
+        <f>C3*3</f>
+        <v>10.469999999999999</v>
+      </c>
+      <c r="G3" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4">
         <v>58</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="20">
         <v>1.8699999999999999</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="20">
         <f t="shared" si="0"/>
         <v>108.46</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="E4" s="18"/>
+      <c r="F4" s="20">
+        <f>C4*3</f>
+        <v>5.6099999999999994</v>
+      </c>
+      <c r="G4" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="7">
+        <f>SUMIF(A2:A245, J4, B2:B245)</f>
+        <v>4187</v>
+      </c>
+      <c r="L4" s="20">
+        <f ca="1">SUMIF(A2:A245, Table3[[#This Row],[Product]], D2)</f>
+        <v>7410.9900000000007</v>
+      </c>
+      <c r="M4" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+      <c r="N4" s="20">
+        <f>Table3[[#This Row],[UnitsSold]]*F2</f>
+        <v>531</v>
+      </c>
+      <c r="O4" s="34">
+        <f>(Table3[[#This Row],[UnitsSold]]/Table3[[#This Row],[TotalUnits]])*100</f>
+        <v>2.3883448770002391</v>
+      </c>
+      <c r="P4" s="7">
+        <f>100-Table3[[#This Row],[StockPercentageSold]]</f>
+        <v>97.611655122999764</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5">
         <v>82</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="20">
         <v>1.87</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="20">
         <f t="shared" si="0"/>
         <v>153.34</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="E5" s="18"/>
+      <c r="F5" s="20">
+        <f>C5*3</f>
+        <v>5.61</v>
+      </c>
+      <c r="G5" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="7">
+        <f>SUMIF(A3:A245, J5, B3:B245)</f>
+        <v>957</v>
+      </c>
+      <c r="L5" s="20">
+        <f ca="1">SUMIF(A3:A245, Table3[[#This Row],[Product]], D3)</f>
+        <v>3339.9299999999994</v>
+      </c>
+      <c r="M5" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+      <c r="N5" s="20">
+        <f>Table3[[#This Row],[UnitsSold]]*F3</f>
+        <v>1047</v>
+      </c>
+      <c r="O5" s="34">
+        <f>(Table3[[#This Row],[UnitsSold]]/Table3[[#This Row],[TotalUnits]])*100</f>
+        <v>10.449320794148379</v>
+      </c>
+      <c r="P5" s="7">
+        <f>100-Table3[[#This Row],[StockPercentageSold]]</f>
+        <v>89.550679205851623</v>
+      </c>
+      <c r="R5" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6">
         <v>38</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="20">
         <v>2.1800000000000002</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="20">
         <f t="shared" si="0"/>
         <v>82.84</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="E6" s="18"/>
+      <c r="F6" s="20">
+        <f>C6*3</f>
+        <v>6.5400000000000009</v>
+      </c>
+      <c r="G6" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="7">
+        <f ca="1">SUMIF(A4:A249, J6, B4:B246)</f>
+        <v>2445</v>
+      </c>
+      <c r="L6" s="20">
+        <f ca="1">SUMIF(A4:A249, Table3[[#This Row],[Product]], D4)</f>
+        <v>4572.1500000000005</v>
+      </c>
+      <c r="M6" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+      <c r="N6" s="20">
+        <f>Table3[[#This Row],[UnitsSold]]*F4</f>
+        <v>561</v>
+      </c>
+      <c r="O6" s="34">
+        <f ca="1">(Table3[[#This Row],[UnitsSold]]/Table3[[#This Row],[TotalUnits]])*100</f>
+        <v>4.0899795501022496</v>
+      </c>
+      <c r="P6" s="7">
+        <f ca="1">100-Table3[[#This Row],[StockPercentageSold]]</f>
+        <v>95.910020449897758</v>
+      </c>
+      <c r="R6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="S6" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7">
         <v>54</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="20">
         <v>1.77</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="20">
         <f t="shared" si="0"/>
         <v>95.58</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="E7" s="18"/>
+      <c r="F7" s="20">
+        <f>C7*3</f>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G7" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="7">
+        <f>SUMIF(A5:A247, J7, B5:B247)</f>
+        <v>2445</v>
+      </c>
+      <c r="L7" s="20">
+        <f ca="1">SUMIF(A5:A247, Table3[[#This Row],[Product]], D5)</f>
+        <v>5330.0999999999995</v>
+      </c>
+      <c r="M7" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+      <c r="N7" s="20">
+        <f>Table3[[#This Row],[UnitsSold]]*F5</f>
+        <v>561</v>
+      </c>
+      <c r="O7" s="34">
+        <f>(Table3[[#This Row],[UnitsSold]]/Table3[[#This Row],[TotalUnits]])*100</f>
+        <v>4.0899795501022496</v>
+      </c>
+      <c r="P7" s="7">
+        <f>100-Table3[[#This Row],[StockPercentageSold]]</f>
+        <v>95.910020449897758</v>
+      </c>
+      <c r="R7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="13">
+      <c r="S7" s="26">
         <v>2020</v>
       </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8">
         <v>149</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="20">
         <v>3.4899999999999998</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="20">
         <f t="shared" si="0"/>
         <v>520.01</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="E8" s="18"/>
+      <c r="F8" s="20">
+        <f>C8*3</f>
+        <v>10.469999999999999</v>
+      </c>
+      <c r="G8" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="7">
+        <f>SUMIF(A6:A248, J8, B6:B248)</f>
+        <v>994</v>
+      </c>
+      <c r="L8" s="20">
+        <f ca="1">SUMIF(A6:A248, Table3[[#This Row],[Product]], D6)</f>
+        <v>1651.7700000000002</v>
+      </c>
+      <c r="M8" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+      <c r="N8" s="20">
+        <f>Table3[[#This Row],[UnitsSold]]*F6</f>
+        <v>654.00000000000011</v>
+      </c>
+      <c r="O8" s="34">
+        <f>(Table3[[#This Row],[UnitsSold]]/Table3[[#This Row],[TotalUnits]])*100</f>
+        <v>10.06036217303823</v>
+      </c>
+      <c r="P8" s="7">
+        <f>100-Table3[[#This Row],[StockPercentageSold]]</f>
+        <v>89.939637826961771</v>
+      </c>
+      <c r="R8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="13">
+      <c r="S8" s="26">
         <v>1500</v>
       </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9">
         <v>51</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="20">
         <v>1.77</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="20">
         <f t="shared" si="0"/>
         <v>90.27</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="E9" s="18"/>
+      <c r="F9" s="20">
+        <f>C9*3</f>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G9" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="7">
+        <f>SUMIF(A7:A249, J9, B7:B249)</f>
+        <v>2574</v>
+      </c>
+      <c r="L9" s="20">
+        <f ca="1">SUMIF(A7:A249, Table3[[#This Row],[Product]], D7)</f>
+        <v>7310.1599999999989</v>
+      </c>
+      <c r="M9" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+      <c r="N9" s="20">
+        <f>Table3[[#This Row],[UnitsSold]]*F7</f>
+        <v>531</v>
+      </c>
+      <c r="O9" s="34">
+        <f>(Table3[[#This Row],[UnitsSold]]/Table3[[#This Row],[TotalUnits]])*100</f>
+        <v>3.8850038850038846</v>
+      </c>
+      <c r="P9" s="7">
+        <f>100-Table3[[#This Row],[StockPercentageSold]]</f>
+        <v>96.114996114996117</v>
+      </c>
+      <c r="R9" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="13">
+      <c r="S9" s="26">
         <v>1750</v>
       </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4">
-        <v>100</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10" s="20">
         <v>1.77</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="20">
         <f t="shared" si="0"/>
         <v>177</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="E10" s="18"/>
+      <c r="F10" s="20">
+        <f>C10*3</f>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G10" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="7">
+        <f>SUMIF(A8:A250, J10, B8:B250)</f>
+        <v>1575</v>
+      </c>
+      <c r="L10" s="20">
+        <f ca="1">SUMIF(A8:A250, Table3[[#This Row],[Product]], D8)</f>
+        <v>2945.25</v>
+      </c>
+      <c r="M10" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+      <c r="N10" s="20">
+        <f>Table3[[#This Row],[UnitsSold]]*F8</f>
+        <v>1047</v>
+      </c>
+      <c r="O10" s="34">
+        <f>(Table3[[#This Row],[UnitsSold]]/Table3[[#This Row],[TotalUnits]])*100</f>
+        <v>6.3492063492063489</v>
+      </c>
+      <c r="P10" s="7">
+        <f>100-Table3[[#This Row],[StockPercentageSold]]</f>
+        <v>93.650793650793645</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11">
         <v>28</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="20">
         <v>1.35</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="20">
         <f t="shared" si="0"/>
         <v>37.800000000000004</v>
       </c>
-      <c r="F11" t="s">
+      <c r="E11" s="18"/>
+      <c r="F11" s="20">
+        <f>C11*3</f>
+        <v>4.0500000000000007</v>
+      </c>
+      <c r="G11" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="7">
+        <f>SUMIF(A9:A251, J11, B9:B251)</f>
+        <v>186</v>
+      </c>
+      <c r="L11" s="20">
+        <f ca="1">SUMIF(A9:A251, Table3[[#This Row],[Product]], D9)</f>
+        <v>585.9</v>
+      </c>
+      <c r="M11" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+      <c r="N11" s="20">
+        <f>Table3[[#This Row],[UnitsSold]]*F9</f>
+        <v>531</v>
+      </c>
+      <c r="O11" s="34">
+        <f>(Table3[[#This Row],[UnitsSold]]/Table3[[#This Row],[TotalUnits]])*100</f>
+        <v>53.763440860215049</v>
+      </c>
+      <c r="P11" s="7">
+        <f>100-Table3[[#This Row],[StockPercentageSold]]</f>
+        <v>46.236559139784951</v>
+      </c>
+      <c r="R11" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="1">
-        <f>SUM(D2:D245)+SUM(G7:G9)</f>
+      <c r="S11" s="20">
+        <f>SUM(D2:D245)+SUM(S7:S9)</f>
         <v>38595.579999999987</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12">
         <v>36</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="20">
         <v>2.1800000000000002</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="20">
         <f t="shared" si="0"/>
         <v>78.48</v>
       </c>
-      <c r="F12" t="s">
+      <c r="E12" s="18"/>
+      <c r="F12" s="20">
+        <f>C12*3</f>
+        <v>6.5400000000000009</v>
+      </c>
+      <c r="G12" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="7">
+        <f>SUMIF(A10:A252, J12, B10:B252)</f>
+        <v>79</v>
+      </c>
+      <c r="L12" s="20">
+        <f ca="1">SUMIF(A10:A252, Table3[[#This Row],[Product]], D10)</f>
+        <v>179.32999999999998</v>
+      </c>
+      <c r="M12" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+      <c r="N12" s="20">
+        <f>Table3[[#This Row],[UnitsSold]]*F10</f>
+        <v>531</v>
+      </c>
+      <c r="O12" s="34">
+        <f>(Table3[[#This Row],[UnitsSold]]/Table3[[#This Row],[TotalUnits]])*100</f>
+        <v>126.58227848101266</v>
+      </c>
+      <c r="P12" s="7">
+        <f>100-Table3[[#This Row],[StockPercentageSold]]</f>
+        <v>-26.582278481012665</v>
+      </c>
+      <c r="R12" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="S12" s="28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13">
         <v>31</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="20">
         <v>1.8699999999999999</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="20">
         <f t="shared" si="0"/>
         <v>57.97</v>
       </c>
-      <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="E13" s="18"/>
+      <c r="F13" s="20">
+        <f>C13*3</f>
+        <v>5.6099999999999994</v>
+      </c>
+      <c r="G13" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" s="7">
+        <f ca="1">SUM(K3:K12)</f>
+        <v>15442</v>
+      </c>
+      <c r="L13" s="32">
+        <f ca="1">SUM(L3:L12)</f>
+        <v>33325.58</v>
+      </c>
+      <c r="M13" s="28">
+        <f>SUM(M3:M12)</f>
+        <v>900</v>
+      </c>
+      <c r="N13" s="20">
+        <f>SUM(N3:N12)</f>
+        <v>5994</v>
+      </c>
+      <c r="O13" s="34">
+        <f ca="1">(Table3[[#This Row],[UnitsSold]]/Table3[[#This Row],[TotalUnits]])*100</f>
+        <v>5.8282605880067351</v>
+      </c>
+      <c r="P13" s="7">
+        <f ca="1">100-Table3[[#This Row],[StockPercentageSold]]</f>
+        <v>94.171739411993258</v>
+      </c>
+      <c r="S13" s="15"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14">
         <v>28</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="20">
         <v>3.4899999999999998</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="20">
         <f t="shared" si="0"/>
         <v>97.72</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="E14" s="18"/>
+      <c r="F14" s="20">
+        <f>C14*3</f>
+        <v>10.469999999999999</v>
+      </c>
+      <c r="G14" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+      <c r="R14" t="s">
+        <v>22</v>
+      </c>
+      <c r="S14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15">
         <v>44</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="20">
         <v>1.7699999999999998</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="20">
         <f t="shared" si="0"/>
         <v>77.88</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="E15" s="18"/>
+      <c r="F15" s="20">
+        <f>C15*3</f>
+        <v>5.31</v>
+      </c>
+      <c r="G15" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+      <c r="I15" t="s">
+        <v>45</v>
+      </c>
+      <c r="R15" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16">
         <v>23</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="20">
         <v>1.77</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="20">
         <f t="shared" si="0"/>
         <v>40.71</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="E16" s="18"/>
+      <c r="F16" s="20">
+        <f>C16*3</f>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G16" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+      <c r="R16" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17">
         <v>27</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="20">
         <v>1.35</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="20">
         <f t="shared" si="0"/>
         <v>36.450000000000003</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="E17" s="18"/>
+      <c r="F17" s="20">
+        <f>C17*3</f>
+        <v>4.0500000000000007</v>
+      </c>
+      <c r="G17" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18">
         <v>43</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="20">
         <v>2.1799999999999997</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="20">
         <f t="shared" si="0"/>
         <v>93.739999999999981</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="E18" s="18"/>
+      <c r="F18" s="20">
+        <f>C18*3</f>
+        <v>6.5399999999999991</v>
+      </c>
+      <c r="G18" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19">
         <v>123</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="20">
         <v>2.84</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="20">
         <f t="shared" si="0"/>
         <v>349.32</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="E19" s="18"/>
+      <c r="F19" s="20">
+        <f>C19*3</f>
+        <v>8.52</v>
+      </c>
+      <c r="G19" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20">
         <v>42</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="20">
         <v>1.87</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="20">
         <f t="shared" si="0"/>
         <v>78.540000000000006</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="E20" s="18"/>
+      <c r="F20" s="20">
+        <f>C20*3</f>
+        <v>5.61</v>
+      </c>
+      <c r="G20" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21">
         <v>33</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="20">
         <v>2.84</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="20">
         <f t="shared" si="0"/>
         <v>93.72</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="E21" s="18"/>
+      <c r="F21" s="20">
+        <f>C21*3</f>
+        <v>8.52</v>
+      </c>
+      <c r="G21" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22">
         <v>85</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="20">
         <v>1.8699999999999999</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="20">
         <f t="shared" si="0"/>
         <v>158.94999999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="E22" s="18"/>
+      <c r="F22" s="20">
+        <f>C22*3</f>
+        <v>5.6099999999999994</v>
+      </c>
+      <c r="G22" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+      <c r="I22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23">
         <v>30</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="20">
         <v>2.8400000000000003</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="20">
         <f t="shared" si="0"/>
         <v>85.2</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="E23" s="18"/>
+      <c r="F23" s="20">
+        <f>C23*3</f>
+        <v>8.5200000000000014</v>
+      </c>
+      <c r="G23" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+      <c r="I23" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" t="s">
+        <v>49</v>
+      </c>
+      <c r="K23" t="s">
+        <v>50</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24">
         <v>61</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="20">
         <v>1.77</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="20">
         <f t="shared" si="0"/>
         <v>107.97</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="E24" s="18"/>
+      <c r="F24" s="20">
+        <f>C24*3</f>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G24" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="20">
+        <v>2020</v>
+      </c>
+      <c r="K24" s="20">
+        <f ca="1">Table6[[#This Row],[Cost]]/K$13</f>
+        <v>0.13081207097526226</v>
+      </c>
+      <c r="L24" s="20">
+        <f ca="1">Table6[[#This Row],[Single Unit Contribution]]*M$13</f>
+        <v>117.73086387773604</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25">
         <v>40</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="20">
         <v>3.4899999999999998</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="20">
         <f t="shared" si="0"/>
         <v>139.6</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="E25" s="18"/>
+      <c r="F25" s="20">
+        <f>C25*3</f>
+        <v>10.469999999999999</v>
+      </c>
+      <c r="G25" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="20">
+        <v>1500</v>
+      </c>
+      <c r="K25" s="20">
+        <f ca="1">Table6[[#This Row],[Cost]]/K$13</f>
+        <v>9.7137676466778913E-2</v>
+      </c>
+      <c r="L25" s="20">
+        <f ca="1">Table6[[#This Row],[Single Unit Contribution]]*M$13</f>
+        <v>87.423908820101019</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26">
         <v>86</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="20">
         <v>1.8699999999999999</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="20">
         <f t="shared" si="0"/>
         <v>160.82</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="E26" s="18"/>
+      <c r="F26" s="20">
+        <f>C26*3</f>
+        <v>5.6099999999999994</v>
+      </c>
+      <c r="G26" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J26" s="20">
+        <v>1750</v>
+      </c>
+      <c r="K26" s="20">
+        <f ca="1">Table6[[#This Row],[Cost]]/K$13</f>
+        <v>0.11332728921124206</v>
+      </c>
+      <c r="L26" s="20">
+        <f ca="1">Table6[[#This Row],[Single Unit Contribution]]*M$13</f>
+        <v>101.99456029011786</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27">
         <v>38</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="20">
         <v>1.7700000000000002</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="20">
         <f t="shared" si="0"/>
         <v>67.260000000000005</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="E27" s="18"/>
+      <c r="F27" s="20">
+        <f>C27*3</f>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G27" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28">
         <v>68</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="20">
         <v>1.68</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="20">
         <f t="shared" si="0"/>
         <v>114.24</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="E28" s="18"/>
+      <c r="F28" s="20">
+        <f>C28*3</f>
+        <v>5.04</v>
+      </c>
+      <c r="G28" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29">
         <v>39</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="20">
         <v>1.87</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="20">
         <f t="shared" si="0"/>
         <v>72.930000000000007</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="E29" s="18"/>
+      <c r="F29" s="20">
+        <f>C29*3</f>
+        <v>5.61</v>
+      </c>
+      <c r="G29" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30">
         <v>103</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="20">
         <v>1.87</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="20">
         <f t="shared" si="0"/>
         <v>192.61</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="E30" s="18"/>
+      <c r="F30" s="20">
+        <f>C30*3</f>
+        <v>5.61</v>
+      </c>
+      <c r="G30" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31">
         <v>193</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="20">
         <v>2.84</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="20">
         <f t="shared" si="0"/>
         <v>548.12</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="E31" s="18"/>
+      <c r="F31" s="20">
+        <f>C31*3</f>
+        <v>8.52</v>
+      </c>
+      <c r="G31" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32">
         <v>58</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="20">
         <v>1.77</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="20">
         <f t="shared" si="0"/>
         <v>102.66</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="E32" s="18"/>
+      <c r="F32" s="20">
+        <f>C32*3</f>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G32" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33">
         <v>68</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="20">
         <v>1.68</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="20">
         <f t="shared" si="0"/>
         <v>114.24</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="E33" s="18"/>
+      <c r="F33" s="20">
+        <f>C33*3</f>
+        <v>5.04</v>
+      </c>
+      <c r="G33" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34">
         <v>91</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="20">
         <v>1.77</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="20">
         <f t="shared" si="0"/>
         <v>161.07</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="E34" s="18"/>
+      <c r="F34" s="20">
+        <f>C34*3</f>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G34" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35">
         <v>23</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="20">
         <v>3.4899999999999998</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="20">
         <f t="shared" si="0"/>
         <v>80.27</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="E35" s="18"/>
+      <c r="F35" s="20">
+        <f>C35*3</f>
+        <v>10.469999999999999</v>
+      </c>
+      <c r="G35" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="4">
+      <c r="B36">
         <v>28</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="20">
         <v>1.68</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="20">
         <f t="shared" si="0"/>
         <v>47.04</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="E36" s="18"/>
+      <c r="F36" s="20">
+        <f>C36*3</f>
+        <v>5.04</v>
+      </c>
+      <c r="G36" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="4">
+      <c r="B37">
         <v>48</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="20">
         <v>1.7699999999999998</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="20">
         <f t="shared" si="0"/>
         <v>84.96</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="E37" s="18"/>
+      <c r="F37" s="20">
+        <f>C37*3</f>
+        <v>5.31</v>
+      </c>
+      <c r="G37" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38">
         <v>134</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="20">
         <v>1.68</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="20">
         <f t="shared" si="0"/>
         <v>225.12</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="E38" s="18"/>
+      <c r="F38" s="20">
+        <f>C38*3</f>
+        <v>5.04</v>
+      </c>
+      <c r="G38" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39">
         <v>20</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="20">
         <v>1.77</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="20">
         <f t="shared" si="0"/>
         <v>35.4</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+      <c r="E39" s="18"/>
+      <c r="F39" s="20">
+        <f>C39*3</f>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G39" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>8</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40">
         <v>53</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="20">
         <v>1.77</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="20">
         <f t="shared" si="0"/>
         <v>93.81</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+      <c r="E40" s="18"/>
+      <c r="F40" s="20">
+        <f>C40*3</f>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G40" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41">
         <v>64</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="20">
         <v>1.68</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="20">
         <f t="shared" si="0"/>
         <v>107.52</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+      <c r="E41" s="18"/>
+      <c r="F41" s="20">
+        <f>C41*3</f>
+        <v>5.04</v>
+      </c>
+      <c r="G41" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42">
         <v>63</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="20">
         <v>1.87</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="20">
         <f t="shared" si="0"/>
         <v>117.81</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="E42" s="18"/>
+      <c r="F42" s="20">
+        <f>C42*3</f>
+        <v>5.61</v>
+      </c>
+      <c r="G42" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43">
         <v>105</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="20">
         <v>1.8699999999999999</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="20">
         <f t="shared" si="0"/>
         <v>196.35</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+      <c r="E43" s="18"/>
+      <c r="F43" s="20">
+        <f>C43*3</f>
+        <v>5.6099999999999994</v>
+      </c>
+      <c r="G43" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44">
         <v>138</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="20">
         <v>2.8400000000000003</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="20">
         <f t="shared" si="0"/>
         <v>391.92</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+      <c r="E44" s="18"/>
+      <c r="F44" s="20">
+        <f>C44*3</f>
+        <v>8.5200000000000014</v>
+      </c>
+      <c r="G44" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>8</v>
       </c>
-      <c r="B45" s="4">
+      <c r="B45">
         <v>25</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="20">
         <v>1.77</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="20">
         <f t="shared" si="0"/>
         <v>44.25</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+      <c r="E45" s="18"/>
+      <c r="F45" s="20">
+        <f>C45*3</f>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G45" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46">
         <v>21</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="20">
         <v>3.49</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="20">
         <f t="shared" si="0"/>
         <v>73.290000000000006</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="E46" s="18"/>
+      <c r="F46" s="20">
+        <f>C46*3</f>
+        <v>10.47</v>
+      </c>
+      <c r="G46" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="4">
+      <c r="B47">
         <v>61</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="20">
         <v>1.77</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="20">
         <f t="shared" si="0"/>
         <v>107.97</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+      <c r="E47" s="18"/>
+      <c r="F47" s="20">
+        <f>C47*3</f>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G47" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="4">
+      <c r="B48">
         <v>49</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="20">
         <v>1.68</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="20">
         <f t="shared" si="0"/>
         <v>82.32</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+      <c r="E48" s="18"/>
+      <c r="F48" s="20">
+        <f>C48*3</f>
+        <v>5.04</v>
+      </c>
+      <c r="G48" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>10</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49">
         <v>55</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="20">
         <v>1.8699999999999999</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="20">
         <f t="shared" si="0"/>
         <v>102.85</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+      <c r="E49" s="18"/>
+      <c r="F49" s="20">
+        <f>C49*3</f>
+        <v>5.6099999999999994</v>
+      </c>
+      <c r="G49" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>11</v>
       </c>
-      <c r="B50" s="4">
+      <c r="B50">
         <v>27</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="20">
         <v>2.1800000000000002</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="20">
         <f t="shared" si="0"/>
         <v>58.860000000000007</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
+      <c r="E50" s="18"/>
+      <c r="F50" s="20">
+        <f>C50*3</f>
+        <v>6.5400000000000009</v>
+      </c>
+      <c r="G50" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="4">
+      <c r="B51">
         <v>58</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="20">
         <v>1.77</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="20">
         <f t="shared" si="0"/>
         <v>102.66</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
+      <c r="E51" s="18"/>
+      <c r="F51" s="20">
+        <f>C51*3</f>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G51" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>9</v>
       </c>
-      <c r="B52" s="4">
+      <c r="B52">
         <v>33</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="20">
         <v>3.49</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="20">
         <f t="shared" si="0"/>
         <v>115.17</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
+      <c r="E52" s="18"/>
+      <c r="F52" s="20">
+        <f>C52*3</f>
+        <v>10.47</v>
+      </c>
+      <c r="G52" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>13</v>
       </c>
-      <c r="B53" s="4">
+      <c r="B53">
         <v>288</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="20">
         <v>2.84</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="20">
         <f t="shared" si="0"/>
         <v>817.92</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
+      <c r="E53" s="18"/>
+      <c r="F53" s="20">
+        <f>C53*3</f>
+        <v>8.52</v>
+      </c>
+      <c r="G53" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>10</v>
       </c>
-      <c r="B54" s="4">
+      <c r="B54">
         <v>76</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="20">
         <v>1.87</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="20">
         <f t="shared" si="0"/>
         <v>142.12</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
+      <c r="E54" s="18"/>
+      <c r="F54" s="20">
+        <f>C54*3</f>
+        <v>5.61</v>
+      </c>
+      <c r="G54" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>8</v>
       </c>
-      <c r="B55" s="4">
+      <c r="B55">
         <v>42</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="20">
         <v>1.77</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="20">
         <f t="shared" si="0"/>
         <v>74.34</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
+      <c r="E55" s="18"/>
+      <c r="F55" s="20">
+        <f>C55*3</f>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G55" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>9</v>
       </c>
-      <c r="B56" s="4">
+      <c r="B56">
         <v>20</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="20">
         <v>3.4899999999999998</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="20">
         <f t="shared" si="0"/>
         <v>69.8</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="E56" s="18"/>
+      <c r="F56" s="20">
+        <f>C56*3</f>
+        <v>10.469999999999999</v>
+      </c>
+      <c r="G56" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>8</v>
       </c>
-      <c r="B57" s="4">
+      <c r="B57">
         <v>75</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="20">
         <v>1.77</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="20">
         <f t="shared" si="0"/>
         <v>132.75</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
+      <c r="E57" s="18"/>
+      <c r="F57" s="20">
+        <f>C57*3</f>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G57" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>9</v>
       </c>
-      <c r="B58" s="4">
+      <c r="B58">
         <v>38</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="20">
         <v>3.49</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="20">
         <f t="shared" si="0"/>
         <v>132.62</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
+      <c r="E58" s="18"/>
+      <c r="F58" s="20">
+        <f>C58*3</f>
+        <v>10.47</v>
+      </c>
+      <c r="G58" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>8</v>
       </c>
-      <c r="B59" s="4">
+      <c r="B59">
         <v>306</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="20">
         <v>1.77</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="20">
         <f t="shared" si="0"/>
         <v>541.62</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
+      <c r="E59" s="18"/>
+      <c r="F59" s="20">
+        <f>C59*3</f>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G59" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>12</v>
       </c>
-      <c r="B60" s="4">
+      <c r="B60">
         <v>28</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="20">
         <v>1.68</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="20">
         <f t="shared" si="0"/>
         <v>47.04</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
+      <c r="E60" s="18"/>
+      <c r="F60" s="20">
+        <f>C60*3</f>
+        <v>5.04</v>
+      </c>
+      <c r="G60" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>14</v>
       </c>
-      <c r="B61" s="4">
+      <c r="B61">
         <v>110</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="20">
         <v>1.8699999999999999</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="20">
         <f t="shared" si="0"/>
         <v>205.7</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
+      <c r="E61" s="18"/>
+      <c r="F61" s="20">
+        <f>C61*3</f>
+        <v>5.6099999999999994</v>
+      </c>
+      <c r="G61" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>13</v>
       </c>
-      <c r="B62" s="4">
+      <c r="B62">
         <v>51</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="20">
         <v>2.84</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="20">
         <f t="shared" si="0"/>
         <v>144.84</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
+      <c r="E62" s="18"/>
+      <c r="F62" s="20">
+        <f>C62*3</f>
+        <v>8.52</v>
+      </c>
+      <c r="G62" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>8</v>
       </c>
-      <c r="B63" s="4">
+      <c r="B63">
         <v>52</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="20">
         <v>1.77</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="20">
         <f t="shared" si="0"/>
         <v>92.04</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
+      <c r="E63" s="18"/>
+      <c r="F63" s="20">
+        <f>C63*3</f>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G63" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>9</v>
       </c>
-      <c r="B64" s="4">
+      <c r="B64">
         <v>28</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="20">
         <v>3.4899999999999998</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="20">
         <f t="shared" si="0"/>
         <v>97.72</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
+      <c r="E64" s="18"/>
+      <c r="F64" s="20">
+        <f>C64*3</f>
+        <v>10.469999999999999</v>
+      </c>
+      <c r="G64" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>8</v>
       </c>
-      <c r="B65" s="4">
+      <c r="B65">
         <v>136</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="20">
         <v>1.77</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="20">
         <f t="shared" si="0"/>
         <v>240.72</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
+      <c r="E65" s="18"/>
+      <c r="F65" s="20">
+        <f>C65*3</f>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G65" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>9</v>
       </c>
-      <c r="B66" s="4">
+      <c r="B66">
         <v>42</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="20">
         <v>3.49</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="20">
         <f t="shared" si="0"/>
         <v>146.58000000000001</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
+      <c r="E66" s="18"/>
+      <c r="F66" s="20">
+        <f>C66*3</f>
+        <v>10.47</v>
+      </c>
+      <c r="G66" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>10</v>
       </c>
-      <c r="B67" s="4">
+      <c r="B67">
         <v>75</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="20">
         <v>1.87</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="20">
         <f t="shared" ref="D67:D130" si="1">C67*B67</f>
         <v>140.25</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
+      <c r="E67" s="18"/>
+      <c r="F67" s="20">
+        <f>C67*3</f>
+        <v>5.61</v>
+      </c>
+      <c r="G67" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>14</v>
       </c>
-      <c r="B68" s="4">
+      <c r="B68">
         <v>72</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68" s="20">
         <v>1.8699999999999999</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="20">
         <f t="shared" si="1"/>
         <v>134.63999999999999</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
+      <c r="E68" s="18"/>
+      <c r="F68" s="20">
+        <f>C68*3</f>
+        <v>5.6099999999999994</v>
+      </c>
+      <c r="G68" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>13</v>
       </c>
-      <c r="B69" s="4">
+      <c r="B69">
         <v>56</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="20">
         <v>2.84</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="20">
         <f t="shared" si="1"/>
         <v>159.04</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
+      <c r="E69" s="18"/>
+      <c r="F69" s="20">
+        <f>C69*3</f>
+        <v>8.52</v>
+      </c>
+      <c r="G69" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>14</v>
       </c>
-      <c r="B70" s="4">
+      <c r="B70">
         <v>51</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="20">
         <v>1.87</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="20">
         <f t="shared" si="1"/>
         <v>95.37</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
+      <c r="E70" s="18"/>
+      <c r="F70" s="20">
+        <f>C70*3</f>
+        <v>5.61</v>
+      </c>
+      <c r="G70" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>12</v>
       </c>
-      <c r="B71" s="4">
+      <c r="B71">
         <v>31</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="20">
         <v>1.68</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="20">
         <f t="shared" si="1"/>
         <v>52.08</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
+      <c r="E71" s="18"/>
+      <c r="F71" s="20">
+        <f>C71*3</f>
+        <v>5.04</v>
+      </c>
+      <c r="G71" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>14</v>
       </c>
-      <c r="B72" s="4">
+      <c r="B72">
         <v>56</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72" s="20">
         <v>1.8699999999999999</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="20">
         <f t="shared" si="1"/>
         <v>104.72</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
+      <c r="E72" s="18"/>
+      <c r="F72" s="20">
+        <f>C72*3</f>
+        <v>5.6099999999999994</v>
+      </c>
+      <c r="G72" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>13</v>
       </c>
-      <c r="B73" s="4">
+      <c r="B73">
         <v>137</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C73" s="20">
         <v>2.84</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="20">
         <f t="shared" si="1"/>
         <v>389.08</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
+      <c r="E73" s="18"/>
+      <c r="F73" s="20">
+        <f>C73*3</f>
+        <v>8.52</v>
+      </c>
+      <c r="G73" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>10</v>
       </c>
-      <c r="B74" s="4">
+      <c r="B74">
         <v>107</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C74" s="20">
         <v>1.87</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="20">
         <f t="shared" si="1"/>
         <v>200.09</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
+      <c r="E74" s="18"/>
+      <c r="F74" s="20">
+        <f>C74*3</f>
+        <v>5.61</v>
+      </c>
+      <c r="G74" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>8</v>
       </c>
-      <c r="B75" s="4">
+      <c r="B75">
         <v>24</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C75" s="20">
         <v>1.7699999999999998</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="20">
         <f t="shared" si="1"/>
         <v>42.48</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
+      <c r="E75" s="18"/>
+      <c r="F75" s="20">
+        <f>C75*3</f>
+        <v>5.31</v>
+      </c>
+      <c r="G75" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>9</v>
       </c>
-      <c r="B76" s="4">
+      <c r="B76">
         <v>30</v>
       </c>
-      <c r="C76" s="4">
+      <c r="C76" s="20">
         <v>3.49</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="20">
         <f t="shared" si="1"/>
         <v>104.7</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
+      <c r="E76" s="18"/>
+      <c r="F76" s="20">
+        <f>C76*3</f>
+        <v>10.47</v>
+      </c>
+      <c r="G76" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>10</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B77">
         <v>70</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77" s="20">
         <v>1.87</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="20">
         <f t="shared" si="1"/>
         <v>130.9</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
+      <c r="E77" s="18"/>
+      <c r="F77" s="20">
+        <f>C77*3</f>
+        <v>5.61</v>
+      </c>
+      <c r="G77" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>11</v>
       </c>
-      <c r="B78" s="4">
+      <c r="B78">
         <v>31</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C78" s="20">
         <v>2.1800000000000002</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="20">
         <f t="shared" si="1"/>
         <v>67.58</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
+      <c r="E78" s="18"/>
+      <c r="F78" s="20">
+        <f>C78*3</f>
+        <v>6.5400000000000009</v>
+      </c>
+      <c r="G78" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>8</v>
       </c>
-      <c r="B79" s="4">
+      <c r="B79">
         <v>109</v>
       </c>
-      <c r="C79" s="4">
+      <c r="C79" s="20">
         <v>1.77</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="20">
         <f t="shared" si="1"/>
         <v>192.93</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
+      <c r="E79" s="18"/>
+      <c r="F79" s="20">
+        <f>C79*3</f>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G79" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>9</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B80">
         <v>21</v>
       </c>
-      <c r="C80" s="4">
+      <c r="C80" s="20">
         <v>3.49</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="20">
         <f t="shared" si="1"/>
         <v>73.290000000000006</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
+      <c r="E80" s="18"/>
+      <c r="F80" s="20">
+        <f>C80*3</f>
+        <v>10.47</v>
+      </c>
+      <c r="G80" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>10</v>
       </c>
-      <c r="B81" s="4">
+      <c r="B81">
         <v>80</v>
       </c>
-      <c r="C81" s="4">
+      <c r="C81" s="20">
         <v>1.8699999999999999</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="20">
         <f t="shared" si="1"/>
         <v>149.6</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
+      <c r="E81" s="18"/>
+      <c r="F81" s="20">
+        <f>C81*3</f>
+        <v>5.6099999999999994</v>
+      </c>
+      <c r="G81" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>14</v>
       </c>
-      <c r="B82" s="4">
+      <c r="B82">
         <v>75</v>
       </c>
-      <c r="C82" s="4">
+      <c r="C82" s="20">
         <v>1.87</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="20">
         <f t="shared" si="1"/>
         <v>140.25</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
+      <c r="E82" s="18"/>
+      <c r="F82" s="20">
+        <f>C82*3</f>
+        <v>5.61</v>
+      </c>
+      <c r="G82" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>13</v>
       </c>
-      <c r="B83" s="4">
+      <c r="B83">
         <v>74</v>
       </c>
-      <c r="C83" s="4">
+      <c r="C83" s="20">
         <v>2.84</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="20">
         <f t="shared" si="1"/>
         <v>210.16</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
+      <c r="E83" s="18"/>
+      <c r="F83" s="20">
+        <f>C83*3</f>
+        <v>8.52</v>
+      </c>
+      <c r="G83" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>8</v>
       </c>
-      <c r="B84" s="4">
+      <c r="B84">
         <v>45</v>
       </c>
-      <c r="C84" s="4">
+      <c r="C84" s="20">
         <v>1.77</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="20">
         <f t="shared" si="1"/>
         <v>79.650000000000006</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
+      <c r="E84" s="18"/>
+      <c r="F84" s="20">
+        <f>C84*3</f>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G84" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>11</v>
       </c>
-      <c r="B85" s="4">
+      <c r="B85">
         <v>28</v>
       </c>
-      <c r="C85" s="4">
+      <c r="C85" s="20">
         <v>2.1800000000000002</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="20">
         <f t="shared" si="1"/>
         <v>61.040000000000006</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
+      <c r="E85" s="18"/>
+      <c r="F85" s="20">
+        <f>C85*3</f>
+        <v>6.5400000000000009</v>
+      </c>
+      <c r="G85" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>8</v>
       </c>
-      <c r="B86" s="4">
+      <c r="B86">
         <v>143</v>
       </c>
-      <c r="C86" s="4">
+      <c r="C86" s="20">
         <v>1.77</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="20">
         <f t="shared" si="1"/>
         <v>253.11</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
+      <c r="E86" s="18"/>
+      <c r="F86" s="20">
+        <f>C86*3</f>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G86" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>15</v>
       </c>
-      <c r="B87" s="4">
+      <c r="B87">
         <v>27</v>
       </c>
-      <c r="C87" s="4">
+      <c r="C87" s="20">
         <v>3.15</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="20">
         <f t="shared" si="1"/>
         <v>85.05</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
+      <c r="E87" s="18"/>
+      <c r="F87" s="20">
+        <f>C87*3</f>
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="G87" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>8</v>
       </c>
-      <c r="B88" s="4">
+      <c r="B88">
         <v>133</v>
       </c>
-      <c r="C88" s="4">
+      <c r="C88" s="20">
         <v>1.77</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="20">
         <f t="shared" si="1"/>
         <v>235.41</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
+      <c r="E88" s="18"/>
+      <c r="F88" s="20">
+        <f>C88*3</f>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G88" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>11</v>
       </c>
-      <c r="B89" s="4">
+      <c r="B89">
         <v>110</v>
       </c>
-      <c r="C89" s="4">
+      <c r="C89" s="20">
         <v>2.1800000000000002</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="20">
         <f t="shared" si="1"/>
         <v>239.8</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
+      <c r="E89" s="18"/>
+      <c r="F89" s="20">
+        <f>C89*3</f>
+        <v>6.5400000000000009</v>
+      </c>
+      <c r="G89" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="4">
+      <c r="B90">
         <v>65</v>
       </c>
-      <c r="C90" s="4">
+      <c r="C90" s="20">
         <v>1.8699999999999999</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="20">
         <f t="shared" si="1"/>
         <v>121.55</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
+      <c r="E90" s="18"/>
+      <c r="F90" s="20">
+        <f>C90*3</f>
+        <v>5.6099999999999994</v>
+      </c>
+      <c r="G90" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>14</v>
       </c>
-      <c r="B91" s="4">
+      <c r="B91">
         <v>33</v>
       </c>
-      <c r="C91" s="4">
+      <c r="C91" s="20">
         <v>1.87</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="20">
         <f t="shared" si="1"/>
         <v>61.71</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
+      <c r="E91" s="18"/>
+      <c r="F91" s="20">
+        <f>C91*3</f>
+        <v>5.61</v>
+      </c>
+      <c r="G91" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>11</v>
       </c>
-      <c r="B92" s="4">
+      <c r="B92">
         <v>81</v>
       </c>
-      <c r="C92" s="4">
+      <c r="C92" s="20">
         <v>2.1800000000000002</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="20">
         <f t="shared" si="1"/>
         <v>176.58</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="4" t="s">
+      <c r="E92" s="18"/>
+      <c r="F92" s="20">
+        <f>C92*3</f>
+        <v>6.5400000000000009</v>
+      </c>
+      <c r="G92" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>8</v>
       </c>
-      <c r="B93" s="4">
+      <c r="B93">
         <v>77</v>
       </c>
-      <c r="C93" s="4">
+      <c r="C93" s="20">
         <v>1.7699999999999998</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="20">
         <f t="shared" si="1"/>
         <v>136.29</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
+      <c r="E93" s="18"/>
+      <c r="F93" s="20">
+        <f>C93*3</f>
+        <v>5.31</v>
+      </c>
+      <c r="G93" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>9</v>
       </c>
-      <c r="B94" s="4">
+      <c r="B94">
         <v>38</v>
       </c>
-      <c r="C94" s="4">
+      <c r="C94" s="20">
         <v>3.49</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="20">
         <f t="shared" si="1"/>
         <v>132.62</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="4" t="s">
+      <c r="E94" s="18"/>
+      <c r="F94" s="20">
+        <f>C94*3</f>
+        <v>10.47</v>
+      </c>
+      <c r="G94" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>8</v>
       </c>
-      <c r="B95" s="4">
+      <c r="B95">
         <v>40</v>
       </c>
-      <c r="C95" s="4">
+      <c r="C95" s="20">
         <v>1.77</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="20">
         <f t="shared" si="1"/>
         <v>70.8</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
+      <c r="E95" s="18"/>
+      <c r="F95" s="20">
+        <f>C95*3</f>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G95" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>12</v>
       </c>
-      <c r="B96" s="4">
+      <c r="B96">
         <v>114</v>
       </c>
-      <c r="C96" s="4">
+      <c r="C96" s="20">
         <v>1.6800000000000002</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="20">
         <f t="shared" si="1"/>
         <v>191.52</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
+      <c r="E96" s="18"/>
+      <c r="F96" s="20">
+        <f>C96*3</f>
+        <v>5.0400000000000009</v>
+      </c>
+      <c r="G96" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>11</v>
       </c>
-      <c r="B97" s="4">
+      <c r="B97">
         <v>224</v>
       </c>
-      <c r="C97" s="4">
+      <c r="C97" s="20">
         <v>2.1800000000000002</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="20">
         <f t="shared" si="1"/>
         <v>488.32000000000005</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="s">
+      <c r="E97" s="18"/>
+      <c r="F97" s="20">
+        <f>C97*3</f>
+        <v>6.5400000000000009</v>
+      </c>
+      <c r="G97" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>8</v>
       </c>
-      <c r="B98" s="4">
+      <c r="B98">
         <v>141</v>
       </c>
-      <c r="C98" s="4">
+      <c r="C98" s="20">
         <v>1.77</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="20">
         <f t="shared" si="1"/>
         <v>249.57</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
+      <c r="E98" s="18"/>
+      <c r="F98" s="20">
+        <f>C98*3</f>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G98" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>9</v>
       </c>
-      <c r="B99" s="4">
+      <c r="B99">
         <v>32</v>
       </c>
-      <c r="C99" s="4">
+      <c r="C99" s="20">
         <v>3.49</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="20">
         <f t="shared" si="1"/>
         <v>111.68</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
+      <c r="E99" s="18"/>
+      <c r="F99" s="20">
+        <f>C99*3</f>
+        <v>10.47</v>
+      </c>
+      <c r="G99" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>8</v>
       </c>
-      <c r="B100" s="4">
+      <c r="B100">
         <v>20</v>
       </c>
-      <c r="C100" s="4">
+      <c r="C100" s="20">
         <v>1.77</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="20">
         <f t="shared" si="1"/>
         <v>35.4</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="s">
+      <c r="E100" s="18"/>
+      <c r="F100" s="20">
+        <f>C100*3</f>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G100" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>11</v>
       </c>
-      <c r="B101" s="4">
+      <c r="B101">
         <v>40</v>
       </c>
-      <c r="C101" s="4">
+      <c r="C101" s="20">
         <v>2.1800000000000002</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="20">
         <f t="shared" si="1"/>
         <v>87.2</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
+      <c r="E101" s="18"/>
+      <c r="F101" s="20">
+        <f>C101*3</f>
+        <v>6.5400000000000009</v>
+      </c>
+      <c r="G101" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>10</v>
       </c>
-      <c r="B102" s="4">
+      <c r="B102">
         <v>49</v>
       </c>
-      <c r="C102" s="4">
+      <c r="C102" s="20">
         <v>1.8699999999999999</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="20">
         <f t="shared" si="1"/>
         <v>91.63</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
+      <c r="E102" s="18"/>
+      <c r="F102" s="20">
+        <f>C102*3</f>
+        <v>5.6099999999999994</v>
+      </c>
+      <c r="G102" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>9</v>
       </c>
-      <c r="B103" s="4">
+      <c r="B103">
         <v>46</v>
       </c>
-      <c r="C103" s="4">
+      <c r="C103" s="20">
         <v>3.4899999999999998</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="20">
         <f t="shared" si="1"/>
         <v>160.54</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
+      <c r="E103" s="18"/>
+      <c r="F103" s="20">
+        <f>C103*3</f>
+        <v>10.469999999999999</v>
+      </c>
+      <c r="G103" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>8</v>
       </c>
-      <c r="B104" s="4">
+      <c r="B104">
         <v>39</v>
       </c>
-      <c r="C104" s="4">
+      <c r="C104" s="20">
         <v>1.77</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="20">
         <f t="shared" si="1"/>
         <v>69.03</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="s">
+      <c r="E104" s="18"/>
+      <c r="F104" s="20">
+        <f>C104*3</f>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G104" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>12</v>
       </c>
-      <c r="B105" s="4">
+      <c r="B105">
         <v>62</v>
       </c>
-      <c r="C105" s="4">
+      <c r="C105" s="20">
         <v>1.68</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="20">
         <f t="shared" si="1"/>
         <v>104.16</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="s">
+      <c r="E105" s="18"/>
+      <c r="F105" s="20">
+        <f>C105*3</f>
+        <v>5.04</v>
+      </c>
+      <c r="G105" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>8</v>
       </c>
-      <c r="B106" s="4">
+      <c r="B106">
         <v>90</v>
       </c>
-      <c r="C106" s="4">
+      <c r="C106" s="20">
         <v>1.77</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="20">
         <f t="shared" si="1"/>
         <v>159.30000000000001</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
+      <c r="E106" s="18"/>
+      <c r="F106" s="20">
+        <f>C106*3</f>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G106" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>11</v>
       </c>
-      <c r="B107" s="4">
+      <c r="B107">
         <v>103</v>
       </c>
-      <c r="C107" s="4">
+      <c r="C107" s="20">
         <v>2.1799999999999997</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="20">
         <f t="shared" si="1"/>
         <v>224.53999999999996</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="4" t="s">
+      <c r="E107" s="18"/>
+      <c r="F107" s="20">
+        <f>C107*3</f>
+        <v>6.5399999999999991</v>
+      </c>
+      <c r="G107" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>13</v>
       </c>
-      <c r="B108" s="4">
+      <c r="B108">
         <v>32</v>
       </c>
-      <c r="C108" s="4">
+      <c r="C108" s="20">
         <v>2.84</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="20">
         <f t="shared" si="1"/>
         <v>90.88</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="4" t="s">
+      <c r="E108" s="18"/>
+      <c r="F108" s="20">
+        <f>C108*3</f>
+        <v>8.52</v>
+      </c>
+      <c r="G108" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>14</v>
       </c>
-      <c r="B109" s="4">
+      <c r="B109">
         <v>66</v>
       </c>
-      <c r="C109" s="4">
+      <c r="C109" s="20">
         <v>1.87</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="20">
         <f t="shared" si="1"/>
         <v>123.42</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="4" t="s">
+      <c r="E109" s="18"/>
+      <c r="F109" s="20">
+        <f>C109*3</f>
+        <v>5.61</v>
+      </c>
+      <c r="G109" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>13</v>
       </c>
-      <c r="B110" s="4">
+      <c r="B110">
         <v>97</v>
       </c>
-      <c r="C110" s="4">
+      <c r="C110" s="20">
         <v>2.8400000000000003</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="20">
         <f t="shared" si="1"/>
         <v>275.48</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="4" t="s">
+      <c r="E110" s="18"/>
+      <c r="F110" s="20">
+        <f>C110*3</f>
+        <v>8.5200000000000014</v>
+      </c>
+      <c r="G110" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>8</v>
       </c>
-      <c r="B111" s="4">
+      <c r="B111">
         <v>30</v>
       </c>
-      <c r="C111" s="4">
+      <c r="C111" s="20">
         <v>1.77</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="20">
         <f t="shared" si="1"/>
         <v>53.1</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="4" t="s">
+      <c r="E111" s="18"/>
+      <c r="F111" s="20">
+        <f>C111*3</f>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G111" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>12</v>
       </c>
-      <c r="B112" s="4">
+      <c r="B112">
         <v>29</v>
       </c>
-      <c r="C112" s="4">
+      <c r="C112" s="20">
         <v>1.68</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="20">
         <f t="shared" si="1"/>
         <v>48.72</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="4" t="s">
+      <c r="E112" s="18"/>
+      <c r="F112" s="20">
+        <f>C112*3</f>
+        <v>5.04</v>
+      </c>
+      <c r="G112" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>8</v>
       </c>
-      <c r="B113" s="4">
+      <c r="B113">
         <v>92</v>
       </c>
-      <c r="C113" s="4">
+      <c r="C113" s="20">
         <v>1.77</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="20">
         <f t="shared" si="1"/>
         <v>162.84</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="4" t="s">
+      <c r="E113" s="18"/>
+      <c r="F113" s="20">
+        <f>C113*3</f>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G113" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>11</v>
       </c>
-      <c r="B114" s="4">
+      <c r="B114">
         <v>139</v>
       </c>
-      <c r="C114" s="4">
+      <c r="C114" s="20">
         <v>2.1799999999999997</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="20">
         <f t="shared" si="1"/>
         <v>303.02</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="4" t="s">
+      <c r="E114" s="18"/>
+      <c r="F114" s="20">
+        <f>C114*3</f>
+        <v>6.5399999999999991</v>
+      </c>
+      <c r="G114" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>13</v>
       </c>
-      <c r="B115" s="4">
+      <c r="B115">
         <v>29</v>
       </c>
-      <c r="C115" s="4">
+      <c r="C115" s="20">
         <v>2.84</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="20">
         <f t="shared" si="1"/>
         <v>82.36</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="4" t="s">
+      <c r="E115" s="18"/>
+      <c r="F115" s="20">
+        <f>C115*3</f>
+        <v>8.52</v>
+      </c>
+      <c r="G115" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>16</v>
       </c>
-      <c r="B116" s="4">
+      <c r="B116">
         <v>30</v>
       </c>
-      <c r="C116" s="4">
+      <c r="C116" s="20">
         <v>2.27</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="20">
         <f t="shared" si="1"/>
         <v>68.099999999999994</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="4" t="s">
+      <c r="E116" s="18"/>
+      <c r="F116" s="20">
+        <f>C116*3</f>
+        <v>6.8100000000000005</v>
+      </c>
+      <c r="G116" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>10</v>
       </c>
-      <c r="B117" s="4">
+      <c r="B117">
         <v>36</v>
       </c>
-      <c r="C117" s="4">
+      <c r="C117" s="20">
         <v>1.8699999999999999</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="20">
         <f t="shared" si="1"/>
         <v>67.319999999999993</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="4" t="s">
+      <c r="E117" s="18"/>
+      <c r="F117" s="20">
+        <f>C117*3</f>
+        <v>5.6099999999999994</v>
+      </c>
+      <c r="G117" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>9</v>
       </c>
-      <c r="B118" s="4">
+      <c r="B118">
         <v>41</v>
       </c>
-      <c r="C118" s="4">
+      <c r="C118" s="20">
         <v>3.49</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="20">
         <f t="shared" si="1"/>
         <v>143.09</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="4" t="s">
+      <c r="E118" s="18"/>
+      <c r="F118" s="20">
+        <f>C118*3</f>
+        <v>10.47</v>
+      </c>
+      <c r="G118" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>8</v>
       </c>
-      <c r="B119" s="4">
+      <c r="B119">
         <v>44</v>
       </c>
-      <c r="C119" s="4">
+      <c r="C119" s="20">
         <v>1.7699999999999998</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="20">
         <f t="shared" si="1"/>
         <v>77.88</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="4" t="s">
+      <c r="E119" s="18"/>
+      <c r="F119" s="20">
+        <f>C119*3</f>
+        <v>5.31</v>
+      </c>
+      <c r="G119" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>12</v>
       </c>
-      <c r="B120" s="4">
+      <c r="B120">
         <v>29</v>
       </c>
-      <c r="C120" s="4">
+      <c r="C120" s="20">
         <v>1.68</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="20">
         <f t="shared" si="1"/>
         <v>48.72</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="4" t="s">
+      <c r="E120" s="18"/>
+      <c r="F120" s="20">
+        <f>C120*3</f>
+        <v>5.04</v>
+      </c>
+      <c r="G120" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>11</v>
       </c>
-      <c r="B121" s="4">
+      <c r="B121">
         <v>237</v>
       </c>
-      <c r="C121" s="4">
+      <c r="C121" s="20">
         <v>2.1799999999999997</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="20">
         <f t="shared" si="1"/>
         <v>516.66</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="4" t="s">
+      <c r="E121" s="18"/>
+      <c r="F121" s="20">
+        <f>C121*3</f>
+        <v>6.5399999999999991</v>
+      </c>
+      <c r="G121" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>10</v>
       </c>
-      <c r="B122" s="4">
+      <c r="B122">
         <v>65</v>
       </c>
-      <c r="C122" s="4">
+      <c r="C122" s="20">
         <v>1.8699999999999999</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="20">
         <f t="shared" si="1"/>
         <v>121.55</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="4" t="s">
+      <c r="E122" s="18"/>
+      <c r="F122" s="20">
+        <f>C122*3</f>
+        <v>5.6099999999999994</v>
+      </c>
+      <c r="G122" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>11</v>
       </c>
-      <c r="B123" s="4">
+      <c r="B123">
         <v>83</v>
       </c>
-      <c r="C123" s="4">
+      <c r="C123" s="20">
         <v>2.1800000000000002</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="20">
         <f t="shared" si="1"/>
         <v>180.94000000000003</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="4" t="s">
+      <c r="E123" s="18"/>
+      <c r="F123" s="20">
+        <f>C123*3</f>
+        <v>6.5400000000000009</v>
+      </c>
+      <c r="G123" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>11</v>
       </c>
-      <c r="B124" s="4">
+      <c r="B124">
         <v>32</v>
       </c>
-      <c r="C124" s="4">
+      <c r="C124" s="20">
         <v>2.1800000000000002</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="20">
         <f t="shared" si="1"/>
         <v>69.760000000000005</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="4" t="s">
+      <c r="E124" s="18"/>
+      <c r="F124" s="20">
+        <f>C124*3</f>
+        <v>6.5400000000000009</v>
+      </c>
+      <c r="G124" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>8</v>
       </c>
-      <c r="B125" s="4">
+      <c r="B125">
         <v>63</v>
       </c>
-      <c r="C125" s="4">
+      <c r="C125" s="20">
         <v>1.77</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="20">
         <f t="shared" si="1"/>
         <v>111.51</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="4" t="s">
+      <c r="E125" s="18"/>
+      <c r="F125" s="20">
+        <f>C125*3</f>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G125" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>15</v>
       </c>
-      <c r="B126" s="4">
+      <c r="B126">
         <v>29</v>
       </c>
-      <c r="C126" s="4">
+      <c r="C126" s="20">
         <v>3.15</v>
       </c>
-      <c r="D126">
+      <c r="D126" s="20">
         <f t="shared" si="1"/>
         <v>91.35</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="4" t="s">
+      <c r="E126" s="18"/>
+      <c r="F126" s="20">
+        <f>C126*3</f>
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="G126" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>14</v>
       </c>
-      <c r="B127" s="4">
+      <c r="B127">
         <v>77</v>
       </c>
-      <c r="C127" s="4">
+      <c r="C127" s="20">
         <v>1.87</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="20">
         <f t="shared" si="1"/>
         <v>143.99</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="4" t="s">
+      <c r="E127" s="18"/>
+      <c r="F127" s="20">
+        <f>C127*3</f>
+        <v>5.61</v>
+      </c>
+      <c r="G127" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>13</v>
       </c>
-      <c r="B128" s="4">
+      <c r="B128">
         <v>80</v>
       </c>
-      <c r="C128" s="4">
+      <c r="C128" s="20">
         <v>2.84</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="20">
         <f t="shared" si="1"/>
         <v>227.2</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="4" t="s">
+      <c r="E128" s="18"/>
+      <c r="F128" s="20">
+        <f>C128*3</f>
+        <v>8.52</v>
+      </c>
+      <c r="G128" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>8</v>
       </c>
-      <c r="B129" s="4">
+      <c r="B129">
         <v>102</v>
       </c>
-      <c r="C129" s="4">
+      <c r="C129" s="20">
         <v>1.77</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="20">
         <f t="shared" si="1"/>
         <v>180.54</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="4" t="s">
+      <c r="E129" s="18"/>
+      <c r="F129" s="20">
+        <f>C129*3</f>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G129" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>9</v>
       </c>
-      <c r="B130" s="4">
+      <c r="B130">
         <v>31</v>
       </c>
-      <c r="C130" s="4">
+      <c r="C130" s="20">
         <v>3.4899999999999998</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="20">
         <f t="shared" si="1"/>
         <v>108.19</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="4" t="s">
+      <c r="E130" s="18"/>
+      <c r="F130" s="20">
+        <f>C130*3</f>
+        <v>10.469999999999999</v>
+      </c>
+      <c r="G130" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>8</v>
       </c>
-      <c r="B131" s="4">
+      <c r="B131">
         <v>56</v>
       </c>
-      <c r="C131" s="4">
+      <c r="C131" s="20">
         <v>1.77</v>
       </c>
-      <c r="D131">
+      <c r="D131" s="20">
         <f t="shared" ref="D131:D194" si="2">C131*B131</f>
         <v>99.12</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="4" t="s">
+      <c r="E131" s="18"/>
+      <c r="F131" s="20">
+        <f>C131*3</f>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G131" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>11</v>
       </c>
-      <c r="B132" s="4">
+      <c r="B132">
         <v>52</v>
       </c>
-      <c r="C132" s="4">
+      <c r="C132" s="20">
         <v>2.1800000000000002</v>
       </c>
-      <c r="D132">
+      <c r="D132" s="20">
         <f t="shared" si="2"/>
         <v>113.36000000000001</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="4" t="s">
+      <c r="E132" s="18"/>
+      <c r="F132" s="20">
+        <f>C132*3</f>
+        <v>6.5400000000000009</v>
+      </c>
+      <c r="G132" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>8</v>
       </c>
-      <c r="B133" s="4">
+      <c r="B133">
         <v>51</v>
       </c>
-      <c r="C133" s="4">
+      <c r="C133" s="20">
         <v>1.77</v>
       </c>
-      <c r="D133">
+      <c r="D133" s="20">
         <f t="shared" si="2"/>
         <v>90.27</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="4" t="s">
+      <c r="E133" s="18"/>
+      <c r="F133" s="20">
+        <f>C133*3</f>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G133" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>12</v>
       </c>
-      <c r="B134" s="4">
+      <c r="B134">
         <v>24</v>
       </c>
-      <c r="C134" s="4">
+      <c r="C134" s="20">
         <v>1.68</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="20">
         <f t="shared" si="2"/>
         <v>40.32</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="4" t="s">
+      <c r="E134" s="18"/>
+      <c r="F134" s="20">
+        <f>C134*3</f>
+        <v>5.04</v>
+      </c>
+      <c r="G134" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>11</v>
       </c>
-      <c r="B135" s="4">
+      <c r="B135">
         <v>58</v>
       </c>
-      <c r="C135" s="4">
+      <c r="C135" s="20">
         <v>2.1800000000000002</v>
       </c>
-      <c r="D135">
+      <c r="D135" s="20">
         <f t="shared" si="2"/>
         <v>126.44000000000001</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="4" t="s">
+      <c r="E135" s="18"/>
+      <c r="F135" s="20">
+        <f>C135*3</f>
+        <v>6.5400000000000009</v>
+      </c>
+      <c r="G135" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>10</v>
       </c>
-      <c r="B136" s="4">
+      <c r="B136">
         <v>34</v>
       </c>
-      <c r="C136" s="4">
+      <c r="C136" s="20">
         <v>1.8699999999999999</v>
       </c>
-      <c r="D136">
+      <c r="D136" s="20">
         <f t="shared" si="2"/>
         <v>63.58</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="4" t="s">
+      <c r="E136" s="18"/>
+      <c r="F136" s="20">
+        <f>C136*3</f>
+        <v>5.6099999999999994</v>
+      </c>
+      <c r="G136" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>8</v>
       </c>
-      <c r="B137" s="4">
+      <c r="B137">
         <v>34</v>
       </c>
-      <c r="C137" s="4">
+      <c r="C137" s="20">
         <v>1.77</v>
       </c>
-      <c r="D137">
+      <c r="D137" s="20">
         <f t="shared" si="2"/>
         <v>60.18</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="4" t="s">
+      <c r="E137" s="18"/>
+      <c r="F137" s="20">
+        <f>C137*3</f>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G137" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>12</v>
       </c>
-      <c r="B138" s="4">
+      <c r="B138">
         <v>21</v>
       </c>
-      <c r="C138" s="4">
+      <c r="C138" s="20">
         <v>1.6800000000000002</v>
       </c>
-      <c r="D138">
+      <c r="D138" s="20">
         <f t="shared" si="2"/>
         <v>35.28</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="4" t="s">
+      <c r="E138" s="18"/>
+      <c r="F138" s="20">
+        <f>C138*3</f>
+        <v>5.0400000000000009</v>
+      </c>
+      <c r="G138" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>13</v>
       </c>
-      <c r="B139" s="4">
+      <c r="B139">
         <v>29</v>
       </c>
-      <c r="C139" s="4">
+      <c r="C139" s="20">
         <v>2.84</v>
       </c>
-      <c r="D139">
+      <c r="D139" s="20">
         <f t="shared" si="2"/>
         <v>82.36</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="4" t="s">
+      <c r="E139" s="18"/>
+      <c r="F139" s="20">
+        <f>C139*3</f>
+        <v>8.52</v>
+      </c>
+      <c r="G139" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>8</v>
       </c>
-      <c r="B140" s="4">
+      <c r="B140">
         <v>68</v>
       </c>
-      <c r="C140" s="4">
+      <c r="C140" s="20">
         <v>1.77</v>
       </c>
-      <c r="D140">
+      <c r="D140" s="20">
         <f t="shared" si="2"/>
         <v>120.36</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="4" t="s">
+      <c r="E140" s="18"/>
+      <c r="F140" s="20">
+        <f>C140*3</f>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G140" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>15</v>
       </c>
-      <c r="B141" s="4">
+      <c r="B141">
         <v>31</v>
       </c>
-      <c r="C141" s="4">
+      <c r="C141" s="20">
         <v>3.1500000000000004</v>
       </c>
-      <c r="D141">
+      <c r="D141" s="20">
         <f t="shared" si="2"/>
         <v>97.65</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="4" t="s">
+      <c r="E141" s="18"/>
+      <c r="F141" s="20">
+        <f>C141*3</f>
+        <v>9.4500000000000011</v>
+      </c>
+      <c r="G141" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>11</v>
       </c>
-      <c r="B142" s="4">
+      <c r="B142">
         <v>30</v>
       </c>
-      <c r="C142" s="4">
+      <c r="C142" s="20">
         <v>2.1800000000000002</v>
       </c>
-      <c r="D142">
+      <c r="D142" s="20">
         <f t="shared" si="2"/>
         <v>65.400000000000006</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="4" t="s">
+      <c r="E142" s="18"/>
+      <c r="F142" s="20">
+        <f>C142*3</f>
+        <v>6.5400000000000009</v>
+      </c>
+      <c r="G142" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>10</v>
       </c>
-      <c r="B143" s="4">
+      <c r="B143">
         <v>232</v>
       </c>
-      <c r="C143" s="4">
+      <c r="C143" s="20">
         <v>1.8699999999999999</v>
       </c>
-      <c r="D143">
+      <c r="D143" s="20">
         <f t="shared" si="2"/>
         <v>433.84</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="4" t="s">
+      <c r="E143" s="18"/>
+      <c r="F143" s="20">
+        <f>C143*3</f>
+        <v>5.6099999999999994</v>
+      </c>
+      <c r="G143" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>14</v>
       </c>
-      <c r="B144" s="4">
+      <c r="B144">
         <v>68</v>
       </c>
-      <c r="C144" s="4">
+      <c r="C144" s="20">
         <v>1.8699999999999999</v>
       </c>
-      <c r="D144">
+      <c r="D144" s="20">
         <f t="shared" si="2"/>
         <v>127.16</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="4" t="s">
+      <c r="E144" s="18"/>
+      <c r="F144" s="20">
+        <f>C144*3</f>
+        <v>5.6099999999999994</v>
+      </c>
+      <c r="G144" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>13</v>
       </c>
-      <c r="B145" s="4">
+      <c r="B145">
         <v>97</v>
       </c>
-      <c r="C145" s="4">
+      <c r="C145" s="20">
         <v>2.8400000000000003</v>
       </c>
-      <c r="D145">
+      <c r="D145" s="20">
         <f t="shared" si="2"/>
         <v>275.48</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="4" t="s">
+      <c r="E145" s="18"/>
+      <c r="F145" s="20">
+        <f>C145*3</f>
+        <v>8.5200000000000014</v>
+      </c>
+      <c r="G145" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
         <v>14</v>
       </c>
-      <c r="B146" s="4">
+      <c r="B146">
         <v>86</v>
       </c>
-      <c r="C146" s="4">
+      <c r="C146" s="20">
         <v>1.8699999999999999</v>
       </c>
-      <c r="D146">
+      <c r="D146" s="20">
         <f t="shared" si="2"/>
         <v>160.82</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="4" t="s">
+      <c r="E146" s="18"/>
+      <c r="F146" s="20">
+        <f>C146*3</f>
+        <v>5.6099999999999994</v>
+      </c>
+      <c r="G146" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>12</v>
       </c>
-      <c r="B147" s="4">
+      <c r="B147">
         <v>41</v>
       </c>
-      <c r="C147" s="4">
+      <c r="C147" s="20">
         <v>1.68</v>
       </c>
-      <c r="D147">
+      <c r="D147" s="20">
         <f t="shared" si="2"/>
         <v>68.88</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="4" t="s">
+      <c r="E147" s="18"/>
+      <c r="F147" s="20">
+        <f>C147*3</f>
+        <v>5.04</v>
+      </c>
+      <c r="G147" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
         <v>8</v>
       </c>
-      <c r="B148" s="4">
+      <c r="B148">
         <v>93</v>
       </c>
-      <c r="C148" s="4">
+      <c r="C148" s="20">
         <v>1.7700000000000002</v>
       </c>
-      <c r="D148">
+      <c r="D148" s="20">
         <f t="shared" si="2"/>
         <v>164.61</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="4" t="s">
+      <c r="E148" s="18"/>
+      <c r="F148" s="20">
+        <f>C148*3</f>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G148" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
         <v>12</v>
       </c>
-      <c r="B149" s="4">
+      <c r="B149">
         <v>47</v>
       </c>
-      <c r="C149" s="4">
+      <c r="C149" s="20">
         <v>1.68</v>
       </c>
-      <c r="D149">
+      <c r="D149" s="20">
         <f t="shared" si="2"/>
         <v>78.959999999999994</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="4" t="s">
+      <c r="E149" s="18"/>
+      <c r="F149" s="20">
+        <f>C149*3</f>
+        <v>5.04</v>
+      </c>
+      <c r="G149" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>8</v>
       </c>
-      <c r="B150" s="4">
+      <c r="B150">
         <v>103</v>
       </c>
-      <c r="C150" s="4">
+      <c r="C150" s="20">
         <v>1.77</v>
       </c>
-      <c r="D150">
+      <c r="D150" s="20">
         <f t="shared" si="2"/>
         <v>182.31</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="4" t="s">
+      <c r="E150" s="18"/>
+      <c r="F150" s="20">
+        <f>C150*3</f>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G150" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>12</v>
       </c>
-      <c r="B151" s="4">
+      <c r="B151">
         <v>33</v>
       </c>
-      <c r="C151" s="4">
+      <c r="C151" s="20">
         <v>1.68</v>
       </c>
-      <c r="D151">
+      <c r="D151" s="20">
         <f t="shared" si="2"/>
         <v>55.44</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="4" t="s">
+      <c r="E151" s="18"/>
+      <c r="F151" s="20">
+        <f>C151*3</f>
+        <v>5.04</v>
+      </c>
+      <c r="G151" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>14</v>
       </c>
-      <c r="B152" s="4">
+      <c r="B152">
         <v>57</v>
       </c>
-      <c r="C152" s="4">
+      <c r="C152" s="20">
         <v>1.87</v>
       </c>
-      <c r="D152">
+      <c r="D152" s="20">
         <f t="shared" si="2"/>
         <v>106.59</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="4" t="s">
+      <c r="E152" s="18"/>
+      <c r="F152" s="20">
+        <f>C152*3</f>
+        <v>5.61</v>
+      </c>
+      <c r="G152" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>13</v>
       </c>
-      <c r="B153" s="4">
+      <c r="B153">
         <v>65</v>
       </c>
-      <c r="C153" s="4">
+      <c r="C153" s="20">
         <v>2.84</v>
       </c>
-      <c r="D153">
+      <c r="D153" s="20">
         <f t="shared" si="2"/>
         <v>184.6</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="4" t="s">
+      <c r="E153" s="18"/>
+      <c r="F153" s="20">
+        <f>C153*3</f>
+        <v>8.52</v>
+      </c>
+      <c r="G153" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>8</v>
       </c>
-      <c r="B154" s="4">
+      <c r="B154">
         <v>118</v>
       </c>
-      <c r="C154" s="4">
+      <c r="C154" s="20">
         <v>1.77</v>
       </c>
-      <c r="D154">
+      <c r="D154" s="20">
         <f t="shared" si="2"/>
         <v>208.86</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="4" t="s">
+      <c r="E154" s="18"/>
+      <c r="F154" s="20">
+        <f>C154*3</f>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G154" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>11</v>
       </c>
-      <c r="B155" s="4">
+      <c r="B155">
         <v>36</v>
       </c>
-      <c r="C155" s="4">
+      <c r="C155" s="20">
         <v>2.1800000000000002</v>
       </c>
-      <c r="D155">
+      <c r="D155" s="20">
         <f t="shared" si="2"/>
         <v>78.48</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="4" t="s">
+      <c r="E155" s="18"/>
+      <c r="F155" s="20">
+        <f>C155*3</f>
+        <v>6.5400000000000009</v>
+      </c>
+      <c r="G155" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>13</v>
       </c>
-      <c r="B156" s="4">
+      <c r="B156">
         <v>123</v>
       </c>
-      <c r="C156" s="4">
+      <c r="C156" s="20">
         <v>2.84</v>
       </c>
-      <c r="D156">
+      <c r="D156" s="20">
         <f t="shared" si="2"/>
         <v>349.32</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="4" t="s">
+      <c r="E156" s="18"/>
+      <c r="F156" s="20">
+        <f>C156*3</f>
+        <v>8.52</v>
+      </c>
+      <c r="G156" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>8</v>
       </c>
-      <c r="B157" s="4">
+      <c r="B157">
         <v>90</v>
       </c>
-      <c r="C157" s="4">
+      <c r="C157" s="20">
         <v>1.77</v>
       </c>
-      <c r="D157">
+      <c r="D157" s="20">
         <f t="shared" si="2"/>
         <v>159.30000000000001</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="4" t="s">
+      <c r="E157" s="18"/>
+      <c r="F157" s="20">
+        <f>C157*3</f>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G157" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
         <v>9</v>
       </c>
-      <c r="B158" s="4">
+      <c r="B158">
         <v>21</v>
       </c>
-      <c r="C158" s="4">
+      <c r="C158" s="20">
         <v>3.49</v>
       </c>
-      <c r="D158">
+      <c r="D158" s="20">
         <f t="shared" si="2"/>
         <v>73.290000000000006</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="4" t="s">
+      <c r="E158" s="18"/>
+      <c r="F158" s="20">
+        <f>C158*3</f>
+        <v>10.47</v>
+      </c>
+      <c r="G158" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
         <v>8</v>
       </c>
-      <c r="B159" s="4">
+      <c r="B159">
         <v>48</v>
       </c>
-      <c r="C159" s="4">
+      <c r="C159" s="20">
         <v>1.7699999999999998</v>
       </c>
-      <c r="D159">
+      <c r="D159" s="20">
         <f t="shared" si="2"/>
         <v>84.96</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="4" t="s">
+      <c r="E159" s="18"/>
+      <c r="F159" s="20">
+        <f>C159*3</f>
+        <v>5.31</v>
+      </c>
+      <c r="G159" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>12</v>
       </c>
-      <c r="B160" s="4">
+      <c r="B160">
         <v>24</v>
       </c>
-      <c r="C160" s="4">
+      <c r="C160" s="20">
         <v>1.68</v>
       </c>
-      <c r="D160">
+      <c r="D160" s="20">
         <f t="shared" si="2"/>
         <v>40.32</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="4" t="s">
+      <c r="E160" s="18"/>
+      <c r="F160" s="20">
+        <f>C160*3</f>
+        <v>5.04</v>
+      </c>
+      <c r="G160" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>10</v>
       </c>
-      <c r="B161" s="4">
+      <c r="B161">
         <v>67</v>
       </c>
-      <c r="C161" s="4">
+      <c r="C161" s="20">
         <v>1.87</v>
       </c>
-      <c r="D161">
+      <c r="D161" s="20">
         <f t="shared" si="2"/>
         <v>125.29</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="4" t="s">
+      <c r="E161" s="18"/>
+      <c r="F161" s="20">
+        <f>C161*3</f>
+        <v>5.61</v>
+      </c>
+      <c r="G161" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
         <v>14</v>
       </c>
-      <c r="B162" s="4">
+      <c r="B162">
         <v>27</v>
       </c>
-      <c r="C162" s="4">
+      <c r="C162" s="20">
         <v>1.87</v>
       </c>
-      <c r="D162">
+      <c r="D162" s="20">
         <f t="shared" si="2"/>
         <v>50.49</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="4" t="s">
+      <c r="E162" s="18"/>
+      <c r="F162" s="20">
+        <f>C162*3</f>
+        <v>5.61</v>
+      </c>
+      <c r="G162" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>13</v>
       </c>
-      <c r="B163" s="4">
+      <c r="B163">
         <v>129</v>
       </c>
-      <c r="C163" s="4">
+      <c r="C163" s="20">
         <v>2.8400000000000003</v>
       </c>
-      <c r="D163">
+      <c r="D163" s="20">
         <f t="shared" si="2"/>
         <v>366.36</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="4" t="s">
+      <c r="E163" s="18"/>
+      <c r="F163" s="20">
+        <f>C163*3</f>
+        <v>8.5200000000000014</v>
+      </c>
+      <c r="G163" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>11</v>
       </c>
-      <c r="B164" s="4">
+      <c r="B164">
         <v>77</v>
       </c>
-      <c r="C164" s="4">
+      <c r="C164" s="20">
         <v>2.1800000000000002</v>
       </c>
-      <c r="D164">
+      <c r="D164" s="20">
         <f t="shared" si="2"/>
         <v>167.86</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="4" t="s">
+      <c r="E164" s="18"/>
+      <c r="F164" s="20">
+        <f>C164*3</f>
+        <v>6.5400000000000009</v>
+      </c>
+      <c r="G164" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>10</v>
       </c>
-      <c r="B165" s="4">
+      <c r="B165">
         <v>58</v>
       </c>
-      <c r="C165" s="4">
+      <c r="C165" s="20">
         <v>1.8699999999999999</v>
       </c>
-      <c r="D165">
+      <c r="D165" s="20">
         <f t="shared" si="2"/>
         <v>108.46</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="4" t="s">
+      <c r="E165" s="18"/>
+      <c r="F165" s="20">
+        <f>C165*3</f>
+        <v>5.6099999999999994</v>
+      </c>
+      <c r="G165" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
         <v>14</v>
       </c>
-      <c r="B166" s="4">
+      <c r="B166">
         <v>47</v>
       </c>
-      <c r="C166" s="4">
+      <c r="C166" s="20">
         <v>1.87</v>
       </c>
-      <c r="D166">
+      <c r="D166" s="20">
         <f t="shared" si="2"/>
         <v>87.89</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="4" t="s">
+      <c r="E166" s="18"/>
+      <c r="F166" s="20">
+        <f>C166*3</f>
+        <v>5.61</v>
+      </c>
+      <c r="G166" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>13</v>
       </c>
-      <c r="B167" s="4">
+      <c r="B167">
         <v>33</v>
       </c>
-      <c r="C167" s="4">
+      <c r="C167" s="20">
         <v>2.84</v>
       </c>
-      <c r="D167">
+      <c r="D167" s="20">
         <f t="shared" si="2"/>
         <v>93.72</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="4" t="s">
+      <c r="E167" s="18"/>
+      <c r="F167" s="20">
+        <f>C167*3</f>
+        <v>8.52</v>
+      </c>
+      <c r="G167" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>10</v>
       </c>
-      <c r="B168" s="4">
+      <c r="B168">
         <v>82</v>
       </c>
-      <c r="C168" s="4">
+      <c r="C168" s="20">
         <v>1.87</v>
       </c>
-      <c r="D168">
+      <c r="D168" s="20">
         <f t="shared" si="2"/>
         <v>153.34</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="4" t="s">
+      <c r="E168" s="18"/>
+      <c r="F168" s="20">
+        <f>C168*3</f>
+        <v>5.61</v>
+      </c>
+      <c r="G168" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>8</v>
       </c>
-      <c r="B169" s="4">
+      <c r="B169">
         <v>58</v>
       </c>
-      <c r="C169" s="4">
+      <c r="C169" s="20">
         <v>1.77</v>
       </c>
-      <c r="D169">
+      <c r="D169" s="20">
         <f t="shared" si="2"/>
         <v>102.66</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="4" t="s">
+      <c r="E169" s="18"/>
+      <c r="F169" s="20">
+        <f>C169*3</f>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G169" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>15</v>
       </c>
-      <c r="B170" s="4">
+      <c r="B170">
         <v>30</v>
       </c>
-      <c r="C170" s="4">
+      <c r="C170" s="20">
         <v>3.15</v>
       </c>
-      <c r="D170">
+      <c r="D170" s="20">
         <f t="shared" si="2"/>
         <v>94.5</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="4" t="s">
+      <c r="E170" s="18"/>
+      <c r="F170" s="20">
+        <f>C170*3</f>
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="G170" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
         <v>10</v>
       </c>
-      <c r="B171" s="4">
+      <c r="B171">
         <v>43</v>
       </c>
-      <c r="C171" s="4">
+      <c r="C171" s="20">
         <v>1.8699999999999999</v>
       </c>
-      <c r="D171">
+      <c r="D171" s="20">
         <f t="shared" si="2"/>
         <v>80.41</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="4" t="s">
+      <c r="E171" s="18"/>
+      <c r="F171" s="20">
+        <f>C171*3</f>
+        <v>5.6099999999999994</v>
+      </c>
+      <c r="G171" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
         <v>8</v>
       </c>
-      <c r="B172" s="4">
+      <c r="B172">
         <v>84</v>
       </c>
-      <c r="C172" s="4">
+      <c r="C172" s="20">
         <v>1.77</v>
       </c>
-      <c r="D172">
+      <c r="D172" s="20">
         <f t="shared" si="2"/>
         <v>148.68</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="4" t="s">
+      <c r="E172" s="18"/>
+      <c r="F172" s="20">
+        <f>C172*3</f>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G172" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
         <v>11</v>
       </c>
-      <c r="B173" s="4">
+      <c r="B173">
         <v>36</v>
       </c>
-      <c r="C173" s="4">
+      <c r="C173" s="20">
         <v>2.1800000000000002</v>
       </c>
-      <c r="D173">
+      <c r="D173" s="20">
         <f t="shared" si="2"/>
         <v>78.48</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="4" t="s">
+      <c r="E173" s="18"/>
+      <c r="F173" s="20">
+        <f>C173*3</f>
+        <v>6.5400000000000009</v>
+      </c>
+      <c r="G173" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
         <v>13</v>
       </c>
-      <c r="B174" s="4">
+      <c r="B174">
         <v>44</v>
       </c>
-      <c r="C174" s="4">
+      <c r="C174" s="20">
         <v>2.84</v>
       </c>
-      <c r="D174">
+      <c r="D174" s="20">
         <f t="shared" si="2"/>
         <v>124.96</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="4" t="s">
+      <c r="E174" s="18"/>
+      <c r="F174" s="20">
+        <f>C174*3</f>
+        <v>8.52</v>
+      </c>
+      <c r="G174" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>14</v>
       </c>
-      <c r="B175" s="4">
+      <c r="B175">
         <v>27</v>
       </c>
-      <c r="C175" s="4">
+      <c r="C175" s="20">
         <v>1.87</v>
       </c>
-      <c r="D175">
+      <c r="D175" s="20">
         <f t="shared" si="2"/>
         <v>50.49</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="4" t="s">
+      <c r="E175" s="18"/>
+      <c r="F175" s="20">
+        <f>C175*3</f>
+        <v>5.61</v>
+      </c>
+      <c r="G175" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
         <v>13</v>
       </c>
-      <c r="B176" s="4">
+      <c r="B176">
         <v>120</v>
       </c>
-      <c r="C176" s="4">
+      <c r="C176" s="20">
         <v>2.8400000000000003</v>
       </c>
-      <c r="D176">
+      <c r="D176" s="20">
         <f t="shared" si="2"/>
         <v>340.8</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="4" t="s">
+      <c r="E176" s="18"/>
+      <c r="F176" s="20">
+        <f>C176*3</f>
+        <v>8.5200000000000014</v>
+      </c>
+      <c r="G176" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
         <v>9</v>
       </c>
-      <c r="B177" s="4">
+      <c r="B177">
         <v>26</v>
       </c>
-      <c r="C177" s="4">
+      <c r="C177" s="20">
         <v>3.4899999999999998</v>
       </c>
-      <c r="D177">
+      <c r="D177" s="20">
         <f t="shared" si="2"/>
         <v>90.74</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="4" t="s">
+      <c r="E177" s="18"/>
+      <c r="F177" s="20">
+        <f>C177*3</f>
+        <v>10.469999999999999</v>
+      </c>
+      <c r="G177" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>8</v>
       </c>
-      <c r="B178" s="4">
+      <c r="B178">
         <v>73</v>
       </c>
-      <c r="C178" s="4">
+      <c r="C178" s="20">
         <v>1.77</v>
       </c>
-      <c r="D178">
+      <c r="D178" s="20">
         <f t="shared" si="2"/>
         <v>129.21</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="4" t="s">
+      <c r="E178" s="18"/>
+      <c r="F178" s="20">
+        <f>C178*3</f>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G178" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>14</v>
       </c>
-      <c r="B179" s="4">
+      <c r="B179">
         <v>38</v>
       </c>
-      <c r="C179" s="4">
+      <c r="C179" s="20">
         <v>1.87</v>
       </c>
-      <c r="D179">
+      <c r="D179" s="20">
         <f t="shared" si="2"/>
         <v>71.06</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="4" t="s">
+      <c r="E179" s="18"/>
+      <c r="F179" s="20">
+        <f>C179*3</f>
+        <v>5.61</v>
+      </c>
+      <c r="G179" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
         <v>13</v>
       </c>
-      <c r="B180" s="4">
+      <c r="B180">
         <v>40</v>
       </c>
-      <c r="C180" s="4">
+      <c r="C180" s="20">
         <v>2.84</v>
       </c>
-      <c r="D180">
+      <c r="D180" s="20">
         <f t="shared" si="2"/>
         <v>113.6</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="4" t="s">
+      <c r="E180" s="18"/>
+      <c r="F180" s="20">
+        <f>C180*3</f>
+        <v>8.52</v>
+      </c>
+      <c r="G180" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>8</v>
       </c>
-      <c r="B181" s="4">
+      <c r="B181">
         <v>41</v>
       </c>
-      <c r="C181" s="4">
+      <c r="C181" s="20">
         <v>1.7699999999999998</v>
       </c>
-      <c r="D181">
+      <c r="D181" s="20">
         <f t="shared" si="2"/>
         <v>72.569999999999993</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="4" t="s">
+      <c r="E181" s="18"/>
+      <c r="F181" s="20">
+        <f>C181*3</f>
+        <v>5.31</v>
+      </c>
+      <c r="G181" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
         <v>16</v>
       </c>
-      <c r="B182" s="4">
+      <c r="B182">
         <v>27</v>
       </c>
-      <c r="C182" s="4">
+      <c r="C182" s="20">
         <v>2.27</v>
       </c>
-      <c r="D182">
+      <c r="D182" s="20">
         <f t="shared" si="2"/>
         <v>61.29</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="4" t="s">
+      <c r="E182" s="18"/>
+      <c r="F182" s="20">
+        <f>C182*3</f>
+        <v>6.8100000000000005</v>
+      </c>
+      <c r="G182" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
         <v>10</v>
       </c>
-      <c r="B183" s="4">
+      <c r="B183">
         <v>38</v>
       </c>
-      <c r="C183" s="4">
+      <c r="C183" s="20">
         <v>1.87</v>
       </c>
-      <c r="D183">
+      <c r="D183" s="20">
         <f t="shared" si="2"/>
         <v>71.06</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="4" t="s">
+      <c r="E183" s="18"/>
+      <c r="F183" s="20">
+        <f>C183*3</f>
+        <v>5.61</v>
+      </c>
+      <c r="G183" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
         <v>9</v>
       </c>
-      <c r="B184" s="4">
+      <c r="B184">
         <v>34</v>
       </c>
-      <c r="C184" s="4">
+      <c r="C184" s="20">
         <v>3.4899999999999998</v>
       </c>
-      <c r="D184">
+      <c r="D184" s="20">
         <f t="shared" si="2"/>
         <v>118.66</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="4" t="s">
+      <c r="E184" s="18"/>
+      <c r="F184" s="20">
+        <f>C184*3</f>
+        <v>10.469999999999999</v>
+      </c>
+      <c r="G184" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
         <v>14</v>
       </c>
-      <c r="B185" s="4">
+      <c r="B185">
         <v>65</v>
       </c>
-      <c r="C185" s="4">
+      <c r="C185" s="20">
         <v>1.8699999999999999</v>
       </c>
-      <c r="D185">
+      <c r="D185" s="20">
         <f t="shared" si="2"/>
         <v>121.55</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="4" t="s">
+      <c r="E185" s="18"/>
+      <c r="F185" s="20">
+        <f>C185*3</f>
+        <v>5.6099999999999994</v>
+      </c>
+      <c r="G185" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
         <v>13</v>
       </c>
-      <c r="B186" s="4">
+      <c r="B186">
         <v>60</v>
       </c>
-      <c r="C186" s="4">
+      <c r="C186" s="20">
         <v>2.8400000000000003</v>
       </c>
-      <c r="D186">
+      <c r="D186" s="20">
         <f t="shared" si="2"/>
         <v>170.4</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="4" t="s">
+      <c r="E186" s="18"/>
+      <c r="F186" s="20">
+        <f>C186*3</f>
+        <v>8.5200000000000014</v>
+      </c>
+      <c r="G186" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
         <v>11</v>
       </c>
-      <c r="B187" s="4">
+      <c r="B187">
         <v>37</v>
       </c>
-      <c r="C187" s="4">
+      <c r="C187" s="20">
         <v>2.1799999999999997</v>
       </c>
-      <c r="D187">
+      <c r="D187" s="20">
         <f t="shared" si="2"/>
         <v>80.66</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="4" t="s">
+      <c r="E187" s="18"/>
+      <c r="F187" s="20">
+        <f>C187*3</f>
+        <v>6.5399999999999991</v>
+      </c>
+      <c r="G187" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
         <v>10</v>
       </c>
-      <c r="B188" s="4">
+      <c r="B188">
         <v>40</v>
       </c>
-      <c r="C188" s="4">
+      <c r="C188" s="20">
         <v>1.8699999999999999</v>
       </c>
-      <c r="D188">
+      <c r="D188" s="20">
         <f t="shared" si="2"/>
         <v>74.8</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="4" t="s">
+      <c r="E188" s="18"/>
+      <c r="F188" s="20">
+        <f>C188*3</f>
+        <v>5.6099999999999994</v>
+      </c>
+      <c r="G188" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
         <v>14</v>
       </c>
-      <c r="B189" s="4">
+      <c r="B189">
         <v>26</v>
       </c>
-      <c r="C189" s="4">
+      <c r="C189" s="20">
         <v>1.8699999999999999</v>
       </c>
-      <c r="D189">
+      <c r="D189" s="20">
         <f t="shared" si="2"/>
         <v>48.62</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="4" t="s">
+      <c r="E189" s="18"/>
+      <c r="F189" s="20">
+        <f>C189*3</f>
+        <v>5.6099999999999994</v>
+      </c>
+      <c r="G189" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
         <v>16</v>
       </c>
-      <c r="B190" s="4">
+      <c r="B190">
         <v>22</v>
       </c>
-      <c r="C190" s="4">
+      <c r="C190" s="20">
         <v>2.27</v>
       </c>
-      <c r="D190">
+      <c r="D190" s="20">
         <f t="shared" si="2"/>
         <v>49.94</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="4" t="s">
+      <c r="E190" s="18"/>
+      <c r="F190" s="20">
+        <f>C190*3</f>
+        <v>6.8100000000000005</v>
+      </c>
+      <c r="G190" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
         <v>10</v>
       </c>
-      <c r="B191" s="4">
+      <c r="B191">
         <v>32</v>
       </c>
-      <c r="C191" s="4">
+      <c r="C191" s="20">
         <v>1.87</v>
       </c>
-      <c r="D191">
+      <c r="D191" s="20">
         <f t="shared" si="2"/>
         <v>59.84</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="4" t="s">
+      <c r="E191" s="18"/>
+      <c r="F191" s="20">
+        <f>C191*3</f>
+        <v>5.61</v>
+      </c>
+      <c r="G191" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
         <v>9</v>
       </c>
-      <c r="B192" s="4">
+      <c r="B192">
         <v>23</v>
       </c>
-      <c r="C192" s="4">
+      <c r="C192" s="20">
         <v>3.4899999999999998</v>
       </c>
-      <c r="D192">
+      <c r="D192" s="20">
         <f t="shared" si="2"/>
         <v>80.27</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="4" t="s">
+      <c r="E192" s="18"/>
+      <c r="F192" s="20">
+        <f>C192*3</f>
+        <v>10.469999999999999</v>
+      </c>
+      <c r="G192" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
         <v>11</v>
       </c>
-      <c r="B193" s="4">
+      <c r="B193">
         <v>20</v>
       </c>
-      <c r="C193" s="4">
+      <c r="C193" s="20">
         <v>2.1800000000000002</v>
       </c>
-      <c r="D193">
+      <c r="D193" s="20">
         <f t="shared" si="2"/>
         <v>43.6</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="4" t="s">
+      <c r="E193" s="18"/>
+      <c r="F193" s="20">
+        <f>C193*3</f>
+        <v>6.5400000000000009</v>
+      </c>
+      <c r="G193" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
         <v>10</v>
       </c>
-      <c r="B194" s="4">
+      <c r="B194">
         <v>64</v>
       </c>
-      <c r="C194" s="4">
+      <c r="C194" s="20">
         <v>1.87</v>
       </c>
-      <c r="D194">
+      <c r="D194" s="20">
         <f t="shared" si="2"/>
         <v>119.68</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="4" t="s">
+      <c r="E194" s="18"/>
+      <c r="F194" s="20">
+        <f>C194*3</f>
+        <v>5.61</v>
+      </c>
+      <c r="G194" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
         <v>8</v>
       </c>
-      <c r="B195" s="4">
+      <c r="B195">
         <v>71</v>
       </c>
-      <c r="C195" s="4">
+      <c r="C195" s="20">
         <v>1.77</v>
       </c>
-      <c r="D195">
+      <c r="D195" s="20">
         <f t="shared" ref="D195:D245" si="3">C195*B195</f>
         <v>125.67</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" s="4" t="s">
+      <c r="E195" s="18"/>
+      <c r="F195" s="20">
+        <f>C195*3</f>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G195" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
         <v>11</v>
       </c>
-      <c r="B196" s="4">
+      <c r="B196">
         <v>90</v>
       </c>
-      <c r="C196" s="4">
+      <c r="C196" s="20">
         <v>2.1799999999999997</v>
       </c>
-      <c r="D196">
+      <c r="D196" s="20">
         <f t="shared" si="3"/>
         <v>196.2</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="4" t="s">
+      <c r="E196" s="18"/>
+      <c r="F196" s="20">
+        <f>C196*3</f>
+        <v>6.5399999999999991</v>
+      </c>
+      <c r="G196" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
         <v>13</v>
       </c>
-      <c r="B197" s="4">
+      <c r="B197">
         <v>38</v>
       </c>
-      <c r="C197" s="4">
+      <c r="C197" s="20">
         <v>2.84</v>
       </c>
-      <c r="D197">
+      <c r="D197" s="20">
         <f t="shared" si="3"/>
         <v>107.91999999999999</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" s="4" t="s">
+      <c r="E197" s="18"/>
+      <c r="F197" s="20">
+        <f>C197*3</f>
+        <v>8.52</v>
+      </c>
+      <c r="G197" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
         <v>8</v>
       </c>
-      <c r="B198" s="4">
+      <c r="B198">
         <v>55</v>
       </c>
-      <c r="C198" s="4">
+      <c r="C198" s="20">
         <v>1.7699999999999998</v>
       </c>
-      <c r="D198">
+      <c r="D198" s="20">
         <f t="shared" si="3"/>
         <v>97.35</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="4" t="s">
+      <c r="E198" s="18"/>
+      <c r="F198" s="20">
+        <f>C198*3</f>
+        <v>5.31</v>
+      </c>
+      <c r="G198" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
         <v>15</v>
       </c>
-      <c r="B199" s="4">
+      <c r="B199">
         <v>22</v>
       </c>
-      <c r="C199" s="4">
+      <c r="C199" s="20">
         <v>3.15</v>
       </c>
-      <c r="D199">
+      <c r="D199" s="20">
         <f t="shared" si="3"/>
         <v>69.3</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="4" t="s">
+      <c r="E199" s="18"/>
+      <c r="F199" s="20">
+        <f>C199*3</f>
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="G199" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
         <v>8</v>
       </c>
-      <c r="B200" s="4">
+      <c r="B200">
         <v>34</v>
       </c>
-      <c r="C200" s="4">
+      <c r="C200" s="20">
         <v>1.77</v>
       </c>
-      <c r="D200">
+      <c r="D200" s="20">
         <f t="shared" si="3"/>
         <v>60.18</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="4" t="s">
+      <c r="E200" s="18"/>
+      <c r="F200" s="20">
+        <f>C200*3</f>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G200" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
         <v>14</v>
       </c>
-      <c r="B201" s="4">
+      <c r="B201">
         <v>39</v>
       </c>
-      <c r="C201" s="4">
+      <c r="C201" s="20">
         <v>1.87</v>
       </c>
-      <c r="D201">
+      <c r="D201" s="20">
         <f t="shared" si="3"/>
         <v>72.930000000000007</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="4" t="s">
+      <c r="E201" s="18"/>
+      <c r="F201" s="20">
+        <f>C201*3</f>
+        <v>5.61</v>
+      </c>
+      <c r="G201" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
         <v>13</v>
       </c>
-      <c r="B202" s="4">
+      <c r="B202">
         <v>41</v>
       </c>
-      <c r="C202" s="4">
+      <c r="C202" s="20">
         <v>2.84</v>
       </c>
-      <c r="D202">
+      <c r="D202" s="20">
         <f t="shared" si="3"/>
         <v>116.44</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="4" t="s">
+      <c r="E202" s="18"/>
+      <c r="F202" s="20">
+        <f>C202*3</f>
+        <v>8.52</v>
+      </c>
+      <c r="G202" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
         <v>8</v>
       </c>
-      <c r="B203" s="4">
+      <c r="B203">
         <v>41</v>
       </c>
-      <c r="C203" s="4">
+      <c r="C203" s="20">
         <v>1.7699999999999998</v>
       </c>
-      <c r="D203">
+      <c r="D203" s="20">
         <f t="shared" si="3"/>
         <v>72.569999999999993</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="4" t="s">
+      <c r="E203" s="18"/>
+      <c r="F203" s="20">
+        <f>C203*3</f>
+        <v>5.31</v>
+      </c>
+      <c r="G203" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
         <v>11</v>
       </c>
-      <c r="B204" s="4">
+      <c r="B204">
         <v>136</v>
       </c>
-      <c r="C204" s="4">
+      <c r="C204" s="20">
         <v>2.1800000000000002</v>
       </c>
-      <c r="D204">
+      <c r="D204" s="20">
         <f t="shared" si="3"/>
         <v>296.48</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="4" t="s">
+      <c r="E204" s="18"/>
+      <c r="F204" s="20">
+        <f>C204*3</f>
+        <v>6.5400000000000009</v>
+      </c>
+      <c r="G204" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
         <v>8</v>
       </c>
-      <c r="B205" s="4">
+      <c r="B205">
         <v>25</v>
       </c>
-      <c r="C205" s="4">
+      <c r="C205" s="20">
         <v>1.77</v>
       </c>
-      <c r="D205">
+      <c r="D205" s="20">
         <f t="shared" si="3"/>
         <v>44.25</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" s="4" t="s">
+      <c r="E205" s="18"/>
+      <c r="F205" s="20">
+        <f>C205*3</f>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G205" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
         <v>15</v>
       </c>
-      <c r="B206" s="4">
+      <c r="B206">
         <v>26</v>
       </c>
-      <c r="C206" s="4">
+      <c r="C206" s="20">
         <v>3.1500000000000004</v>
       </c>
-      <c r="D206">
+      <c r="D206" s="20">
         <f t="shared" si="3"/>
         <v>81.900000000000006</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="4" t="s">
+      <c r="E206" s="18"/>
+      <c r="F206" s="20">
+        <f>C206*3</f>
+        <v>9.4500000000000011</v>
+      </c>
+      <c r="G206" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
         <v>14</v>
       </c>
-      <c r="B207" s="4">
+      <c r="B207">
         <v>50</v>
       </c>
-      <c r="C207" s="4">
+      <c r="C207" s="20">
         <v>1.87</v>
       </c>
-      <c r="D207">
+      <c r="D207" s="20">
         <f t="shared" si="3"/>
         <v>93.5</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="4" t="s">
+      <c r="E207" s="18"/>
+      <c r="F207" s="20">
+        <f>C207*3</f>
+        <v>5.61</v>
+      </c>
+      <c r="G207" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
         <v>13</v>
       </c>
-      <c r="B208" s="4">
+      <c r="B208">
         <v>79</v>
       </c>
-      <c r="C208" s="4">
+      <c r="C208" s="20">
         <v>2.8400000000000003</v>
       </c>
-      <c r="D208">
+      <c r="D208" s="20">
         <f t="shared" si="3"/>
         <v>224.36</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" s="4" t="s">
+      <c r="E208" s="18"/>
+      <c r="F208" s="20">
+        <f>C208*3</f>
+        <v>8.5200000000000014</v>
+      </c>
+      <c r="G208" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
         <v>8</v>
       </c>
-      <c r="B209" s="4">
+      <c r="B209">
         <v>30</v>
       </c>
-      <c r="C209" s="4">
+      <c r="C209" s="20">
         <v>1.77</v>
       </c>
-      <c r="D209">
+      <c r="D209" s="20">
         <f t="shared" si="3"/>
         <v>53.1</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="4" t="s">
+      <c r="E209" s="18"/>
+      <c r="F209" s="20">
+        <f>C209*3</f>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G209" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
         <v>12</v>
       </c>
-      <c r="B210" s="4">
+      <c r="B210">
         <v>20</v>
       </c>
-      <c r="C210" s="4">
+      <c r="C210" s="20">
         <v>1.6800000000000002</v>
       </c>
-      <c r="D210">
+      <c r="D210" s="20">
         <f t="shared" si="3"/>
         <v>33.6</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" s="4" t="s">
+      <c r="E210" s="18"/>
+      <c r="F210" s="20">
+        <f>C210*3</f>
+        <v>5.0400000000000009</v>
+      </c>
+      <c r="G210" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
         <v>8</v>
       </c>
-      <c r="B211" s="4">
+      <c r="B211">
         <v>49</v>
       </c>
-      <c r="C211" s="4">
+      <c r="C211" s="20">
         <v>1.77</v>
       </c>
-      <c r="D211">
+      <c r="D211" s="20">
         <f t="shared" si="3"/>
         <v>86.73</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" s="4" t="s">
+      <c r="E211" s="18"/>
+      <c r="F211" s="20">
+        <f>C211*3</f>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G211" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
         <v>11</v>
       </c>
-      <c r="B212" s="4">
+      <c r="B212">
         <v>40</v>
       </c>
-      <c r="C212" s="4">
+      <c r="C212" s="20">
         <v>2.1800000000000002</v>
       </c>
-      <c r="D212">
+      <c r="D212" s="20">
         <f t="shared" si="3"/>
         <v>87.2</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" s="4" t="s">
+      <c r="E212" s="18"/>
+      <c r="F212" s="20">
+        <f>C212*3</f>
+        <v>6.5400000000000009</v>
+      </c>
+      <c r="G212" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
         <v>8</v>
       </c>
-      <c r="B213" s="4">
+      <c r="B213">
         <v>31</v>
       </c>
-      <c r="C213" s="4">
+      <c r="C213" s="20">
         <v>1.77</v>
       </c>
-      <c r="D213">
+      <c r="D213" s="20">
         <f t="shared" si="3"/>
         <v>54.87</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" s="4" t="s">
+      <c r="E213" s="18"/>
+      <c r="F213" s="20">
+        <f>C213*3</f>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G213" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
         <v>15</v>
       </c>
-      <c r="B214" s="4">
+      <c r="B214">
         <v>21</v>
       </c>
-      <c r="C214" s="4">
+      <c r="C214" s="20">
         <v>3.1500000000000004</v>
       </c>
-      <c r="D214">
+      <c r="D214" s="20">
         <f t="shared" si="3"/>
         <v>66.150000000000006</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215" s="4" t="s">
+      <c r="E214" s="18"/>
+      <c r="F214" s="20">
+        <f>C214*3</f>
+        <v>9.4500000000000011</v>
+      </c>
+      <c r="G214" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
         <v>14</v>
       </c>
-      <c r="B215" s="4">
+      <c r="B215">
         <v>43</v>
       </c>
-      <c r="C215" s="4">
+      <c r="C215" s="20">
         <v>1.8699999999999999</v>
       </c>
-      <c r="D215">
+      <c r="D215" s="20">
         <f t="shared" si="3"/>
         <v>80.41</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216" s="4" t="s">
+      <c r="E215" s="18"/>
+      <c r="F215" s="20">
+        <f>C215*3</f>
+        <v>5.6099999999999994</v>
+      </c>
+      <c r="G215" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
         <v>13</v>
       </c>
-      <c r="B216" s="4">
+      <c r="B216">
         <v>47</v>
       </c>
-      <c r="C216" s="4">
+      <c r="C216" s="20">
         <v>2.84</v>
       </c>
-      <c r="D216">
+      <c r="D216" s="20">
         <f t="shared" si="3"/>
         <v>133.47999999999999</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" s="4" t="s">
+      <c r="E216" s="18"/>
+      <c r="F216" s="20">
+        <f>C216*3</f>
+        <v>8.52</v>
+      </c>
+      <c r="G216" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
         <v>11</v>
       </c>
-      <c r="B217" s="4">
+      <c r="B217">
         <v>175</v>
       </c>
-      <c r="C217" s="4">
+      <c r="C217" s="20">
         <v>2.1800000000000002</v>
       </c>
-      <c r="D217">
+      <c r="D217" s="20">
         <f t="shared" si="3"/>
         <v>381.5</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" s="4" t="s">
+      <c r="E217" s="18"/>
+      <c r="F217" s="20">
+        <f>C217*3</f>
+        <v>6.5400000000000009</v>
+      </c>
+      <c r="G217" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
         <v>10</v>
       </c>
-      <c r="B218" s="4">
+      <c r="B218">
         <v>23</v>
       </c>
-      <c r="C218" s="4">
+      <c r="C218" s="20">
         <v>1.8699999999999999</v>
       </c>
-      <c r="D218">
+      <c r="D218" s="20">
         <f t="shared" si="3"/>
         <v>43.01</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219" s="4" t="s">
+      <c r="E218" s="18"/>
+      <c r="F218" s="20">
+        <f>C218*3</f>
+        <v>5.6099999999999994</v>
+      </c>
+      <c r="G218" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
         <v>8</v>
       </c>
-      <c r="B219" s="4">
+      <c r="B219">
         <v>40</v>
       </c>
-      <c r="C219" s="4">
+      <c r="C219" s="20">
         <v>1.77</v>
       </c>
-      <c r="D219">
+      <c r="D219" s="20">
         <f t="shared" si="3"/>
         <v>70.8</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220" s="4" t="s">
+      <c r="E219" s="18"/>
+      <c r="F219" s="20">
+        <f>C219*3</f>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G219" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
         <v>11</v>
       </c>
-      <c r="B220" s="4">
+      <c r="B220">
         <v>87</v>
       </c>
-      <c r="C220" s="4">
+      <c r="C220" s="20">
         <v>2.1800000000000002</v>
       </c>
-      <c r="D220">
+      <c r="D220" s="20">
         <f t="shared" si="3"/>
         <v>189.66000000000003</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A221" s="4" t="s">
+      <c r="E220" s="18"/>
+      <c r="F220" s="20">
+        <f>C220*3</f>
+        <v>6.5400000000000009</v>
+      </c>
+      <c r="G220" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
         <v>8</v>
       </c>
-      <c r="B221" s="4">
+      <c r="B221">
         <v>43</v>
       </c>
-      <c r="C221" s="4">
+      <c r="C221" s="20">
         <v>1.77</v>
       </c>
-      <c r="D221">
+      <c r="D221" s="20">
         <f t="shared" si="3"/>
         <v>76.11</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222" s="4" t="s">
+      <c r="E221" s="18"/>
+      <c r="F221" s="20">
+        <f>C221*3</f>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G221" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
         <v>9</v>
       </c>
-      <c r="B222" s="4">
+      <c r="B222">
         <v>30</v>
       </c>
-      <c r="C222" s="4">
+      <c r="C222" s="20">
         <v>3.49</v>
       </c>
-      <c r="D222">
+      <c r="D222" s="20">
         <f t="shared" si="3"/>
         <v>104.7</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A223" s="4" t="s">
+      <c r="E222" s="18"/>
+      <c r="F222" s="20">
+        <f>C222*3</f>
+        <v>10.47</v>
+      </c>
+      <c r="G222" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
         <v>8</v>
       </c>
-      <c r="B223" s="4">
+      <c r="B223">
         <v>35</v>
       </c>
-      <c r="C223" s="4">
+      <c r="C223" s="20">
         <v>1.77</v>
       </c>
-      <c r="D223">
+      <c r="D223" s="20">
         <f t="shared" si="3"/>
         <v>61.95</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A224" s="4" t="s">
+      <c r="E223" s="18"/>
+      <c r="F223" s="20">
+        <f>C223*3</f>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G223" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
         <v>14</v>
       </c>
-      <c r="B224" s="4">
+      <c r="B224">
         <v>57</v>
       </c>
-      <c r="C224" s="4">
+      <c r="C224" s="20">
         <v>1.87</v>
       </c>
-      <c r="D224">
+      <c r="D224" s="20">
         <f t="shared" si="3"/>
         <v>106.59</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225" s="4" t="s">
+      <c r="E224" s="18"/>
+      <c r="F224" s="20">
+        <f>C224*3</f>
+        <v>5.61</v>
+      </c>
+      <c r="G224" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
         <v>12</v>
       </c>
-      <c r="B225" s="4">
+      <c r="B225">
         <v>25</v>
       </c>
-      <c r="C225" s="4">
+      <c r="C225" s="20">
         <v>1.68</v>
       </c>
-      <c r="D225">
+      <c r="D225" s="20">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A226" s="4" t="s">
+      <c r="E225" s="18"/>
+      <c r="F225" s="20">
+        <f>C225*3</f>
+        <v>5.04</v>
+      </c>
+      <c r="G225" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
         <v>10</v>
       </c>
-      <c r="B226" s="4">
+      <c r="B226">
         <v>24</v>
       </c>
-      <c r="C226" s="4">
+      <c r="C226" s="20">
         <v>1.87</v>
       </c>
-      <c r="D226">
+      <c r="D226" s="20">
         <f t="shared" si="3"/>
         <v>44.88</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A227" s="4" t="s">
+      <c r="E226" s="18"/>
+      <c r="F226" s="20">
+        <f>C226*3</f>
+        <v>5.61</v>
+      </c>
+      <c r="G226" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
         <v>14</v>
       </c>
-      <c r="B227" s="4">
+      <c r="B227">
         <v>83</v>
       </c>
-      <c r="C227" s="4">
+      <c r="C227" s="20">
         <v>1.87</v>
       </c>
-      <c r="D227">
+      <c r="D227" s="20">
         <f t="shared" si="3"/>
         <v>155.21</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A228" s="4" t="s">
+      <c r="E227" s="18"/>
+      <c r="F227" s="20">
+        <f>C227*3</f>
+        <v>5.61</v>
+      </c>
+      <c r="G227" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
         <v>13</v>
       </c>
-      <c r="B228" s="4">
+      <c r="B228">
         <v>124</v>
       </c>
-      <c r="C228" s="4">
+      <c r="C228" s="20">
         <v>2.8400000000000003</v>
       </c>
-      <c r="D228">
+      <c r="D228" s="20">
         <f t="shared" si="3"/>
         <v>352.16</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229" s="4" t="s">
+      <c r="E228" s="18"/>
+      <c r="F228" s="20">
+        <f>C228*3</f>
+        <v>8.5200000000000014</v>
+      </c>
+      <c r="G228" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
         <v>8</v>
       </c>
-      <c r="B229" s="4">
+      <c r="B229">
         <v>137</v>
       </c>
-      <c r="C229" s="4">
+      <c r="C229" s="20">
         <v>1.77</v>
       </c>
-      <c r="D229">
+      <c r="D229" s="20">
         <f t="shared" si="3"/>
         <v>242.49</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A230" s="4" t="s">
+      <c r="E229" s="18"/>
+      <c r="F229" s="20">
+        <f>C229*3</f>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G229" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
         <v>11</v>
       </c>
-      <c r="B230" s="4">
+      <c r="B230">
         <v>146</v>
       </c>
-      <c r="C230" s="4">
+      <c r="C230" s="20">
         <v>2.1799999999999997</v>
       </c>
-      <c r="D230">
+      <c r="D230" s="20">
         <f t="shared" si="3"/>
         <v>318.27999999999997</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231" s="4" t="s">
+      <c r="E230" s="18"/>
+      <c r="F230" s="20">
+        <f>C230*3</f>
+        <v>6.5399999999999991</v>
+      </c>
+      <c r="G230" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
         <v>10</v>
       </c>
-      <c r="B231" s="4">
+      <c r="B231">
         <v>34</v>
       </c>
-      <c r="C231" s="4">
+      <c r="C231" s="20">
         <v>1.8699999999999999</v>
       </c>
-      <c r="D231">
+      <c r="D231" s="20">
         <f t="shared" si="3"/>
         <v>63.58</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232" s="4" t="s">
+      <c r="E231" s="18"/>
+      <c r="F231" s="20">
+        <f>C231*3</f>
+        <v>5.6099999999999994</v>
+      </c>
+      <c r="G231" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
         <v>8</v>
       </c>
-      <c r="B232" s="4">
+      <c r="B232">
         <v>20</v>
       </c>
-      <c r="C232" s="4">
+      <c r="C232" s="20">
         <v>1.77</v>
       </c>
-      <c r="D232">
+      <c r="D232" s="20">
         <f t="shared" si="3"/>
         <v>35.4</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" s="4" t="s">
+      <c r="E232" s="18"/>
+      <c r="F232" s="20">
+        <f>C232*3</f>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G232" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
         <v>11</v>
       </c>
-      <c r="B233" s="4">
+      <c r="B233">
         <v>139</v>
       </c>
-      <c r="C233" s="4">
+      <c r="C233" s="20">
         <v>2.1799999999999997</v>
       </c>
-      <c r="D233">
+      <c r="D233" s="20">
         <f t="shared" si="3"/>
         <v>303.02</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234" s="4" t="s">
+      <c r="E233" s="18"/>
+      <c r="F233" s="20">
+        <f>C233*3</f>
+        <v>6.5399999999999991</v>
+      </c>
+      <c r="G233" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
         <v>10</v>
       </c>
-      <c r="B234" s="4">
+      <c r="B234">
         <v>211</v>
       </c>
-      <c r="C234" s="4">
+      <c r="C234" s="20">
         <v>1.8699999999999999</v>
       </c>
-      <c r="D234">
+      <c r="D234" s="20">
         <f t="shared" si="3"/>
         <v>394.57</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" s="4" t="s">
+      <c r="E234" s="18"/>
+      <c r="F234" s="20">
+        <f>C234*3</f>
+        <v>5.6099999999999994</v>
+      </c>
+      <c r="G234" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
         <v>9</v>
       </c>
-      <c r="B235" s="4">
+      <c r="B235">
         <v>20</v>
       </c>
-      <c r="C235" s="4">
+      <c r="C235" s="20">
         <v>3.4899999999999998</v>
       </c>
-      <c r="D235">
+      <c r="D235" s="20">
         <f t="shared" si="3"/>
         <v>69.8</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A236" s="4" t="s">
+      <c r="E235" s="18"/>
+      <c r="F235" s="20">
+        <f>C235*3</f>
+        <v>10.469999999999999</v>
+      </c>
+      <c r="G235" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
         <v>14</v>
       </c>
-      <c r="B236" s="4">
+      <c r="B236">
         <v>42</v>
       </c>
-      <c r="C236" s="4">
+      <c r="C236" s="20">
         <v>1.87</v>
       </c>
-      <c r="D236">
+      <c r="D236" s="20">
         <f t="shared" si="3"/>
         <v>78.540000000000006</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A237" s="4" t="s">
+      <c r="E236" s="18"/>
+      <c r="F236" s="20">
+        <f>C236*3</f>
+        <v>5.61</v>
+      </c>
+      <c r="G236" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
         <v>13</v>
       </c>
-      <c r="B237" s="4">
-        <v>100</v>
-      </c>
-      <c r="C237" s="4">
+      <c r="B237">
+        <v>100</v>
+      </c>
+      <c r="C237" s="20">
         <v>2.84</v>
       </c>
-      <c r="D237">
+      <c r="D237" s="20">
         <f t="shared" si="3"/>
         <v>284</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A238" s="4" t="s">
+      <c r="E237" s="18"/>
+      <c r="F237" s="20">
+        <f>C237*3</f>
+        <v>8.52</v>
+      </c>
+      <c r="G237" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
         <v>8</v>
       </c>
-      <c r="B238" s="4">
+      <c r="B238">
         <v>38</v>
       </c>
-      <c r="C238" s="4">
+      <c r="C238" s="20">
         <v>1.7700000000000002</v>
       </c>
-      <c r="D238">
+      <c r="D238" s="20">
         <f t="shared" si="3"/>
         <v>67.260000000000005</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239" s="4" t="s">
+      <c r="E238" s="18"/>
+      <c r="F238" s="20">
+        <f>C238*3</f>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G238" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
         <v>9</v>
       </c>
-      <c r="B239" s="4">
+      <c r="B239">
         <v>25</v>
       </c>
-      <c r="C239" s="4">
+      <c r="C239" s="20">
         <v>3.49</v>
       </c>
-      <c r="D239">
+      <c r="D239" s="20">
         <f t="shared" si="3"/>
         <v>87.25</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A240" s="4" t="s">
+      <c r="E239" s="18"/>
+      <c r="F239" s="20">
+        <f>C239*3</f>
+        <v>10.47</v>
+      </c>
+      <c r="G239" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
         <v>10</v>
       </c>
-      <c r="B240" s="4">
+      <c r="B240">
         <v>96</v>
       </c>
-      <c r="C240" s="4">
+      <c r="C240" s="20">
         <v>1.87</v>
       </c>
-      <c r="D240">
+      <c r="D240" s="20">
         <f t="shared" si="3"/>
         <v>179.52</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A241" s="4" t="s">
+      <c r="E240" s="18"/>
+      <c r="F240" s="20">
+        <f>C240*3</f>
+        <v>5.61</v>
+      </c>
+      <c r="G240" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
         <v>11</v>
       </c>
-      <c r="B241" s="4">
+      <c r="B241">
         <v>34</v>
       </c>
-      <c r="C241" s="4">
+      <c r="C241" s="20">
         <v>2.1800000000000002</v>
       </c>
-      <c r="D241">
+      <c r="D241" s="20">
         <f t="shared" si="3"/>
         <v>74.12</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A242" s="4" t="s">
+      <c r="E241" s="18"/>
+      <c r="F241" s="20">
+        <f>C241*3</f>
+        <v>6.5400000000000009</v>
+      </c>
+      <c r="G241" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
         <v>10</v>
       </c>
-      <c r="B242" s="4">
+      <c r="B242">
         <v>245</v>
       </c>
-      <c r="C242" s="4">
+      <c r="C242" s="20">
         <v>1.8699999999999999</v>
       </c>
-      <c r="D242">
+      <c r="D242" s="20">
         <f t="shared" si="3"/>
         <v>458.15</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A243" s="4" t="s">
+      <c r="E242" s="18"/>
+      <c r="F242" s="20">
+        <f>C242*3</f>
+        <v>5.6099999999999994</v>
+      </c>
+      <c r="G242" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
         <v>9</v>
       </c>
-      <c r="B243" s="4">
+      <c r="B243">
         <v>30</v>
       </c>
-      <c r="C243" s="4">
+      <c r="C243" s="20">
         <v>3.49</v>
       </c>
-      <c r="D243">
+      <c r="D243" s="20">
         <f t="shared" si="3"/>
         <v>104.7</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A244" s="4" t="s">
+      <c r="E243" s="18"/>
+      <c r="F243" s="20">
+        <f>C243*3</f>
+        <v>10.47</v>
+      </c>
+      <c r="G243" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
         <v>14</v>
       </c>
-      <c r="B244" s="4">
+      <c r="B244">
         <v>30</v>
       </c>
-      <c r="C244" s="4">
+      <c r="C244" s="20">
         <v>1.87</v>
       </c>
-      <c r="D244">
+      <c r="D244" s="20">
         <f t="shared" si="3"/>
         <v>56.1</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A245" s="5" t="s">
+      <c r="E244" s="18"/>
+      <c r="F244" s="20">
+        <f>C244*3</f>
+        <v>5.61</v>
+      </c>
+      <c r="G244" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B245" s="5">
+      <c r="B245" s="4">
         <v>44</v>
       </c>
-      <c r="C245" s="5">
+      <c r="C245" s="25">
         <v>2.84</v>
       </c>
-      <c r="D245">
+      <c r="D245" s="20">
         <f t="shared" si="3"/>
         <v>124.96</v>
       </c>
+      <c r="E245" s="18"/>
+      <c r="F245" s="20">
+        <f>C245*3</f>
+        <v>8.52</v>
+      </c>
+      <c r="G245" s="28">
+        <f>units_sold_per_product</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4318,14 +7264,18 @@
   <headerFooter>
     <oddHeader>&amp;C&amp;"Calibri"&amp;10&amp;KFF0000OFFICIAL&amp;1#</oddHeader>
   </headerFooter>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
@@ -4378,7 +7328,7 @@
       <c r="A6">
         <v>140</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="12">
         <f>830-(A6-130)*(830-630)/(170-130)</f>
         <v>780</v>
       </c>
@@ -4387,7 +7337,7 @@
       <c r="A7">
         <v>150</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="12">
         <f>830-(A7-130)*(830-630)/(170-130)</f>
         <v>730</v>
       </c>
@@ -4396,7 +7346,7 @@
       <c r="A8">
         <v>160</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="12">
         <f>830-(A8-130)*(830-630)/(170-130)</f>
         <v>680</v>
       </c>
@@ -4495,7 +7445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4532,14 +7482,14 @@
       <c r="A2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="13">
         <v>11000</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="H2" s="16">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="H2" s="14">
         <v>0.16</v>
       </c>
     </row>
@@ -4558,7 +7508,7 @@
       <c r="B4" s="1">
         <v>400</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="15">
         <v>0.1</v>
       </c>
     </row>
@@ -4578,7 +7528,7 @@
       <c r="B6" s="1">
         <v>285</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="15">
         <v>0.03</v>
       </c>
     </row>
@@ -4586,14 +7536,14 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="16">
         <f>(B4-B6)*B5</f>
         <v>421666.66666666663</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Semester-2/Data-and-Machine-Learning/Assessments/AT1-OptimisingPrice-Presentation/AssessmentTask01_presentation.xlsx
+++ b/Semester-2/Data-and-Machine-Learning/Assessments/AT1-OptimisingPrice-Presentation/AssessmentTask01_presentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\TAFE\Dual-Diploma-2024\Semester-2\Data-and-Machine-Learning\Assessments\AT1-OptimisingPrice-Presentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382222E4-0B66-4D6C-9732-20E9B0DD031A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D976122-4454-4474-B7C7-0C9C1E1B30B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -232,9 +232,6 @@
     <t>Variable Expense Table</t>
   </si>
   <si>
-    <t>Cost</t>
-  </si>
-  <si>
     <t>Single Unit Contribution</t>
   </si>
   <si>
@@ -245,6 +242,9 @@
   </si>
   <si>
     <t>Remaining Stock</t>
+  </si>
+  <si>
+    <t>TotalCost</t>
   </si>
 </sst>
 </file>
@@ -377,7 +377,7 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -417,11 +417,9 @@
     <xf numFmtId="166" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -431,16 +429,7 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
@@ -469,12 +458,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -497,6 +480,21 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -612,19 +610,19 @@
     <tableColumn id="2" xr3:uid="{468ED6E1-71CB-4BE4-AB1A-E75CB755288D}" name="TotalUnits" dataDxfId="9">
       <calculatedColumnFormula>SUMIF(A2:A245, J4, B2:B245)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{04386D9B-9882-432A-99E1-9EB7BF8FD18A}" name="PurchacePrice" dataDxfId="4">
+    <tableColumn id="3" xr3:uid="{04386D9B-9882-432A-99E1-9EB7BF8FD18A}" name="PurchacePrice" dataDxfId="8">
       <calculatedColumnFormula>SUMIF(A2:A245, Table3[[#This Row],[Product]], D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8AF79FAB-FD53-4C64-8A20-A39D623B2118}" name="UnitsSold" dataDxfId="3">
+    <tableColumn id="4" xr3:uid="{8AF79FAB-FD53-4C64-8A20-A39D623B2118}" name="UnitsSold" dataDxfId="7">
       <calculatedColumnFormula>units_sold_per_product</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{21944251-D615-469A-AC73-C721D2A0B40C}" name="SalesIncome" dataDxfId="2">
+    <tableColumn id="5" xr3:uid="{21944251-D615-469A-AC73-C721D2A0B40C}" name="SalesIncome" dataDxfId="6">
       <calculatedColumnFormula>Table3[[#This Row],[UnitsSold]]*F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{4E018A35-8C5D-4677-A964-D154CF6E2AAB}" name="StockPercentageSold" dataDxfId="1" dataCellStyle="Percent">
+    <tableColumn id="6" xr3:uid="{4E018A35-8C5D-4677-A964-D154CF6E2AAB}" name="StockPercentageSold" dataDxfId="5" dataCellStyle="Percent">
       <calculatedColumnFormula>(Table3[[#This Row],[UnitsSold]]/Table3[[#This Row],[TotalUnits]])*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{641F3081-9379-4CE9-9F09-CF0D6485A03D}" name="Remaining Stock" dataDxfId="0">
+    <tableColumn id="7" xr3:uid="{641F3081-9379-4CE9-9F09-CF0D6485A03D}" name="Remaining Stock" dataDxfId="4">
       <calculatedColumnFormula>100-Table3[[#This Row],[StockPercentageSold]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -636,12 +634,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D007CCC8-6B19-43D6-BD04-E60924EC0CB4}" name="Table6" displayName="Table6" ref="I23:L26" totalsRowShown="0">
   <autoFilter ref="I23:L26" xr:uid="{D007CCC8-6B19-43D6-BD04-E60924EC0CB4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D238210E-7B6C-4F9D-8CD2-C938858FFFC4}" name="Process" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{DD0FADBA-10AD-47D2-844D-9652C35FA408}" name="Cost" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{038AD9B9-A3F0-444A-94F5-ED7D5885F0A8}" name="Single Unit Contribution" dataDxfId="7">
-      <calculatedColumnFormula>Table6[[#This Row],[Cost]]/K$13</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{D238210E-7B6C-4F9D-8CD2-C938858FFFC4}" name="Process" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{DD0FADBA-10AD-47D2-844D-9652C35FA408}" name="TotalCost" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{038AD9B9-A3F0-444A-94F5-ED7D5885F0A8}" name="Single Unit Contribution" dataDxfId="1">
+      <calculatedColumnFormula>Table6[[#This Row],[TotalCost]]/K$13</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{AFF3AF5B-92BE-45EE-86F9-43A4C69C32AD}" name="VariableCostsForSales" dataDxfId="6">
+    <tableColumn id="4" xr3:uid="{AFF3AF5B-92BE-45EE-86F9-43A4C69C32AD}" name="VariableCostsForSales" dataDxfId="0">
       <calculatedColumnFormula>Table6[[#This Row],[Single Unit Contribution]]*M$13</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -936,26 +934,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S249"/>
+  <dimension ref="A1:S245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="3" max="4" width="9.140625" style="20"/>
+    <col min="3" max="3" width="9.140625" style="20"/>
+    <col min="4" max="4" width="13.42578125" style="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.85546875" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" style="20" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" style="28" customWidth="1"/>
     <col min="8" max="8" width="10.42578125" style="20" customWidth="1"/>
     <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="22" bestFit="1" customWidth="1"/>
@@ -1002,11 +1001,11 @@
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="20">
-        <f>C2*3</f>
+        <f t="shared" ref="F2:F65" si="0">C2*3</f>
         <v>5.31</v>
       </c>
       <c r="G2" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" ref="G2:G65" si="1">units_sold_per_product</f>
         <v>100</v>
       </c>
       <c r="H2" s="20" t="e" cm="1" vm="1">
@@ -1030,38 +1029,38 @@
         <v>3.4899999999999998</v>
       </c>
       <c r="D3" s="20">
-        <f t="shared" ref="D3:D66" si="0">C3*B3</f>
+        <f t="shared" ref="D3:D66" si="2">C3*B3</f>
         <v>303.63</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="20">
-        <f>C3*3</f>
+        <f t="shared" si="0"/>
         <v>10.469999999999999</v>
       </c>
       <c r="G3" s="28">
-        <f>units_sold_per_product</f>
-        <v>100</v>
-      </c>
-      <c r="J3" s="29" t="s">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="30" t="s">
+      <c r="K3" s="29" t="s">
         <v>41</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="31" t="s">
+      <c r="M3" s="30" t="s">
         <v>43</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>44</v>
       </c>
       <c r="O3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -1075,16 +1074,16 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D4" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>108.46</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="20">
-        <f>C4*3</f>
+        <f t="shared" si="0"/>
         <v>5.6099999999999994</v>
       </c>
       <c r="G4" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="J4" s="9" t="s">
@@ -1099,14 +1098,14 @@
         <v>7410.9900000000007</v>
       </c>
       <c r="M4" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" ref="M4:M12" si="3">units_sold_per_product</f>
         <v>100</v>
       </c>
       <c r="N4" s="20">
         <f>Table3[[#This Row],[UnitsSold]]*F2</f>
         <v>531</v>
       </c>
-      <c r="O4" s="34">
+      <c r="O4" s="32">
         <f>(Table3[[#This Row],[UnitsSold]]/Table3[[#This Row],[TotalUnits]])*100</f>
         <v>2.3883448770002391</v>
       </c>
@@ -1126,16 +1125,16 @@
         <v>1.87</v>
       </c>
       <c r="D5" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>153.34</v>
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="20">
-        <f>C5*3</f>
+        <f t="shared" si="0"/>
         <v>5.61</v>
       </c>
       <c r="G5" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="J5" s="9" t="s">
@@ -1150,14 +1149,14 @@
         <v>3339.9299999999994</v>
       </c>
       <c r="M5" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="N5" s="20">
         <f>Table3[[#This Row],[UnitsSold]]*F3</f>
         <v>1047</v>
       </c>
-      <c r="O5" s="34">
+      <c r="O5" s="32">
         <f>(Table3[[#This Row],[UnitsSold]]/Table3[[#This Row],[TotalUnits]])*100</f>
         <v>10.449320794148379</v>
       </c>
@@ -1180,16 +1179,16 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D6" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>82.84</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="20">
-        <f>C6*3</f>
+        <f t="shared" si="0"/>
         <v>6.5400000000000009</v>
       </c>
       <c r="G6" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="J6" s="9" t="s">
@@ -1204,14 +1203,14 @@
         <v>4572.1500000000005</v>
       </c>
       <c r="M6" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="N6" s="20">
         <f>Table3[[#This Row],[UnitsSold]]*F4</f>
         <v>561</v>
       </c>
-      <c r="O6" s="34">
+      <c r="O6" s="32">
         <f ca="1">(Table3[[#This Row],[UnitsSold]]/Table3[[#This Row],[TotalUnits]])*100</f>
         <v>4.0899795501022496</v>
       </c>
@@ -1237,23 +1236,23 @@
         <v>1.77</v>
       </c>
       <c r="D7" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>95.58</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="20">
-        <f>C7*3</f>
+        <f t="shared" si="0"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="G7" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7">
-        <f>SUMIF(A5:A247, J7, B5:B247)</f>
+        <f t="shared" ref="K7:K12" si="4">SUMIF(A5:A247, J7, B5:B247)</f>
         <v>2445</v>
       </c>
       <c r="L7" s="20">
@@ -1261,14 +1260,14 @@
         <v>5330.0999999999995</v>
       </c>
       <c r="M7" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="N7" s="20">
         <f>Table3[[#This Row],[UnitsSold]]*F5</f>
         <v>561</v>
       </c>
-      <c r="O7" s="34">
+      <c r="O7" s="32">
         <f>(Table3[[#This Row],[UnitsSold]]/Table3[[#This Row],[TotalUnits]])*100</f>
         <v>4.0899795501022496</v>
       </c>
@@ -1294,23 +1293,23 @@
         <v>3.4899999999999998</v>
       </c>
       <c r="D8" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>520.01</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="20">
-        <f>C8*3</f>
+        <f t="shared" si="0"/>
         <v>10.469999999999999</v>
       </c>
       <c r="G8" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>12</v>
       </c>
       <c r="K8" s="7">
-        <f>SUMIF(A6:A248, J8, B6:B248)</f>
+        <f t="shared" si="4"/>
         <v>994</v>
       </c>
       <c r="L8" s="20">
@@ -1318,14 +1317,14 @@
         <v>1651.7700000000002</v>
       </c>
       <c r="M8" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="N8" s="20">
         <f>Table3[[#This Row],[UnitsSold]]*F6</f>
         <v>654.00000000000011</v>
       </c>
-      <c r="O8" s="34">
+      <c r="O8" s="32">
         <f>(Table3[[#This Row],[UnitsSold]]/Table3[[#This Row],[TotalUnits]])*100</f>
         <v>10.06036217303823</v>
       </c>
@@ -1351,23 +1350,23 @@
         <v>1.77</v>
       </c>
       <c r="D9" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>90.27</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="20">
-        <f>C9*3</f>
+        <f t="shared" si="0"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="G9" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>13</v>
       </c>
       <c r="K9" s="7">
-        <f>SUMIF(A7:A249, J9, B7:B249)</f>
+        <f t="shared" si="4"/>
         <v>2574</v>
       </c>
       <c r="L9" s="20">
@@ -1375,14 +1374,14 @@
         <v>7310.1599999999989</v>
       </c>
       <c r="M9" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="N9" s="20">
         <f>Table3[[#This Row],[UnitsSold]]*F7</f>
         <v>531</v>
       </c>
-      <c r="O9" s="34">
+      <c r="O9" s="32">
         <f>(Table3[[#This Row],[UnitsSold]]/Table3[[#This Row],[TotalUnits]])*100</f>
         <v>3.8850038850038846</v>
       </c>
@@ -1408,23 +1407,23 @@
         <v>1.77</v>
       </c>
       <c r="D10" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>177</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="20">
-        <f>C10*3</f>
+        <f t="shared" si="0"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="G10" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>14</v>
       </c>
       <c r="K10" s="7">
-        <f>SUMIF(A8:A250, J10, B8:B250)</f>
+        <f t="shared" si="4"/>
         <v>1575</v>
       </c>
       <c r="L10" s="20">
@@ -1432,14 +1431,14 @@
         <v>2945.25</v>
       </c>
       <c r="M10" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="N10" s="20">
         <f>Table3[[#This Row],[UnitsSold]]*F8</f>
         <v>1047</v>
       </c>
-      <c r="O10" s="34">
+      <c r="O10" s="32">
         <f>(Table3[[#This Row],[UnitsSold]]/Table3[[#This Row],[TotalUnits]])*100</f>
         <v>6.3492063492063489</v>
       </c>
@@ -1459,23 +1458,23 @@
         <v>1.35</v>
       </c>
       <c r="D11" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>37.800000000000004</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="20">
-        <f>C11*3</f>
+        <f t="shared" si="0"/>
         <v>4.0500000000000007</v>
       </c>
       <c r="G11" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>15</v>
       </c>
       <c r="K11" s="7">
-        <f>SUMIF(A9:A251, J11, B9:B251)</f>
+        <f t="shared" si="4"/>
         <v>186</v>
       </c>
       <c r="L11" s="20">
@@ -1483,14 +1482,14 @@
         <v>585.9</v>
       </c>
       <c r="M11" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="N11" s="20">
         <f>Table3[[#This Row],[UnitsSold]]*F9</f>
         <v>531</v>
       </c>
-      <c r="O11" s="34">
+      <c r="O11" s="32">
         <f>(Table3[[#This Row],[UnitsSold]]/Table3[[#This Row],[TotalUnits]])*100</f>
         <v>53.763440860215049</v>
       </c>
@@ -1517,23 +1516,23 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D12" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>78.48</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="20">
-        <f>C12*3</f>
+        <f t="shared" si="0"/>
         <v>6.5400000000000009</v>
       </c>
       <c r="G12" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="J12" s="9" t="s">
         <v>16</v>
       </c>
       <c r="K12" s="7">
-        <f>SUMIF(A10:A252, J12, B10:B252)</f>
+        <f t="shared" si="4"/>
         <v>79</v>
       </c>
       <c r="L12" s="20">
@@ -1541,14 +1540,14 @@
         <v>179.32999999999998</v>
       </c>
       <c r="M12" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="N12" s="20">
         <f>Table3[[#This Row],[UnitsSold]]*F10</f>
         <v>531</v>
       </c>
-      <c r="O12" s="34">
+      <c r="O12" s="32">
         <f>(Table3[[#This Row],[UnitsSold]]/Table3[[#This Row],[TotalUnits]])*100</f>
         <v>126.58227848101266</v>
       </c>
@@ -1574,16 +1573,16 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D13" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>57.97</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="20">
-        <f>C13*3</f>
+        <f t="shared" si="0"/>
         <v>5.6099999999999994</v>
       </c>
       <c r="G13" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="J13" s="9" t="s">
@@ -1593,9 +1592,9 @@
         <f ca="1">SUM(K3:K12)</f>
         <v>15442</v>
       </c>
-      <c r="L13" s="32">
-        <f ca="1">SUM(L3:L12)</f>
-        <v>33325.58</v>
+      <c r="L13" s="31">
+        <f ca="1">-SUM(L3:L12)</f>
+        <v>-33325.58</v>
       </c>
       <c r="M13" s="28">
         <f>SUM(M3:M12)</f>
@@ -1605,7 +1604,7 @@
         <f>SUM(N3:N12)</f>
         <v>5994</v>
       </c>
-      <c r="O13" s="34">
+      <c r="O13" s="32">
         <f ca="1">(Table3[[#This Row],[UnitsSold]]/Table3[[#This Row],[TotalUnits]])*100</f>
         <v>5.8282605880067351</v>
       </c>
@@ -1626,16 +1625,16 @@
         <v>3.4899999999999998</v>
       </c>
       <c r="D14" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>97.72</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="20">
-        <f>C14*3</f>
+        <f t="shared" si="0"/>
         <v>10.469999999999999</v>
       </c>
       <c r="G14" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="R14" t="s">
@@ -1656,16 +1655,16 @@
         <v>1.7699999999999998</v>
       </c>
       <c r="D15" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>77.88</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="20">
-        <f>C15*3</f>
+        <f t="shared" si="0"/>
         <v>5.31</v>
       </c>
       <c r="G15" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="I15" t="s">
@@ -1686,16 +1685,16 @@
         <v>1.77</v>
       </c>
       <c r="D16" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>40.71</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="20">
-        <f>C16*3</f>
+        <f t="shared" si="0"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="G16" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="R16" s="8" t="s">
@@ -1713,16 +1712,16 @@
         <v>1.35</v>
       </c>
       <c r="D17" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>36.450000000000003</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="20">
-        <f>C17*3</f>
+        <f t="shared" si="0"/>
         <v>4.0500000000000007</v>
       </c>
       <c r="G17" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -1737,16 +1736,16 @@
         <v>2.1799999999999997</v>
       </c>
       <c r="D18" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>93.739999999999981</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="20">
-        <f>C18*3</f>
+        <f t="shared" si="0"/>
         <v>6.5399999999999991</v>
       </c>
       <c r="G18" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -1761,16 +1760,16 @@
         <v>2.84</v>
       </c>
       <c r="D19" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>349.32</v>
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="20">
-        <f>C19*3</f>
+        <f t="shared" si="0"/>
         <v>8.52</v>
       </c>
       <c r="G19" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -1785,16 +1784,16 @@
         <v>1.87</v>
       </c>
       <c r="D20" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>78.540000000000006</v>
       </c>
       <c r="E20" s="18"/>
       <c r="F20" s="20">
-        <f>C20*3</f>
+        <f t="shared" si="0"/>
         <v>5.61</v>
       </c>
       <c r="G20" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -1809,16 +1808,16 @@
         <v>2.84</v>
       </c>
       <c r="D21" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>93.72</v>
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="20">
-        <f>C21*3</f>
+        <f t="shared" si="0"/>
         <v>8.52</v>
       </c>
       <c r="G21" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -1833,16 +1832,16 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D22" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>158.94999999999999</v>
       </c>
       <c r="E22" s="18"/>
       <c r="F22" s="20">
-        <f>C22*3</f>
+        <f t="shared" si="0"/>
         <v>5.6099999999999994</v>
       </c>
       <c r="G22" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="I22" t="s">
@@ -1860,29 +1859,29 @@
         <v>2.8400000000000003</v>
       </c>
       <c r="D23" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>85.2</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="20">
-        <f>C23*3</f>
+        <f t="shared" si="0"/>
         <v>8.5200000000000014</v>
       </c>
       <c r="G23" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="I23" t="s">
         <v>2</v>
       </c>
       <c r="J23" t="s">
+        <v>53</v>
+      </c>
+      <c r="K23" t="s">
         <v>49</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1896,16 +1895,16 @@
         <v>1.77</v>
       </c>
       <c r="D24" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>107.97</v>
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="20">
-        <f>C24*3</f>
+        <f t="shared" si="0"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="G24" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="I24" s="11" t="s">
@@ -1915,7 +1914,7 @@
         <v>2020</v>
       </c>
       <c r="K24" s="20">
-        <f ca="1">Table6[[#This Row],[Cost]]/K$13</f>
+        <f ca="1">Table6[[#This Row],[TotalCost]]/K$13</f>
         <v>0.13081207097526226</v>
       </c>
       <c r="L24" s="20">
@@ -1934,16 +1933,16 @@
         <v>3.4899999999999998</v>
       </c>
       <c r="D25" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>139.6</v>
       </c>
       <c r="E25" s="18"/>
       <c r="F25" s="20">
-        <f>C25*3</f>
+        <f t="shared" si="0"/>
         <v>10.469999999999999</v>
       </c>
       <c r="G25" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="I25" s="11" t="s">
@@ -1953,7 +1952,7 @@
         <v>1500</v>
       </c>
       <c r="K25" s="20">
-        <f ca="1">Table6[[#This Row],[Cost]]/K$13</f>
+        <f ca="1">Table6[[#This Row],[TotalCost]]/K$13</f>
         <v>9.7137676466778913E-2</v>
       </c>
       <c r="L25" s="20">
@@ -1972,16 +1971,16 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D26" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>160.82</v>
       </c>
       <c r="E26" s="18"/>
       <c r="F26" s="20">
-        <f>C26*3</f>
+        <f t="shared" si="0"/>
         <v>5.6099999999999994</v>
       </c>
       <c r="G26" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="I26" s="11" t="s">
@@ -1991,7 +1990,7 @@
         <v>1750</v>
       </c>
       <c r="K26" s="20">
-        <f ca="1">Table6[[#This Row],[Cost]]/K$13</f>
+        <f ca="1">Table6[[#This Row],[TotalCost]]/K$13</f>
         <v>0.11332728921124206</v>
       </c>
       <c r="L26" s="20">
@@ -2010,16 +2009,16 @@
         <v>1.7700000000000002</v>
       </c>
       <c r="D27" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>67.260000000000005</v>
       </c>
       <c r="E27" s="18"/>
       <c r="F27" s="20">
-        <f>C27*3</f>
+        <f t="shared" si="0"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="G27" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -2034,16 +2033,16 @@
         <v>1.68</v>
       </c>
       <c r="D28" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>114.24</v>
       </c>
       <c r="E28" s="18"/>
       <c r="F28" s="20">
-        <f>C28*3</f>
+        <f t="shared" si="0"/>
         <v>5.04</v>
       </c>
       <c r="G28" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -2058,16 +2057,16 @@
         <v>1.87</v>
       </c>
       <c r="D29" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>72.930000000000007</v>
       </c>
       <c r="E29" s="18"/>
       <c r="F29" s="20">
-        <f>C29*3</f>
+        <f t="shared" si="0"/>
         <v>5.61</v>
       </c>
       <c r="G29" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -2082,16 +2081,16 @@
         <v>1.87</v>
       </c>
       <c r="D30" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>192.61</v>
       </c>
       <c r="E30" s="18"/>
       <c r="F30" s="20">
-        <f>C30*3</f>
+        <f t="shared" si="0"/>
         <v>5.61</v>
       </c>
       <c r="G30" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -2106,16 +2105,16 @@
         <v>2.84</v>
       </c>
       <c r="D31" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>548.12</v>
       </c>
       <c r="E31" s="18"/>
       <c r="F31" s="20">
-        <f>C31*3</f>
+        <f t="shared" si="0"/>
         <v>8.52</v>
       </c>
       <c r="G31" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -2130,16 +2129,16 @@
         <v>1.77</v>
       </c>
       <c r="D32" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>102.66</v>
       </c>
       <c r="E32" s="18"/>
       <c r="F32" s="20">
-        <f>C32*3</f>
+        <f t="shared" si="0"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="G32" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -2154,16 +2153,16 @@
         <v>1.68</v>
       </c>
       <c r="D33" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>114.24</v>
       </c>
       <c r="E33" s="18"/>
       <c r="F33" s="20">
-        <f>C33*3</f>
+        <f t="shared" si="0"/>
         <v>5.04</v>
       </c>
       <c r="G33" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -2178,16 +2177,16 @@
         <v>1.77</v>
       </c>
       <c r="D34" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>161.07</v>
       </c>
       <c r="E34" s="18"/>
       <c r="F34" s="20">
-        <f>C34*3</f>
+        <f t="shared" si="0"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="G34" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -2202,16 +2201,16 @@
         <v>3.4899999999999998</v>
       </c>
       <c r="D35" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>80.27</v>
       </c>
       <c r="E35" s="18"/>
       <c r="F35" s="20">
-        <f>C35*3</f>
+        <f t="shared" si="0"/>
         <v>10.469999999999999</v>
       </c>
       <c r="G35" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -2226,16 +2225,16 @@
         <v>1.68</v>
       </c>
       <c r="D36" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>47.04</v>
       </c>
       <c r="E36" s="18"/>
       <c r="F36" s="20">
-        <f>C36*3</f>
+        <f t="shared" si="0"/>
         <v>5.04</v>
       </c>
       <c r="G36" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -2250,16 +2249,16 @@
         <v>1.7699999999999998</v>
       </c>
       <c r="D37" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>84.96</v>
       </c>
       <c r="E37" s="18"/>
       <c r="F37" s="20">
-        <f>C37*3</f>
+        <f t="shared" si="0"/>
         <v>5.31</v>
       </c>
       <c r="G37" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -2274,16 +2273,16 @@
         <v>1.68</v>
       </c>
       <c r="D38" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>225.12</v>
       </c>
       <c r="E38" s="18"/>
       <c r="F38" s="20">
-        <f>C38*3</f>
+        <f t="shared" si="0"/>
         <v>5.04</v>
       </c>
       <c r="G38" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -2298,16 +2297,16 @@
         <v>1.77</v>
       </c>
       <c r="D39" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>35.4</v>
       </c>
       <c r="E39" s="18"/>
       <c r="F39" s="20">
-        <f>C39*3</f>
+        <f t="shared" si="0"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="G39" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -2322,16 +2321,16 @@
         <v>1.77</v>
       </c>
       <c r="D40" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>93.81</v>
       </c>
       <c r="E40" s="18"/>
       <c r="F40" s="20">
-        <f>C40*3</f>
+        <f t="shared" si="0"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="G40" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -2346,16 +2345,16 @@
         <v>1.68</v>
       </c>
       <c r="D41" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>107.52</v>
       </c>
       <c r="E41" s="18"/>
       <c r="F41" s="20">
-        <f>C41*3</f>
+        <f t="shared" si="0"/>
         <v>5.04</v>
       </c>
       <c r="G41" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -2370,16 +2369,16 @@
         <v>1.87</v>
       </c>
       <c r="D42" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>117.81</v>
       </c>
       <c r="E42" s="18"/>
       <c r="F42" s="20">
-        <f>C42*3</f>
+        <f t="shared" si="0"/>
         <v>5.61</v>
       </c>
       <c r="G42" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -2394,16 +2393,16 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D43" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>196.35</v>
       </c>
       <c r="E43" s="18"/>
       <c r="F43" s="20">
-        <f>C43*3</f>
+        <f t="shared" si="0"/>
         <v>5.6099999999999994</v>
       </c>
       <c r="G43" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -2418,16 +2417,16 @@
         <v>2.8400000000000003</v>
       </c>
       <c r="D44" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>391.92</v>
       </c>
       <c r="E44" s="18"/>
       <c r="F44" s="20">
-        <f>C44*3</f>
+        <f t="shared" si="0"/>
         <v>8.5200000000000014</v>
       </c>
       <c r="G44" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -2442,16 +2441,16 @@
         <v>1.77</v>
       </c>
       <c r="D45" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44.25</v>
       </c>
       <c r="E45" s="18"/>
       <c r="F45" s="20">
-        <f>C45*3</f>
+        <f t="shared" si="0"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="G45" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -2466,16 +2465,16 @@
         <v>3.49</v>
       </c>
       <c r="D46" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>73.290000000000006</v>
       </c>
       <c r="E46" s="18"/>
       <c r="F46" s="20">
-        <f>C46*3</f>
+        <f t="shared" si="0"/>
         <v>10.47</v>
       </c>
       <c r="G46" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -2490,16 +2489,16 @@
         <v>1.77</v>
       </c>
       <c r="D47" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>107.97</v>
       </c>
       <c r="E47" s="18"/>
       <c r="F47" s="20">
-        <f>C47*3</f>
+        <f t="shared" si="0"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="G47" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -2514,16 +2513,16 @@
         <v>1.68</v>
       </c>
       <c r="D48" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>82.32</v>
       </c>
       <c r="E48" s="18"/>
       <c r="F48" s="20">
-        <f>C48*3</f>
+        <f t="shared" si="0"/>
         <v>5.04</v>
       </c>
       <c r="G48" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -2538,16 +2537,16 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D49" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>102.85</v>
       </c>
       <c r="E49" s="18"/>
       <c r="F49" s="20">
-        <f>C49*3</f>
+        <f t="shared" si="0"/>
         <v>5.6099999999999994</v>
       </c>
       <c r="G49" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -2562,16 +2561,16 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D50" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>58.860000000000007</v>
       </c>
       <c r="E50" s="18"/>
       <c r="F50" s="20">
-        <f>C50*3</f>
+        <f t="shared" si="0"/>
         <v>6.5400000000000009</v>
       </c>
       <c r="G50" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -2586,16 +2585,16 @@
         <v>1.77</v>
       </c>
       <c r="D51" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>102.66</v>
       </c>
       <c r="E51" s="18"/>
       <c r="F51" s="20">
-        <f>C51*3</f>
+        <f t="shared" si="0"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="G51" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -2610,16 +2609,16 @@
         <v>3.49</v>
       </c>
       <c r="D52" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>115.17</v>
       </c>
       <c r="E52" s="18"/>
       <c r="F52" s="20">
-        <f>C52*3</f>
+        <f t="shared" si="0"/>
         <v>10.47</v>
       </c>
       <c r="G52" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -2634,16 +2633,16 @@
         <v>2.84</v>
       </c>
       <c r="D53" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>817.92</v>
       </c>
       <c r="E53" s="18"/>
       <c r="F53" s="20">
-        <f>C53*3</f>
+        <f t="shared" si="0"/>
         <v>8.52</v>
       </c>
       <c r="G53" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -2658,16 +2657,16 @@
         <v>1.87</v>
       </c>
       <c r="D54" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>142.12</v>
       </c>
       <c r="E54" s="18"/>
       <c r="F54" s="20">
-        <f>C54*3</f>
+        <f t="shared" si="0"/>
         <v>5.61</v>
       </c>
       <c r="G54" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -2682,16 +2681,16 @@
         <v>1.77</v>
       </c>
       <c r="D55" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>74.34</v>
       </c>
       <c r="E55" s="18"/>
       <c r="F55" s="20">
-        <f>C55*3</f>
+        <f t="shared" si="0"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="G55" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -2706,16 +2705,16 @@
         <v>3.4899999999999998</v>
       </c>
       <c r="D56" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>69.8</v>
       </c>
       <c r="E56" s="18"/>
       <c r="F56" s="20">
-        <f>C56*3</f>
+        <f t="shared" si="0"/>
         <v>10.469999999999999</v>
       </c>
       <c r="G56" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -2730,16 +2729,16 @@
         <v>1.77</v>
       </c>
       <c r="D57" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>132.75</v>
       </c>
       <c r="E57" s="18"/>
       <c r="F57" s="20">
-        <f>C57*3</f>
+        <f t="shared" si="0"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="G57" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -2754,16 +2753,16 @@
         <v>3.49</v>
       </c>
       <c r="D58" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>132.62</v>
       </c>
       <c r="E58" s="18"/>
       <c r="F58" s="20">
-        <f>C58*3</f>
+        <f t="shared" si="0"/>
         <v>10.47</v>
       </c>
       <c r="G58" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -2778,16 +2777,16 @@
         <v>1.77</v>
       </c>
       <c r="D59" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>541.62</v>
       </c>
       <c r="E59" s="18"/>
       <c r="F59" s="20">
-        <f>C59*3</f>
+        <f t="shared" si="0"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="G59" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -2802,16 +2801,16 @@
         <v>1.68</v>
       </c>
       <c r="D60" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>47.04</v>
       </c>
       <c r="E60" s="18"/>
       <c r="F60" s="20">
-        <f>C60*3</f>
+        <f t="shared" si="0"/>
         <v>5.04</v>
       </c>
       <c r="G60" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -2826,16 +2825,16 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D61" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>205.7</v>
       </c>
       <c r="E61" s="18"/>
       <c r="F61" s="20">
-        <f>C61*3</f>
+        <f t="shared" si="0"/>
         <v>5.6099999999999994</v>
       </c>
       <c r="G61" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -2850,16 +2849,16 @@
         <v>2.84</v>
       </c>
       <c r="D62" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>144.84</v>
       </c>
       <c r="E62" s="18"/>
       <c r="F62" s="20">
-        <f>C62*3</f>
+        <f t="shared" si="0"/>
         <v>8.52</v>
       </c>
       <c r="G62" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -2874,16 +2873,16 @@
         <v>1.77</v>
       </c>
       <c r="D63" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>92.04</v>
       </c>
       <c r="E63" s="18"/>
       <c r="F63" s="20">
-        <f>C63*3</f>
+        <f t="shared" si="0"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="G63" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -2898,16 +2897,16 @@
         <v>3.4899999999999998</v>
       </c>
       <c r="D64" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>97.72</v>
       </c>
       <c r="E64" s="18"/>
       <c r="F64" s="20">
-        <f>C64*3</f>
+        <f t="shared" si="0"/>
         <v>10.469999999999999</v>
       </c>
       <c r="G64" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -2922,16 +2921,16 @@
         <v>1.77</v>
       </c>
       <c r="D65" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>240.72</v>
       </c>
       <c r="E65" s="18"/>
       <c r="F65" s="20">
-        <f>C65*3</f>
+        <f t="shared" si="0"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="G65" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
@@ -2946,16 +2945,16 @@
         <v>3.49</v>
       </c>
       <c r="D66" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>146.58000000000001</v>
       </c>
       <c r="E66" s="18"/>
       <c r="F66" s="20">
-        <f>C66*3</f>
+        <f t="shared" ref="F66:F129" si="5">C66*3</f>
         <v>10.47</v>
       </c>
       <c r="G66" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" ref="G66:G129" si="6">units_sold_per_product</f>
         <v>100</v>
       </c>
     </row>
@@ -2970,16 +2969,16 @@
         <v>1.87</v>
       </c>
       <c r="D67" s="20">
-        <f t="shared" ref="D67:D130" si="1">C67*B67</f>
+        <f t="shared" ref="D67:D130" si="7">C67*B67</f>
         <v>140.25</v>
       </c>
       <c r="E67" s="18"/>
       <c r="F67" s="20">
-        <f>C67*3</f>
+        <f t="shared" si="5"/>
         <v>5.61</v>
       </c>
       <c r="G67" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -2994,16 +2993,16 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D68" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>134.63999999999999</v>
       </c>
       <c r="E68" s="18"/>
       <c r="F68" s="20">
-        <f>C68*3</f>
+        <f t="shared" si="5"/>
         <v>5.6099999999999994</v>
       </c>
       <c r="G68" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -3018,16 +3017,16 @@
         <v>2.84</v>
       </c>
       <c r="D69" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>159.04</v>
       </c>
       <c r="E69" s="18"/>
       <c r="F69" s="20">
-        <f>C69*3</f>
+        <f t="shared" si="5"/>
         <v>8.52</v>
       </c>
       <c r="G69" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -3042,16 +3041,16 @@
         <v>1.87</v>
       </c>
       <c r="D70" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>95.37</v>
       </c>
       <c r="E70" s="18"/>
       <c r="F70" s="20">
-        <f>C70*3</f>
+        <f t="shared" si="5"/>
         <v>5.61</v>
       </c>
       <c r="G70" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -3066,16 +3065,16 @@
         <v>1.68</v>
       </c>
       <c r="D71" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>52.08</v>
       </c>
       <c r="E71" s="18"/>
       <c r="F71" s="20">
-        <f>C71*3</f>
+        <f t="shared" si="5"/>
         <v>5.04</v>
       </c>
       <c r="G71" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -3090,16 +3089,16 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D72" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>104.72</v>
       </c>
       <c r="E72" s="18"/>
       <c r="F72" s="20">
-        <f>C72*3</f>
+        <f t="shared" si="5"/>
         <v>5.6099999999999994</v>
       </c>
       <c r="G72" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -3114,16 +3113,16 @@
         <v>2.84</v>
       </c>
       <c r="D73" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>389.08</v>
       </c>
       <c r="E73" s="18"/>
       <c r="F73" s="20">
-        <f>C73*3</f>
+        <f t="shared" si="5"/>
         <v>8.52</v>
       </c>
       <c r="G73" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -3138,16 +3137,16 @@
         <v>1.87</v>
       </c>
       <c r="D74" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>200.09</v>
       </c>
       <c r="E74" s="18"/>
       <c r="F74" s="20">
-        <f>C74*3</f>
+        <f t="shared" si="5"/>
         <v>5.61</v>
       </c>
       <c r="G74" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -3162,16 +3161,16 @@
         <v>1.7699999999999998</v>
       </c>
       <c r="D75" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>42.48</v>
       </c>
       <c r="E75" s="18"/>
       <c r="F75" s="20">
-        <f>C75*3</f>
+        <f t="shared" si="5"/>
         <v>5.31</v>
       </c>
       <c r="G75" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -3186,16 +3185,16 @@
         <v>3.49</v>
       </c>
       <c r="D76" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>104.7</v>
       </c>
       <c r="E76" s="18"/>
       <c r="F76" s="20">
-        <f>C76*3</f>
+        <f t="shared" si="5"/>
         <v>10.47</v>
       </c>
       <c r="G76" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -3210,16 +3209,16 @@
         <v>1.87</v>
       </c>
       <c r="D77" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>130.9</v>
       </c>
       <c r="E77" s="18"/>
       <c r="F77" s="20">
-        <f>C77*3</f>
+        <f t="shared" si="5"/>
         <v>5.61</v>
       </c>
       <c r="G77" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -3234,16 +3233,16 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D78" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>67.58</v>
       </c>
       <c r="E78" s="18"/>
       <c r="F78" s="20">
-        <f>C78*3</f>
+        <f t="shared" si="5"/>
         <v>6.5400000000000009</v>
       </c>
       <c r="G78" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -3258,16 +3257,16 @@
         <v>1.77</v>
       </c>
       <c r="D79" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>192.93</v>
       </c>
       <c r="E79" s="18"/>
       <c r="F79" s="20">
-        <f>C79*3</f>
+        <f t="shared" si="5"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="G79" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -3282,16 +3281,16 @@
         <v>3.49</v>
       </c>
       <c r="D80" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>73.290000000000006</v>
       </c>
       <c r="E80" s="18"/>
       <c r="F80" s="20">
-        <f>C80*3</f>
+        <f t="shared" si="5"/>
         <v>10.47</v>
       </c>
       <c r="G80" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -3306,16 +3305,16 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D81" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>149.6</v>
       </c>
       <c r="E81" s="18"/>
       <c r="F81" s="20">
-        <f>C81*3</f>
+        <f t="shared" si="5"/>
         <v>5.6099999999999994</v>
       </c>
       <c r="G81" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -3330,16 +3329,16 @@
         <v>1.87</v>
       </c>
       <c r="D82" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>140.25</v>
       </c>
       <c r="E82" s="18"/>
       <c r="F82" s="20">
-        <f>C82*3</f>
+        <f t="shared" si="5"/>
         <v>5.61</v>
       </c>
       <c r="G82" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -3354,16 +3353,16 @@
         <v>2.84</v>
       </c>
       <c r="D83" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>210.16</v>
       </c>
       <c r="E83" s="18"/>
       <c r="F83" s="20">
-        <f>C83*3</f>
+        <f t="shared" si="5"/>
         <v>8.52</v>
       </c>
       <c r="G83" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -3378,16 +3377,16 @@
         <v>1.77</v>
       </c>
       <c r="D84" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>79.650000000000006</v>
       </c>
       <c r="E84" s="18"/>
       <c r="F84" s="20">
-        <f>C84*3</f>
+        <f t="shared" si="5"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="G84" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -3402,16 +3401,16 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D85" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>61.040000000000006</v>
       </c>
       <c r="E85" s="18"/>
       <c r="F85" s="20">
-        <f>C85*3</f>
+        <f t="shared" si="5"/>
         <v>6.5400000000000009</v>
       </c>
       <c r="G85" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -3426,16 +3425,16 @@
         <v>1.77</v>
       </c>
       <c r="D86" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>253.11</v>
       </c>
       <c r="E86" s="18"/>
       <c r="F86" s="20">
-        <f>C86*3</f>
+        <f t="shared" si="5"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="G86" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -3450,16 +3449,16 @@
         <v>3.15</v>
       </c>
       <c r="D87" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>85.05</v>
       </c>
       <c r="E87" s="18"/>
       <c r="F87" s="20">
-        <f>C87*3</f>
+        <f t="shared" si="5"/>
         <v>9.4499999999999993</v>
       </c>
       <c r="G87" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -3474,16 +3473,16 @@
         <v>1.77</v>
       </c>
       <c r="D88" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>235.41</v>
       </c>
       <c r="E88" s="18"/>
       <c r="F88" s="20">
-        <f>C88*3</f>
+        <f t="shared" si="5"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="G88" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -3498,16 +3497,16 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D89" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>239.8</v>
       </c>
       <c r="E89" s="18"/>
       <c r="F89" s="20">
-        <f>C89*3</f>
+        <f t="shared" si="5"/>
         <v>6.5400000000000009</v>
       </c>
       <c r="G89" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -3522,16 +3521,16 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D90" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>121.55</v>
       </c>
       <c r="E90" s="18"/>
       <c r="F90" s="20">
-        <f>C90*3</f>
+        <f t="shared" si="5"/>
         <v>5.6099999999999994</v>
       </c>
       <c r="G90" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -3546,16 +3545,16 @@
         <v>1.87</v>
       </c>
       <c r="D91" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>61.71</v>
       </c>
       <c r="E91" s="18"/>
       <c r="F91" s="20">
-        <f>C91*3</f>
+        <f t="shared" si="5"/>
         <v>5.61</v>
       </c>
       <c r="G91" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -3570,16 +3569,16 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D92" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>176.58</v>
       </c>
       <c r="E92" s="18"/>
       <c r="F92" s="20">
-        <f>C92*3</f>
+        <f t="shared" si="5"/>
         <v>6.5400000000000009</v>
       </c>
       <c r="G92" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -3594,16 +3593,16 @@
         <v>1.7699999999999998</v>
       </c>
       <c r="D93" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>136.29</v>
       </c>
       <c r="E93" s="18"/>
       <c r="F93" s="20">
-        <f>C93*3</f>
+        <f t="shared" si="5"/>
         <v>5.31</v>
       </c>
       <c r="G93" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -3618,16 +3617,16 @@
         <v>3.49</v>
       </c>
       <c r="D94" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>132.62</v>
       </c>
       <c r="E94" s="18"/>
       <c r="F94" s="20">
-        <f>C94*3</f>
+        <f t="shared" si="5"/>
         <v>10.47</v>
       </c>
       <c r="G94" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -3642,16 +3641,16 @@
         <v>1.77</v>
       </c>
       <c r="D95" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>70.8</v>
       </c>
       <c r="E95" s="18"/>
       <c r="F95" s="20">
-        <f>C95*3</f>
+        <f t="shared" si="5"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="G95" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -3666,16 +3665,16 @@
         <v>1.6800000000000002</v>
       </c>
       <c r="D96" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>191.52</v>
       </c>
       <c r="E96" s="18"/>
       <c r="F96" s="20">
-        <f>C96*3</f>
+        <f t="shared" si="5"/>
         <v>5.0400000000000009</v>
       </c>
       <c r="G96" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -3690,16 +3689,16 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D97" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>488.32000000000005</v>
       </c>
       <c r="E97" s="18"/>
       <c r="F97" s="20">
-        <f>C97*3</f>
+        <f t="shared" si="5"/>
         <v>6.5400000000000009</v>
       </c>
       <c r="G97" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -3714,16 +3713,16 @@
         <v>1.77</v>
       </c>
       <c r="D98" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>249.57</v>
       </c>
       <c r="E98" s="18"/>
       <c r="F98" s="20">
-        <f>C98*3</f>
+        <f t="shared" si="5"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="G98" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -3738,16 +3737,16 @@
         <v>3.49</v>
       </c>
       <c r="D99" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>111.68</v>
       </c>
       <c r="E99" s="18"/>
       <c r="F99" s="20">
-        <f>C99*3</f>
+        <f t="shared" si="5"/>
         <v>10.47</v>
       </c>
       <c r="G99" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -3762,16 +3761,16 @@
         <v>1.77</v>
       </c>
       <c r="D100" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>35.4</v>
       </c>
       <c r="E100" s="18"/>
       <c r="F100" s="20">
-        <f>C100*3</f>
+        <f t="shared" si="5"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="G100" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -3786,16 +3785,16 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D101" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>87.2</v>
       </c>
       <c r="E101" s="18"/>
       <c r="F101" s="20">
-        <f>C101*3</f>
+        <f t="shared" si="5"/>
         <v>6.5400000000000009</v>
       </c>
       <c r="G101" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -3810,16 +3809,16 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D102" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>91.63</v>
       </c>
       <c r="E102" s="18"/>
       <c r="F102" s="20">
-        <f>C102*3</f>
+        <f t="shared" si="5"/>
         <v>5.6099999999999994</v>
       </c>
       <c r="G102" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -3834,16 +3833,16 @@
         <v>3.4899999999999998</v>
       </c>
       <c r="D103" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>160.54</v>
       </c>
       <c r="E103" s="18"/>
       <c r="F103" s="20">
-        <f>C103*3</f>
+        <f t="shared" si="5"/>
         <v>10.469999999999999</v>
       </c>
       <c r="G103" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -3858,16 +3857,16 @@
         <v>1.77</v>
       </c>
       <c r="D104" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>69.03</v>
       </c>
       <c r="E104" s="18"/>
       <c r="F104" s="20">
-        <f>C104*3</f>
+        <f t="shared" si="5"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="G104" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -3882,16 +3881,16 @@
         <v>1.68</v>
       </c>
       <c r="D105" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>104.16</v>
       </c>
       <c r="E105" s="18"/>
       <c r="F105" s="20">
-        <f>C105*3</f>
+        <f t="shared" si="5"/>
         <v>5.04</v>
       </c>
       <c r="G105" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -3906,16 +3905,16 @@
         <v>1.77</v>
       </c>
       <c r="D106" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>159.30000000000001</v>
       </c>
       <c r="E106" s="18"/>
       <c r="F106" s="20">
-        <f>C106*3</f>
+        <f t="shared" si="5"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="G106" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -3930,16 +3929,16 @@
         <v>2.1799999999999997</v>
       </c>
       <c r="D107" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>224.53999999999996</v>
       </c>
       <c r="E107" s="18"/>
       <c r="F107" s="20">
-        <f>C107*3</f>
+        <f t="shared" si="5"/>
         <v>6.5399999999999991</v>
       </c>
       <c r="G107" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -3954,16 +3953,16 @@
         <v>2.84</v>
       </c>
       <c r="D108" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>90.88</v>
       </c>
       <c r="E108" s="18"/>
       <c r="F108" s="20">
-        <f>C108*3</f>
+        <f t="shared" si="5"/>
         <v>8.52</v>
       </c>
       <c r="G108" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -3978,16 +3977,16 @@
         <v>1.87</v>
       </c>
       <c r="D109" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>123.42</v>
       </c>
       <c r="E109" s="18"/>
       <c r="F109" s="20">
-        <f>C109*3</f>
+        <f t="shared" si="5"/>
         <v>5.61</v>
       </c>
       <c r="G109" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -4002,16 +4001,16 @@
         <v>2.8400000000000003</v>
       </c>
       <c r="D110" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>275.48</v>
       </c>
       <c r="E110" s="18"/>
       <c r="F110" s="20">
-        <f>C110*3</f>
+        <f t="shared" si="5"/>
         <v>8.5200000000000014</v>
       </c>
       <c r="G110" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -4026,16 +4025,16 @@
         <v>1.77</v>
       </c>
       <c r="D111" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>53.1</v>
       </c>
       <c r="E111" s="18"/>
       <c r="F111" s="20">
-        <f>C111*3</f>
+        <f t="shared" si="5"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="G111" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -4050,16 +4049,16 @@
         <v>1.68</v>
       </c>
       <c r="D112" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>48.72</v>
       </c>
       <c r="E112" s="18"/>
       <c r="F112" s="20">
-        <f>C112*3</f>
+        <f t="shared" si="5"/>
         <v>5.04</v>
       </c>
       <c r="G112" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -4074,16 +4073,16 @@
         <v>1.77</v>
       </c>
       <c r="D113" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>162.84</v>
       </c>
       <c r="E113" s="18"/>
       <c r="F113" s="20">
-        <f>C113*3</f>
+        <f t="shared" si="5"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="G113" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -4098,16 +4097,16 @@
         <v>2.1799999999999997</v>
       </c>
       <c r="D114" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>303.02</v>
       </c>
       <c r="E114" s="18"/>
       <c r="F114" s="20">
-        <f>C114*3</f>
+        <f t="shared" si="5"/>
         <v>6.5399999999999991</v>
       </c>
       <c r="G114" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -4122,16 +4121,16 @@
         <v>2.84</v>
       </c>
       <c r="D115" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>82.36</v>
       </c>
       <c r="E115" s="18"/>
       <c r="F115" s="20">
-        <f>C115*3</f>
+        <f t="shared" si="5"/>
         <v>8.52</v>
       </c>
       <c r="G115" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -4146,16 +4145,16 @@
         <v>2.27</v>
       </c>
       <c r="D116" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>68.099999999999994</v>
       </c>
       <c r="E116" s="18"/>
       <c r="F116" s="20">
-        <f>C116*3</f>
+        <f t="shared" si="5"/>
         <v>6.8100000000000005</v>
       </c>
       <c r="G116" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -4170,16 +4169,16 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D117" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>67.319999999999993</v>
       </c>
       <c r="E117" s="18"/>
       <c r="F117" s="20">
-        <f>C117*3</f>
+        <f t="shared" si="5"/>
         <v>5.6099999999999994</v>
       </c>
       <c r="G117" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -4194,16 +4193,16 @@
         <v>3.49</v>
       </c>
       <c r="D118" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>143.09</v>
       </c>
       <c r="E118" s="18"/>
       <c r="F118" s="20">
-        <f>C118*3</f>
+        <f t="shared" si="5"/>
         <v>10.47</v>
       </c>
       <c r="G118" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -4218,16 +4217,16 @@
         <v>1.7699999999999998</v>
       </c>
       <c r="D119" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>77.88</v>
       </c>
       <c r="E119" s="18"/>
       <c r="F119" s="20">
-        <f>C119*3</f>
+        <f t="shared" si="5"/>
         <v>5.31</v>
       </c>
       <c r="G119" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -4242,16 +4241,16 @@
         <v>1.68</v>
       </c>
       <c r="D120" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>48.72</v>
       </c>
       <c r="E120" s="18"/>
       <c r="F120" s="20">
-        <f>C120*3</f>
+        <f t="shared" si="5"/>
         <v>5.04</v>
       </c>
       <c r="G120" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -4266,16 +4265,16 @@
         <v>2.1799999999999997</v>
       </c>
       <c r="D121" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>516.66</v>
       </c>
       <c r="E121" s="18"/>
       <c r="F121" s="20">
-        <f>C121*3</f>
+        <f t="shared" si="5"/>
         <v>6.5399999999999991</v>
       </c>
       <c r="G121" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -4290,16 +4289,16 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D122" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>121.55</v>
       </c>
       <c r="E122" s="18"/>
       <c r="F122" s="20">
-        <f>C122*3</f>
+        <f t="shared" si="5"/>
         <v>5.6099999999999994</v>
       </c>
       <c r="G122" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -4314,16 +4313,16 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D123" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>180.94000000000003</v>
       </c>
       <c r="E123" s="18"/>
       <c r="F123" s="20">
-        <f>C123*3</f>
+        <f t="shared" si="5"/>
         <v>6.5400000000000009</v>
       </c>
       <c r="G123" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -4338,16 +4337,16 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D124" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>69.760000000000005</v>
       </c>
       <c r="E124" s="18"/>
       <c r="F124" s="20">
-        <f>C124*3</f>
+        <f t="shared" si="5"/>
         <v>6.5400000000000009</v>
       </c>
       <c r="G124" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -4362,16 +4361,16 @@
         <v>1.77</v>
       </c>
       <c r="D125" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>111.51</v>
       </c>
       <c r="E125" s="18"/>
       <c r="F125" s="20">
-        <f>C125*3</f>
+        <f t="shared" si="5"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="G125" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -4386,16 +4385,16 @@
         <v>3.15</v>
       </c>
       <c r="D126" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>91.35</v>
       </c>
       <c r="E126" s="18"/>
       <c r="F126" s="20">
-        <f>C126*3</f>
+        <f t="shared" si="5"/>
         <v>9.4499999999999993</v>
       </c>
       <c r="G126" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -4410,16 +4409,16 @@
         <v>1.87</v>
       </c>
       <c r="D127" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>143.99</v>
       </c>
       <c r="E127" s="18"/>
       <c r="F127" s="20">
-        <f>C127*3</f>
+        <f t="shared" si="5"/>
         <v>5.61</v>
       </c>
       <c r="G127" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -4434,16 +4433,16 @@
         <v>2.84</v>
       </c>
       <c r="D128" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>227.2</v>
       </c>
       <c r="E128" s="18"/>
       <c r="F128" s="20">
-        <f>C128*3</f>
+        <f t="shared" si="5"/>
         <v>8.52</v>
       </c>
       <c r="G128" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -4458,16 +4457,16 @@
         <v>1.77</v>
       </c>
       <c r="D129" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>180.54</v>
       </c>
       <c r="E129" s="18"/>
       <c r="F129" s="20">
-        <f>C129*3</f>
+        <f t="shared" si="5"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="G129" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -4482,16 +4481,16 @@
         <v>3.4899999999999998</v>
       </c>
       <c r="D130" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>108.19</v>
       </c>
       <c r="E130" s="18"/>
       <c r="F130" s="20">
-        <f>C130*3</f>
+        <f t="shared" ref="F130:F193" si="8">C130*3</f>
         <v>10.469999999999999</v>
       </c>
       <c r="G130" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" ref="G130:G193" si="9">units_sold_per_product</f>
         <v>100</v>
       </c>
     </row>
@@ -4506,16 +4505,16 @@
         <v>1.77</v>
       </c>
       <c r="D131" s="20">
-        <f t="shared" ref="D131:D194" si="2">C131*B131</f>
+        <f t="shared" ref="D131:D194" si="10">C131*B131</f>
         <v>99.12</v>
       </c>
       <c r="E131" s="18"/>
       <c r="F131" s="20">
-        <f>C131*3</f>
+        <f t="shared" si="8"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="G131" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -4530,16 +4529,16 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D132" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>113.36000000000001</v>
       </c>
       <c r="E132" s="18"/>
       <c r="F132" s="20">
-        <f>C132*3</f>
+        <f t="shared" si="8"/>
         <v>6.5400000000000009</v>
       </c>
       <c r="G132" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -4554,16 +4553,16 @@
         <v>1.77</v>
       </c>
       <c r="D133" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>90.27</v>
       </c>
       <c r="E133" s="18"/>
       <c r="F133" s="20">
-        <f>C133*3</f>
+        <f t="shared" si="8"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="G133" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -4578,16 +4577,16 @@
         <v>1.68</v>
       </c>
       <c r="D134" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>40.32</v>
       </c>
       <c r="E134" s="18"/>
       <c r="F134" s="20">
-        <f>C134*3</f>
+        <f t="shared" si="8"/>
         <v>5.04</v>
       </c>
       <c r="G134" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -4602,16 +4601,16 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D135" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>126.44000000000001</v>
       </c>
       <c r="E135" s="18"/>
       <c r="F135" s="20">
-        <f>C135*3</f>
+        <f t="shared" si="8"/>
         <v>6.5400000000000009</v>
       </c>
       <c r="G135" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -4626,16 +4625,16 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D136" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>63.58</v>
       </c>
       <c r="E136" s="18"/>
       <c r="F136" s="20">
-        <f>C136*3</f>
+        <f t="shared" si="8"/>
         <v>5.6099999999999994</v>
       </c>
       <c r="G136" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -4650,16 +4649,16 @@
         <v>1.77</v>
       </c>
       <c r="D137" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>60.18</v>
       </c>
       <c r="E137" s="18"/>
       <c r="F137" s="20">
-        <f>C137*3</f>
+        <f t="shared" si="8"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="G137" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -4674,16 +4673,16 @@
         <v>1.6800000000000002</v>
       </c>
       <c r="D138" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>35.28</v>
       </c>
       <c r="E138" s="18"/>
       <c r="F138" s="20">
-        <f>C138*3</f>
+        <f t="shared" si="8"/>
         <v>5.0400000000000009</v>
       </c>
       <c r="G138" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -4698,16 +4697,16 @@
         <v>2.84</v>
       </c>
       <c r="D139" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>82.36</v>
       </c>
       <c r="E139" s="18"/>
       <c r="F139" s="20">
-        <f>C139*3</f>
+        <f t="shared" si="8"/>
         <v>8.52</v>
       </c>
       <c r="G139" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -4722,16 +4721,16 @@
         <v>1.77</v>
       </c>
       <c r="D140" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>120.36</v>
       </c>
       <c r="E140" s="18"/>
       <c r="F140" s="20">
-        <f>C140*3</f>
+        <f t="shared" si="8"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="G140" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -4746,16 +4745,16 @@
         <v>3.1500000000000004</v>
       </c>
       <c r="D141" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>97.65</v>
       </c>
       <c r="E141" s="18"/>
       <c r="F141" s="20">
-        <f>C141*3</f>
+        <f t="shared" si="8"/>
         <v>9.4500000000000011</v>
       </c>
       <c r="G141" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -4770,16 +4769,16 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D142" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>65.400000000000006</v>
       </c>
       <c r="E142" s="18"/>
       <c r="F142" s="20">
-        <f>C142*3</f>
+        <f t="shared" si="8"/>
         <v>6.5400000000000009</v>
       </c>
       <c r="G142" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -4794,16 +4793,16 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D143" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>433.84</v>
       </c>
       <c r="E143" s="18"/>
       <c r="F143" s="20">
-        <f>C143*3</f>
+        <f t="shared" si="8"/>
         <v>5.6099999999999994</v>
       </c>
       <c r="G143" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -4818,16 +4817,16 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D144" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>127.16</v>
       </c>
       <c r="E144" s="18"/>
       <c r="F144" s="20">
-        <f>C144*3</f>
+        <f t="shared" si="8"/>
         <v>5.6099999999999994</v>
       </c>
       <c r="G144" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -4842,16 +4841,16 @@
         <v>2.8400000000000003</v>
       </c>
       <c r="D145" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>275.48</v>
       </c>
       <c r="E145" s="18"/>
       <c r="F145" s="20">
-        <f>C145*3</f>
+        <f t="shared" si="8"/>
         <v>8.5200000000000014</v>
       </c>
       <c r="G145" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -4866,16 +4865,16 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D146" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>160.82</v>
       </c>
       <c r="E146" s="18"/>
       <c r="F146" s="20">
-        <f>C146*3</f>
+        <f t="shared" si="8"/>
         <v>5.6099999999999994</v>
       </c>
       <c r="G146" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -4890,16 +4889,16 @@
         <v>1.68</v>
       </c>
       <c r="D147" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>68.88</v>
       </c>
       <c r="E147" s="18"/>
       <c r="F147" s="20">
-        <f>C147*3</f>
+        <f t="shared" si="8"/>
         <v>5.04</v>
       </c>
       <c r="G147" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -4914,16 +4913,16 @@
         <v>1.7700000000000002</v>
       </c>
       <c r="D148" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>164.61</v>
       </c>
       <c r="E148" s="18"/>
       <c r="F148" s="20">
-        <f>C148*3</f>
+        <f t="shared" si="8"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="G148" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -4938,16 +4937,16 @@
         <v>1.68</v>
       </c>
       <c r="D149" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>78.959999999999994</v>
       </c>
       <c r="E149" s="18"/>
       <c r="F149" s="20">
-        <f>C149*3</f>
+        <f t="shared" si="8"/>
         <v>5.04</v>
       </c>
       <c r="G149" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -4962,16 +4961,16 @@
         <v>1.77</v>
       </c>
       <c r="D150" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>182.31</v>
       </c>
       <c r="E150" s="18"/>
       <c r="F150" s="20">
-        <f>C150*3</f>
+        <f t="shared" si="8"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="G150" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -4986,16 +4985,16 @@
         <v>1.68</v>
       </c>
       <c r="D151" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>55.44</v>
       </c>
       <c r="E151" s="18"/>
       <c r="F151" s="20">
-        <f>C151*3</f>
+        <f t="shared" si="8"/>
         <v>5.04</v>
       </c>
       <c r="G151" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -5010,16 +5009,16 @@
         <v>1.87</v>
       </c>
       <c r="D152" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>106.59</v>
       </c>
       <c r="E152" s="18"/>
       <c r="F152" s="20">
-        <f>C152*3</f>
+        <f t="shared" si="8"/>
         <v>5.61</v>
       </c>
       <c r="G152" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -5034,16 +5033,16 @@
         <v>2.84</v>
       </c>
       <c r="D153" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>184.6</v>
       </c>
       <c r="E153" s="18"/>
       <c r="F153" s="20">
-        <f>C153*3</f>
+        <f t="shared" si="8"/>
         <v>8.52</v>
       </c>
       <c r="G153" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -5058,16 +5057,16 @@
         <v>1.77</v>
       </c>
       <c r="D154" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>208.86</v>
       </c>
       <c r="E154" s="18"/>
       <c r="F154" s="20">
-        <f>C154*3</f>
+        <f t="shared" si="8"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="G154" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -5082,16 +5081,16 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D155" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>78.48</v>
       </c>
       <c r="E155" s="18"/>
       <c r="F155" s="20">
-        <f>C155*3</f>
+        <f t="shared" si="8"/>
         <v>6.5400000000000009</v>
       </c>
       <c r="G155" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -5106,16 +5105,16 @@
         <v>2.84</v>
       </c>
       <c r="D156" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>349.32</v>
       </c>
       <c r="E156" s="18"/>
       <c r="F156" s="20">
-        <f>C156*3</f>
+        <f t="shared" si="8"/>
         <v>8.52</v>
       </c>
       <c r="G156" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -5130,16 +5129,16 @@
         <v>1.77</v>
       </c>
       <c r="D157" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>159.30000000000001</v>
       </c>
       <c r="E157" s="18"/>
       <c r="F157" s="20">
-        <f>C157*3</f>
+        <f t="shared" si="8"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="G157" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -5154,16 +5153,16 @@
         <v>3.49</v>
       </c>
       <c r="D158" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>73.290000000000006</v>
       </c>
       <c r="E158" s="18"/>
       <c r="F158" s="20">
-        <f>C158*3</f>
+        <f t="shared" si="8"/>
         <v>10.47</v>
       </c>
       <c r="G158" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -5178,16 +5177,16 @@
         <v>1.7699999999999998</v>
       </c>
       <c r="D159" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>84.96</v>
       </c>
       <c r="E159" s="18"/>
       <c r="F159" s="20">
-        <f>C159*3</f>
+        <f t="shared" si="8"/>
         <v>5.31</v>
       </c>
       <c r="G159" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -5202,16 +5201,16 @@
         <v>1.68</v>
       </c>
       <c r="D160" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>40.32</v>
       </c>
       <c r="E160" s="18"/>
       <c r="F160" s="20">
-        <f>C160*3</f>
+        <f t="shared" si="8"/>
         <v>5.04</v>
       </c>
       <c r="G160" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -5226,16 +5225,16 @@
         <v>1.87</v>
       </c>
       <c r="D161" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>125.29</v>
       </c>
       <c r="E161" s="18"/>
       <c r="F161" s="20">
-        <f>C161*3</f>
+        <f t="shared" si="8"/>
         <v>5.61</v>
       </c>
       <c r="G161" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -5250,16 +5249,16 @@
         <v>1.87</v>
       </c>
       <c r="D162" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>50.49</v>
       </c>
       <c r="E162" s="18"/>
       <c r="F162" s="20">
-        <f>C162*3</f>
+        <f t="shared" si="8"/>
         <v>5.61</v>
       </c>
       <c r="G162" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -5274,16 +5273,16 @@
         <v>2.8400000000000003</v>
       </c>
       <c r="D163" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>366.36</v>
       </c>
       <c r="E163" s="18"/>
       <c r="F163" s="20">
-        <f>C163*3</f>
+        <f t="shared" si="8"/>
         <v>8.5200000000000014</v>
       </c>
       <c r="G163" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -5298,16 +5297,16 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D164" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>167.86</v>
       </c>
       <c r="E164" s="18"/>
       <c r="F164" s="20">
-        <f>C164*3</f>
+        <f t="shared" si="8"/>
         <v>6.5400000000000009</v>
       </c>
       <c r="G164" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -5322,16 +5321,16 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D165" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>108.46</v>
       </c>
       <c r="E165" s="18"/>
       <c r="F165" s="20">
-        <f>C165*3</f>
+        <f t="shared" si="8"/>
         <v>5.6099999999999994</v>
       </c>
       <c r="G165" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -5346,16 +5345,16 @@
         <v>1.87</v>
       </c>
       <c r="D166" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>87.89</v>
       </c>
       <c r="E166" s="18"/>
       <c r="F166" s="20">
-        <f>C166*3</f>
+        <f t="shared" si="8"/>
         <v>5.61</v>
       </c>
       <c r="G166" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -5370,16 +5369,16 @@
         <v>2.84</v>
       </c>
       <c r="D167" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>93.72</v>
       </c>
       <c r="E167" s="18"/>
       <c r="F167" s="20">
-        <f>C167*3</f>
+        <f t="shared" si="8"/>
         <v>8.52</v>
       </c>
       <c r="G167" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -5394,16 +5393,16 @@
         <v>1.87</v>
       </c>
       <c r="D168" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>153.34</v>
       </c>
       <c r="E168" s="18"/>
       <c r="F168" s="20">
-        <f>C168*3</f>
+        <f t="shared" si="8"/>
         <v>5.61</v>
       </c>
       <c r="G168" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -5418,16 +5417,16 @@
         <v>1.77</v>
       </c>
       <c r="D169" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>102.66</v>
       </c>
       <c r="E169" s="18"/>
       <c r="F169" s="20">
-        <f>C169*3</f>
+        <f t="shared" si="8"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="G169" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -5442,16 +5441,16 @@
         <v>3.15</v>
       </c>
       <c r="D170" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>94.5</v>
       </c>
       <c r="E170" s="18"/>
       <c r="F170" s="20">
-        <f>C170*3</f>
+        <f t="shared" si="8"/>
         <v>9.4499999999999993</v>
       </c>
       <c r="G170" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -5466,16 +5465,16 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D171" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>80.41</v>
       </c>
       <c r="E171" s="18"/>
       <c r="F171" s="20">
-        <f>C171*3</f>
+        <f t="shared" si="8"/>
         <v>5.6099999999999994</v>
       </c>
       <c r="G171" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -5490,16 +5489,16 @@
         <v>1.77</v>
       </c>
       <c r="D172" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>148.68</v>
       </c>
       <c r="E172" s="18"/>
       <c r="F172" s="20">
-        <f>C172*3</f>
+        <f t="shared" si="8"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="G172" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -5514,16 +5513,16 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D173" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>78.48</v>
       </c>
       <c r="E173" s="18"/>
       <c r="F173" s="20">
-        <f>C173*3</f>
+        <f t="shared" si="8"/>
         <v>6.5400000000000009</v>
       </c>
       <c r="G173" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -5538,16 +5537,16 @@
         <v>2.84</v>
       </c>
       <c r="D174" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>124.96</v>
       </c>
       <c r="E174" s="18"/>
       <c r="F174" s="20">
-        <f>C174*3</f>
+        <f t="shared" si="8"/>
         <v>8.52</v>
       </c>
       <c r="G174" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -5562,16 +5561,16 @@
         <v>1.87</v>
       </c>
       <c r="D175" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>50.49</v>
       </c>
       <c r="E175" s="18"/>
       <c r="F175" s="20">
-        <f>C175*3</f>
+        <f t="shared" si="8"/>
         <v>5.61</v>
       </c>
       <c r="G175" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -5586,16 +5585,16 @@
         <v>2.8400000000000003</v>
       </c>
       <c r="D176" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>340.8</v>
       </c>
       <c r="E176" s="18"/>
       <c r="F176" s="20">
-        <f>C176*3</f>
+        <f t="shared" si="8"/>
         <v>8.5200000000000014</v>
       </c>
       <c r="G176" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -5610,16 +5609,16 @@
         <v>3.4899999999999998</v>
       </c>
       <c r="D177" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>90.74</v>
       </c>
       <c r="E177" s="18"/>
       <c r="F177" s="20">
-        <f>C177*3</f>
+        <f t="shared" si="8"/>
         <v>10.469999999999999</v>
       </c>
       <c r="G177" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -5634,16 +5633,16 @@
         <v>1.77</v>
       </c>
       <c r="D178" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>129.21</v>
       </c>
       <c r="E178" s="18"/>
       <c r="F178" s="20">
-        <f>C178*3</f>
+        <f t="shared" si="8"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="G178" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -5658,16 +5657,16 @@
         <v>1.87</v>
       </c>
       <c r="D179" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>71.06</v>
       </c>
       <c r="E179" s="18"/>
       <c r="F179" s="20">
-        <f>C179*3</f>
+        <f t="shared" si="8"/>
         <v>5.61</v>
       </c>
       <c r="G179" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -5682,16 +5681,16 @@
         <v>2.84</v>
       </c>
       <c r="D180" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>113.6</v>
       </c>
       <c r="E180" s="18"/>
       <c r="F180" s="20">
-        <f>C180*3</f>
+        <f t="shared" si="8"/>
         <v>8.52</v>
       </c>
       <c r="G180" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -5706,16 +5705,16 @@
         <v>1.7699999999999998</v>
       </c>
       <c r="D181" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>72.569999999999993</v>
       </c>
       <c r="E181" s="18"/>
       <c r="F181" s="20">
-        <f>C181*3</f>
+        <f t="shared" si="8"/>
         <v>5.31</v>
       </c>
       <c r="G181" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -5730,16 +5729,16 @@
         <v>2.27</v>
       </c>
       <c r="D182" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>61.29</v>
       </c>
       <c r="E182" s="18"/>
       <c r="F182" s="20">
-        <f>C182*3</f>
+        <f t="shared" si="8"/>
         <v>6.8100000000000005</v>
       </c>
       <c r="G182" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -5754,16 +5753,16 @@
         <v>1.87</v>
       </c>
       <c r="D183" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>71.06</v>
       </c>
       <c r="E183" s="18"/>
       <c r="F183" s="20">
-        <f>C183*3</f>
+        <f t="shared" si="8"/>
         <v>5.61</v>
       </c>
       <c r="G183" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -5778,16 +5777,16 @@
         <v>3.4899999999999998</v>
       </c>
       <c r="D184" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>118.66</v>
       </c>
       <c r="E184" s="18"/>
       <c r="F184" s="20">
-        <f>C184*3</f>
+        <f t="shared" si="8"/>
         <v>10.469999999999999</v>
       </c>
       <c r="G184" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -5802,16 +5801,16 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D185" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>121.55</v>
       </c>
       <c r="E185" s="18"/>
       <c r="F185" s="20">
-        <f>C185*3</f>
+        <f t="shared" si="8"/>
         <v>5.6099999999999994</v>
       </c>
       <c r="G185" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -5826,16 +5825,16 @@
         <v>2.8400000000000003</v>
       </c>
       <c r="D186" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>170.4</v>
       </c>
       <c r="E186" s="18"/>
       <c r="F186" s="20">
-        <f>C186*3</f>
+        <f t="shared" si="8"/>
         <v>8.5200000000000014</v>
       </c>
       <c r="G186" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -5850,16 +5849,16 @@
         <v>2.1799999999999997</v>
       </c>
       <c r="D187" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>80.66</v>
       </c>
       <c r="E187" s="18"/>
       <c r="F187" s="20">
-        <f>C187*3</f>
+        <f t="shared" si="8"/>
         <v>6.5399999999999991</v>
       </c>
       <c r="G187" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -5874,16 +5873,16 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D188" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>74.8</v>
       </c>
       <c r="E188" s="18"/>
       <c r="F188" s="20">
-        <f>C188*3</f>
+        <f t="shared" si="8"/>
         <v>5.6099999999999994</v>
       </c>
       <c r="G188" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -5898,16 +5897,16 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D189" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>48.62</v>
       </c>
       <c r="E189" s="18"/>
       <c r="F189" s="20">
-        <f>C189*3</f>
+        <f t="shared" si="8"/>
         <v>5.6099999999999994</v>
       </c>
       <c r="G189" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -5922,16 +5921,16 @@
         <v>2.27</v>
       </c>
       <c r="D190" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>49.94</v>
       </c>
       <c r="E190" s="18"/>
       <c r="F190" s="20">
-        <f>C190*3</f>
+        <f t="shared" si="8"/>
         <v>6.8100000000000005</v>
       </c>
       <c r="G190" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -5946,16 +5945,16 @@
         <v>1.87</v>
       </c>
       <c r="D191" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>59.84</v>
       </c>
       <c r="E191" s="18"/>
       <c r="F191" s="20">
-        <f>C191*3</f>
+        <f t="shared" si="8"/>
         <v>5.61</v>
       </c>
       <c r="G191" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -5970,16 +5969,16 @@
         <v>3.4899999999999998</v>
       </c>
       <c r="D192" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>80.27</v>
       </c>
       <c r="E192" s="18"/>
       <c r="F192" s="20">
-        <f>C192*3</f>
+        <f t="shared" si="8"/>
         <v>10.469999999999999</v>
       </c>
       <c r="G192" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -5994,16 +5993,16 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D193" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>43.6</v>
       </c>
       <c r="E193" s="18"/>
       <c r="F193" s="20">
-        <f>C193*3</f>
+        <f t="shared" si="8"/>
         <v>6.5400000000000009</v>
       </c>
       <c r="G193" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -6018,16 +6017,16 @@
         <v>1.87</v>
       </c>
       <c r="D194" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>119.68</v>
       </c>
       <c r="E194" s="18"/>
       <c r="F194" s="20">
-        <f>C194*3</f>
+        <f t="shared" ref="F194:F245" si="11">C194*3</f>
         <v>5.61</v>
       </c>
       <c r="G194" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" ref="G194:G245" si="12">units_sold_per_product</f>
         <v>100</v>
       </c>
     </row>
@@ -6042,16 +6041,16 @@
         <v>1.77</v>
       </c>
       <c r="D195" s="20">
-        <f t="shared" ref="D195:D245" si="3">C195*B195</f>
+        <f t="shared" ref="D195:D245" si="13">C195*B195</f>
         <v>125.67</v>
       </c>
       <c r="E195" s="18"/>
       <c r="F195" s="20">
-        <f>C195*3</f>
+        <f t="shared" si="11"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="G195" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -6066,16 +6065,16 @@
         <v>2.1799999999999997</v>
       </c>
       <c r="D196" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>196.2</v>
       </c>
       <c r="E196" s="18"/>
       <c r="F196" s="20">
-        <f>C196*3</f>
+        <f t="shared" si="11"/>
         <v>6.5399999999999991</v>
       </c>
       <c r="G196" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -6090,16 +6089,16 @@
         <v>2.84</v>
       </c>
       <c r="D197" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>107.91999999999999</v>
       </c>
       <c r="E197" s="18"/>
       <c r="F197" s="20">
-        <f>C197*3</f>
+        <f t="shared" si="11"/>
         <v>8.52</v>
       </c>
       <c r="G197" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -6114,16 +6113,16 @@
         <v>1.7699999999999998</v>
       </c>
       <c r="D198" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>97.35</v>
       </c>
       <c r="E198" s="18"/>
       <c r="F198" s="20">
-        <f>C198*3</f>
+        <f t="shared" si="11"/>
         <v>5.31</v>
       </c>
       <c r="G198" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -6138,16 +6137,16 @@
         <v>3.15</v>
       </c>
       <c r="D199" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>69.3</v>
       </c>
       <c r="E199" s="18"/>
       <c r="F199" s="20">
-        <f>C199*3</f>
+        <f t="shared" si="11"/>
         <v>9.4499999999999993</v>
       </c>
       <c r="G199" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -6162,16 +6161,16 @@
         <v>1.77</v>
       </c>
       <c r="D200" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>60.18</v>
       </c>
       <c r="E200" s="18"/>
       <c r="F200" s="20">
-        <f>C200*3</f>
+        <f t="shared" si="11"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="G200" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -6186,16 +6185,16 @@
         <v>1.87</v>
       </c>
       <c r="D201" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>72.930000000000007</v>
       </c>
       <c r="E201" s="18"/>
       <c r="F201" s="20">
-        <f>C201*3</f>
+        <f t="shared" si="11"/>
         <v>5.61</v>
       </c>
       <c r="G201" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -6210,16 +6209,16 @@
         <v>2.84</v>
       </c>
       <c r="D202" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>116.44</v>
       </c>
       <c r="E202" s="18"/>
       <c r="F202" s="20">
-        <f>C202*3</f>
+        <f t="shared" si="11"/>
         <v>8.52</v>
       </c>
       <c r="G202" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -6234,16 +6233,16 @@
         <v>1.7699999999999998</v>
       </c>
       <c r="D203" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>72.569999999999993</v>
       </c>
       <c r="E203" s="18"/>
       <c r="F203" s="20">
-        <f>C203*3</f>
+        <f t="shared" si="11"/>
         <v>5.31</v>
       </c>
       <c r="G203" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -6258,16 +6257,16 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D204" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>296.48</v>
       </c>
       <c r="E204" s="18"/>
       <c r="F204" s="20">
-        <f>C204*3</f>
+        <f t="shared" si="11"/>
         <v>6.5400000000000009</v>
       </c>
       <c r="G204" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -6282,16 +6281,16 @@
         <v>1.77</v>
       </c>
       <c r="D205" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>44.25</v>
       </c>
       <c r="E205" s="18"/>
       <c r="F205" s="20">
-        <f>C205*3</f>
+        <f t="shared" si="11"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="G205" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -6306,16 +6305,16 @@
         <v>3.1500000000000004</v>
       </c>
       <c r="D206" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>81.900000000000006</v>
       </c>
       <c r="E206" s="18"/>
       <c r="F206" s="20">
-        <f>C206*3</f>
+        <f t="shared" si="11"/>
         <v>9.4500000000000011</v>
       </c>
       <c r="G206" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -6330,16 +6329,16 @@
         <v>1.87</v>
       </c>
       <c r="D207" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>93.5</v>
       </c>
       <c r="E207" s="18"/>
       <c r="F207" s="20">
-        <f>C207*3</f>
+        <f t="shared" si="11"/>
         <v>5.61</v>
       </c>
       <c r="G207" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -6354,16 +6353,16 @@
         <v>2.8400000000000003</v>
       </c>
       <c r="D208" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>224.36</v>
       </c>
       <c r="E208" s="18"/>
       <c r="F208" s="20">
-        <f>C208*3</f>
+        <f t="shared" si="11"/>
         <v>8.5200000000000014</v>
       </c>
       <c r="G208" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -6378,16 +6377,16 @@
         <v>1.77</v>
       </c>
       <c r="D209" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>53.1</v>
       </c>
       <c r="E209" s="18"/>
       <c r="F209" s="20">
-        <f>C209*3</f>
+        <f t="shared" si="11"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="G209" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -6402,16 +6401,16 @@
         <v>1.6800000000000002</v>
       </c>
       <c r="D210" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>33.6</v>
       </c>
       <c r="E210" s="18"/>
       <c r="F210" s="20">
-        <f>C210*3</f>
+        <f t="shared" si="11"/>
         <v>5.0400000000000009</v>
       </c>
       <c r="G210" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -6426,16 +6425,16 @@
         <v>1.77</v>
       </c>
       <c r="D211" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>86.73</v>
       </c>
       <c r="E211" s="18"/>
       <c r="F211" s="20">
-        <f>C211*3</f>
+        <f t="shared" si="11"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="G211" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -6450,16 +6449,16 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D212" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>87.2</v>
       </c>
       <c r="E212" s="18"/>
       <c r="F212" s="20">
-        <f>C212*3</f>
+        <f t="shared" si="11"/>
         <v>6.5400000000000009</v>
       </c>
       <c r="G212" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -6474,16 +6473,16 @@
         <v>1.77</v>
       </c>
       <c r="D213" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>54.87</v>
       </c>
       <c r="E213" s="18"/>
       <c r="F213" s="20">
-        <f>C213*3</f>
+        <f t="shared" si="11"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="G213" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -6498,16 +6497,16 @@
         <v>3.1500000000000004</v>
       </c>
       <c r="D214" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>66.150000000000006</v>
       </c>
       <c r="E214" s="18"/>
       <c r="F214" s="20">
-        <f>C214*3</f>
+        <f t="shared" si="11"/>
         <v>9.4500000000000011</v>
       </c>
       <c r="G214" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -6522,16 +6521,16 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D215" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>80.41</v>
       </c>
       <c r="E215" s="18"/>
       <c r="F215" s="20">
-        <f>C215*3</f>
+        <f t="shared" si="11"/>
         <v>5.6099999999999994</v>
       </c>
       <c r="G215" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -6546,16 +6545,16 @@
         <v>2.84</v>
       </c>
       <c r="D216" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>133.47999999999999</v>
       </c>
       <c r="E216" s="18"/>
       <c r="F216" s="20">
-        <f>C216*3</f>
+        <f t="shared" si="11"/>
         <v>8.52</v>
       </c>
       <c r="G216" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -6570,16 +6569,16 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D217" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>381.5</v>
       </c>
       <c r="E217" s="18"/>
       <c r="F217" s="20">
-        <f>C217*3</f>
+        <f t="shared" si="11"/>
         <v>6.5400000000000009</v>
       </c>
       <c r="G217" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -6594,16 +6593,16 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D218" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>43.01</v>
       </c>
       <c r="E218" s="18"/>
       <c r="F218" s="20">
-        <f>C218*3</f>
+        <f t="shared" si="11"/>
         <v>5.6099999999999994</v>
       </c>
       <c r="G218" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -6618,16 +6617,16 @@
         <v>1.77</v>
       </c>
       <c r="D219" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>70.8</v>
       </c>
       <c r="E219" s="18"/>
       <c r="F219" s="20">
-        <f>C219*3</f>
+        <f t="shared" si="11"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="G219" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -6642,16 +6641,16 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D220" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>189.66000000000003</v>
       </c>
       <c r="E220" s="18"/>
       <c r="F220" s="20">
-        <f>C220*3</f>
+        <f t="shared" si="11"/>
         <v>6.5400000000000009</v>
       </c>
       <c r="G220" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -6666,16 +6665,16 @@
         <v>1.77</v>
       </c>
       <c r="D221" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>76.11</v>
       </c>
       <c r="E221" s="18"/>
       <c r="F221" s="20">
-        <f>C221*3</f>
+        <f t="shared" si="11"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="G221" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -6690,16 +6689,16 @@
         <v>3.49</v>
       </c>
       <c r="D222" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>104.7</v>
       </c>
       <c r="E222" s="18"/>
       <c r="F222" s="20">
-        <f>C222*3</f>
+        <f t="shared" si="11"/>
         <v>10.47</v>
       </c>
       <c r="G222" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -6714,16 +6713,16 @@
         <v>1.77</v>
       </c>
       <c r="D223" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>61.95</v>
       </c>
       <c r="E223" s="18"/>
       <c r="F223" s="20">
-        <f>C223*3</f>
+        <f t="shared" si="11"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="G223" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -6738,16 +6737,16 @@
         <v>1.87</v>
       </c>
       <c r="D224" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>106.59</v>
       </c>
       <c r="E224" s="18"/>
       <c r="F224" s="20">
-        <f>C224*3</f>
+        <f t="shared" si="11"/>
         <v>5.61</v>
       </c>
       <c r="G224" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -6762,16 +6761,16 @@
         <v>1.68</v>
       </c>
       <c r="D225" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>42</v>
       </c>
       <c r="E225" s="18"/>
       <c r="F225" s="20">
-        <f>C225*3</f>
+        <f t="shared" si="11"/>
         <v>5.04</v>
       </c>
       <c r="G225" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -6786,16 +6785,16 @@
         <v>1.87</v>
       </c>
       <c r="D226" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>44.88</v>
       </c>
       <c r="E226" s="18"/>
       <c r="F226" s="20">
-        <f>C226*3</f>
+        <f t="shared" si="11"/>
         <v>5.61</v>
       </c>
       <c r="G226" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -6810,16 +6809,16 @@
         <v>1.87</v>
       </c>
       <c r="D227" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>155.21</v>
       </c>
       <c r="E227" s="18"/>
       <c r="F227" s="20">
-        <f>C227*3</f>
+        <f t="shared" si="11"/>
         <v>5.61</v>
       </c>
       <c r="G227" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -6834,16 +6833,16 @@
         <v>2.8400000000000003</v>
       </c>
       <c r="D228" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>352.16</v>
       </c>
       <c r="E228" s="18"/>
       <c r="F228" s="20">
-        <f>C228*3</f>
+        <f t="shared" si="11"/>
         <v>8.5200000000000014</v>
       </c>
       <c r="G228" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -6858,16 +6857,16 @@
         <v>1.77</v>
       </c>
       <c r="D229" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>242.49</v>
       </c>
       <c r="E229" s="18"/>
       <c r="F229" s="20">
-        <f>C229*3</f>
+        <f t="shared" si="11"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="G229" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -6882,16 +6881,16 @@
         <v>2.1799999999999997</v>
       </c>
       <c r="D230" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>318.27999999999997</v>
       </c>
       <c r="E230" s="18"/>
       <c r="F230" s="20">
-        <f>C230*3</f>
+        <f t="shared" si="11"/>
         <v>6.5399999999999991</v>
       </c>
       <c r="G230" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -6906,16 +6905,16 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D231" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>63.58</v>
       </c>
       <c r="E231" s="18"/>
       <c r="F231" s="20">
-        <f>C231*3</f>
+        <f t="shared" si="11"/>
         <v>5.6099999999999994</v>
       </c>
       <c r="G231" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -6930,16 +6929,16 @@
         <v>1.77</v>
       </c>
       <c r="D232" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>35.4</v>
       </c>
       <c r="E232" s="18"/>
       <c r="F232" s="20">
-        <f>C232*3</f>
+        <f t="shared" si="11"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="G232" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -6954,16 +6953,16 @@
         <v>2.1799999999999997</v>
       </c>
       <c r="D233" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>303.02</v>
       </c>
       <c r="E233" s="18"/>
       <c r="F233" s="20">
-        <f>C233*3</f>
+        <f t="shared" si="11"/>
         <v>6.5399999999999991</v>
       </c>
       <c r="G233" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -6978,16 +6977,16 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D234" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>394.57</v>
       </c>
       <c r="E234" s="18"/>
       <c r="F234" s="20">
-        <f>C234*3</f>
+        <f t="shared" si="11"/>
         <v>5.6099999999999994</v>
       </c>
       <c r="G234" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -7002,16 +7001,16 @@
         <v>3.4899999999999998</v>
       </c>
       <c r="D235" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>69.8</v>
       </c>
       <c r="E235" s="18"/>
       <c r="F235" s="20">
-        <f>C235*3</f>
+        <f t="shared" si="11"/>
         <v>10.469999999999999</v>
       </c>
       <c r="G235" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -7026,16 +7025,16 @@
         <v>1.87</v>
       </c>
       <c r="D236" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>78.540000000000006</v>
       </c>
       <c r="E236" s="18"/>
       <c r="F236" s="20">
-        <f>C236*3</f>
+        <f t="shared" si="11"/>
         <v>5.61</v>
       </c>
       <c r="G236" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -7050,16 +7049,16 @@
         <v>2.84</v>
       </c>
       <c r="D237" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>284</v>
       </c>
       <c r="E237" s="18"/>
       <c r="F237" s="20">
-        <f>C237*3</f>
+        <f t="shared" si="11"/>
         <v>8.52</v>
       </c>
       <c r="G237" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -7074,16 +7073,16 @@
         <v>1.7700000000000002</v>
       </c>
       <c r="D238" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>67.260000000000005</v>
       </c>
       <c r="E238" s="18"/>
       <c r="F238" s="20">
-        <f>C238*3</f>
+        <f t="shared" si="11"/>
         <v>5.3100000000000005</v>
       </c>
       <c r="G238" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -7098,16 +7097,16 @@
         <v>3.49</v>
       </c>
       <c r="D239" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>87.25</v>
       </c>
       <c r="E239" s="18"/>
       <c r="F239" s="20">
-        <f>C239*3</f>
+        <f t="shared" si="11"/>
         <v>10.47</v>
       </c>
       <c r="G239" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -7122,16 +7121,16 @@
         <v>1.87</v>
       </c>
       <c r="D240" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>179.52</v>
       </c>
       <c r="E240" s="18"/>
       <c r="F240" s="20">
-        <f>C240*3</f>
+        <f t="shared" si="11"/>
         <v>5.61</v>
       </c>
       <c r="G240" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -7146,16 +7145,16 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D241" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>74.12</v>
       </c>
       <c r="E241" s="18"/>
       <c r="F241" s="20">
-        <f>C241*3</f>
+        <f t="shared" si="11"/>
         <v>6.5400000000000009</v>
       </c>
       <c r="G241" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -7170,16 +7169,16 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D242" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>458.15</v>
       </c>
       <c r="E242" s="18"/>
       <c r="F242" s="20">
-        <f>C242*3</f>
+        <f t="shared" si="11"/>
         <v>5.6099999999999994</v>
       </c>
       <c r="G242" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -7194,16 +7193,16 @@
         <v>3.49</v>
       </c>
       <c r="D243" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>104.7</v>
       </c>
       <c r="E243" s="18"/>
       <c r="F243" s="20">
-        <f>C243*3</f>
+        <f t="shared" si="11"/>
         <v>10.47</v>
       </c>
       <c r="G243" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -7218,16 +7217,16 @@
         <v>1.87</v>
       </c>
       <c r="D244" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>56.1</v>
       </c>
       <c r="E244" s="18"/>
       <c r="F244" s="20">
-        <f>C244*3</f>
+        <f t="shared" si="11"/>
         <v>5.61</v>
       </c>
       <c r="G244" s="28">
-        <f>units_sold_per_product</f>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -7242,21 +7241,18 @@
         <v>2.84</v>
       </c>
       <c r="D245" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>124.96</v>
       </c>
       <c r="E245" s="18"/>
       <c r="F245" s="20">
-        <f>C245*3</f>
+        <f t="shared" si="11"/>
         <v>8.52</v>
       </c>
       <c r="G245" s="28">
-        <f>units_sold_per_product</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A249" s="33"/>
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Semester-2/Data-and-Machine-Learning/Assessments/AT1-OptimisingPrice-Presentation/AssessmentTask01_presentation.xlsx
+++ b/Semester-2/Data-and-Machine-Learning/Assessments/AT1-OptimisingPrice-Presentation/AssessmentTask01_presentation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\TAFE\Dual-Diploma-2024\Semester-2\Data-and-Machine-Learning\Assessments\AT1-OptimisingPrice-Presentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D976122-4454-4474-B7C7-0C9C1E1B30B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D61DBA6-D833-4C4A-A4D2-135C8CD698C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Task 1" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="57">
   <si>
     <t>Product</t>
   </si>
@@ -246,6 +246,15 @@
   <si>
     <t>TotalCost</t>
   </si>
+  <si>
+    <t>KnownSales</t>
+  </si>
+  <si>
+    <t>LinearInterpolation</t>
+  </si>
+  <si>
+    <t>ForcastLinearInterpolation</t>
+  </si>
 </sst>
 </file>
 
@@ -257,7 +266,7 @@
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,6 +299,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -377,7 +393,7 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -421,6 +437,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -538,6 +555,3714 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="metal"/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>'Task 2 &amp; 3'!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7754-4229-A7D6-563DCA544ABE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>'Task 2 &amp; 3'!$B$2:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>908</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>140</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7754-4229-A7D6-563DCA544ABE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>'Task 2 &amp; 3'!$C$2:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>908</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>601</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>469</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>140</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7754-4229-A7D6-563DCA544ABE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>'Task 2 &amp; 3'!$D$2:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>959</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>876</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>835</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>751</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>668</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>627</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>502</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000016-7754-4229-A7D6-563DCA544ABE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1034529168"/>
+        <c:axId val="1278175440"/>
+        <c:axId val="842463759"/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="1034529168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1278175440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1278175440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1034529168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="842463759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1278175440"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="0"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:softEdge rad="38100"/>
+        </a:effectLst>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 2 &amp; 3'!$C$2:$C$22</c:f>
+              <c:strCache>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>908</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>601</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>469</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>140</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-83DB-47D6-BC03-878FC4272E24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="853589087"/>
+        <c:axId val="853586687"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="853589087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="853586687"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="853586687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="853589087"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 2 &amp; 3'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KnownSales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Task 2 &amp; 3'!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Task 2 &amp; 3'!$B$2:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>908</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>140</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-40E6-49AF-83D9-6EA40AE0C1A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 2 &amp; 3'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LinearInterpolation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Task 2 &amp; 3'!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Task 2 &amp; 3'!$C$2:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>908</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>601</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>469</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>140</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-40E6-49AF-83D9-6EA40AE0C1A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 2 &amp; 3'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ForcastLinearInterpolation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Task 2 &amp; 3'!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Task 2 &amp; 3'!$D$2:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>959</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>876</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>835</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>751</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>668</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>627</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>502</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-40E6-49AF-83D9-6EA40AE0C1A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1514635344"/>
+        <c:axId val="1514636304"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1514635344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="320"/>
+          <c:min val="80"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1514636304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="20"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1514636304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1514635344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="50"/>
+        <c:minorUnit val="25"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="307">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>465042</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>124385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>246528</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18DCC359-3908-F7F5-34E2-CBFD1FA80D96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1075765</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>68355</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>144555</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7961BDB8-0E03-F43D-3D6A-C388CAFB47F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>117763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>8659</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>3463</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CF8D0B7-017F-A506-5C20-2C4A7B97BB41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -936,7 +4661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
@@ -7269,58 +10994,97 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q44" sqref="Q44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>100</v>
       </c>
       <c r="B2">
         <v>1000</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="33">
+        <f>ROUND(_xlfn.FORECAST.LINEAR(A2, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <v>959</v>
+      </c>
+      <c r="G2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>110</v>
       </c>
       <c r="B3">
         <v>920</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>920</v>
+      </c>
+      <c r="D3" s="33">
+        <f>ROUND(_xlfn.FORECAST.LINEAR(A3, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <v>918</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>120</v>
       </c>
       <c r="B4">
         <v>908</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>908</v>
+      </c>
+      <c r="D4" s="33">
+        <f>ROUND(_xlfn.FORECAST.LINEAR(A4, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <v>876</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>130</v>
       </c>
       <c r="B5">
         <v>830</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>830</v>
+      </c>
+      <c r="D5" s="33">
+        <f>ROUND(_xlfn.FORECAST.LINEAR(A5, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <v>835</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>140</v>
       </c>
@@ -7328,8 +11092,17 @@
         <f>830-(A6-130)*(830-630)/(170-130)</f>
         <v>780</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="8">
+        <f>ROUND(B$5-(A6-A$5)*(B$5-B$9)/(A$9-A$5), 0)</f>
+        <v>780</v>
+      </c>
+      <c r="D6" s="33">
+        <f>ROUND(_xlfn.FORECAST.LINEAR(A6, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <v>793</v>
+      </c>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>150</v>
       </c>
@@ -7337,8 +11110,17 @@
         <f>830-(A7-130)*(830-630)/(170-130)</f>
         <v>730</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="8">
+        <f>ROUND(B$5-(A7-A$5)*(B$5-B$9)/(A$9-A$5), 0)</f>
+        <v>730</v>
+      </c>
+      <c r="D7" s="33">
+        <f>ROUND(_xlfn.FORECAST.LINEAR(A7, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <v>751</v>
+      </c>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>160</v>
       </c>
@@ -7346,97 +11128,328 @@
         <f>830-(A8-130)*(830-630)/(170-130)</f>
         <v>680</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="8">
+        <f>ROUND(B$5-(A8-A$5)*(B$5-B$9)/(A$9-A$5), 0)</f>
+        <v>680</v>
+      </c>
+      <c r="D8" s="33">
+        <f>ROUND(_xlfn.FORECAST.LINEAR(A8, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <v>710</v>
+      </c>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>170</v>
       </c>
       <c r="B9">
         <v>630</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>630</v>
+      </c>
+      <c r="D9" s="33">
+        <f>ROUND(_xlfn.FORECAST.LINEAR(A9, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <v>668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>180</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="8">
+        <f>ROUND($B$9-(A10-$A$9)*($B$9-$B$13)/($A$13-$A$9), 0)</f>
+        <v>601</v>
+      </c>
+      <c r="D10" s="33">
+        <f>ROUND(_xlfn.FORECAST.LINEAR(A10, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <v>627</v>
+      </c>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>190</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="8">
+        <f t="shared" ref="C11:C12" si="0">ROUND($B$9-(A11-$A$9)*($B$9-$B$13)/($A$13-$A$9), 0)</f>
+        <v>573</v>
+      </c>
+      <c r="D11" s="33">
+        <f>ROUND(_xlfn.FORECAST.LINEAR(A11, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <v>585</v>
+      </c>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>200</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="8">
+        <f t="shared" si="0"/>
+        <v>544</v>
+      </c>
+      <c r="D12" s="33">
+        <f>ROUND(_xlfn.FORECAST.LINEAR(A12, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <v>544</v>
+      </c>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>210</v>
       </c>
       <c r="B13">
         <v>515</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>515</v>
+      </c>
+      <c r="D13" s="33">
+        <f>ROUND(_xlfn.FORECAST.LINEAR(A13, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <v>502</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>220</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="8">
+        <f>ROUND($B$13-(A14-$A$13)*($B$13-$B$17)/($A$17-$A$13), 0)</f>
+        <v>469</v>
+      </c>
+      <c r="D14" s="33">
+        <f>ROUND(_xlfn.FORECAST.LINEAR(A14, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <v>461</v>
+      </c>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>230</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="8">
+        <f t="shared" ref="C15:C16" si="1">ROUND($B$13-(A15-$A$13)*($B$13-$B$17)/($A$17-$A$13), 0)</f>
+        <v>423</v>
+      </c>
+      <c r="D15" s="33">
+        <f>ROUND(_xlfn.FORECAST.LINEAR(A15, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <v>419</v>
+      </c>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>240</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="8">
+        <f t="shared" si="1"/>
+        <v>376</v>
+      </c>
+      <c r="D16" s="33">
+        <f>ROUND(_xlfn.FORECAST.LINEAR(A16, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <v>378</v>
+      </c>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>250</v>
       </c>
       <c r="B17">
         <v>330</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>330</v>
+      </c>
+      <c r="D17" s="33">
+        <f>ROUND(_xlfn.FORECAST.LINEAR(A17, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>260</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="8">
+        <f>ROUND($B$17-(A18-$A$17)*($B$17-$B$20)/($A$20-$A$17), 0)</f>
+        <v>288</v>
+      </c>
+      <c r="D18" s="33">
+        <f>ROUND(_xlfn.FORECAST.LINEAR(A18, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <v>294</v>
+      </c>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>270</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="8">
+        <f>ROUND($B$17-(A19-$A$17)*($B$17-$B$20)/($A$20-$A$17), 0)</f>
+        <v>247</v>
+      </c>
+      <c r="D19" s="33">
+        <f>ROUND(_xlfn.FORECAST.LINEAR(A19, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <v>253</v>
+      </c>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>280</v>
       </c>
       <c r="B20">
         <v>205</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>205</v>
+      </c>
+      <c r="D20" s="33">
+        <f>ROUND(_xlfn.FORECAST.LINEAR(A20, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>290</v>
       </c>
       <c r="B21">
         <v>190</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>190</v>
+      </c>
+      <c r="D21" s="33">
+        <f>ROUND(_xlfn.FORECAST.LINEAR(A21, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>300</v>
       </c>
       <c r="B22">
         <v>140</v>
       </c>
+      <c r="C22">
+        <v>140</v>
+      </c>
+      <c r="D22" s="33">
+        <f>ROUND(_xlfn.FORECAST.LINEAR(A22, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>100</v>
+      </c>
+      <c r="E26">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>110</v>
+      </c>
+      <c r="E27">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>120</v>
+      </c>
+      <c r="E28">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>130</v>
+      </c>
+      <c r="E29">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>140</v>
+      </c>
+      <c r="E30" s="12">
+        <f>830-(D30-130)*(830-630)/(170-130)</f>
+        <v>780</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>150</v>
+      </c>
+      <c r="E31" s="12">
+        <f>830-(D31-130)*(830-630)/(170-130)</f>
+        <v>730</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>160</v>
+      </c>
+      <c r="E32" s="12">
+        <f>830-(D32-130)*(830-630)/(170-130)</f>
+        <v>680</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>170</v>
+      </c>
+      <c r="E33">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>210</v>
+      </c>
+      <c r="E34">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>250</v>
+      </c>
+      <c r="E35">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>280</v>
+      </c>
+      <c r="E36">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>290</v>
+      </c>
+      <c r="E37">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>300</v>
+      </c>
+      <c r="E38">
+        <v>140</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Semester-2/Data-and-Machine-Learning/Assessments/AT1-OptimisingPrice-Presentation/AssessmentTask01_presentation.xlsx
+++ b/Semester-2/Data-and-Machine-Learning/Assessments/AT1-OptimisingPrice-Presentation/AssessmentTask01_presentation.xlsx
@@ -8,20 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\TAFE\Dual-Diploma-2024\Semester-2\Data-and-Machine-Learning\Assessments\AT1-OptimisingPrice-Presentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D61DBA6-D833-4C4A-A4D2-135C8CD698C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34184DB1-54BE-41B9-97D2-845B141BC497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Task 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Task 2 &amp; 3" sheetId="2" r:id="rId2"/>
-    <sheet name="Task 4" sheetId="3" r:id="rId3"/>
+    <sheet name="Task 2 &amp; 3" sheetId="6" r:id="rId2"/>
+    <sheet name="Task 2 &amp; 3old" sheetId="2" r:id="rId3"/>
+    <sheet name="Task 4" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="PurchaceQuantity">'Task 1'!$B:$B</definedName>
     <definedName name="Quantity">'Task 1'!$B$1</definedName>
     <definedName name="RetailUnitPrice">'Task 1'!$F:$F</definedName>
     <definedName name="TotalPrice">'Task 1'!$D:$D</definedName>
+    <definedName name="TotalUnits" localSheetId="1">Table3[TotalUnits]</definedName>
     <definedName name="TotalUnits">Table3[TotalUnits]</definedName>
     <definedName name="UnitPrice">'Task 1'!$C:$C</definedName>
     <definedName name="UnitPurchacePrice">'Task 1'!$C:$C</definedName>
@@ -83,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="56">
   <si>
     <t>Product</t>
   </si>
@@ -245,9 +247,6 @@
   </si>
   <si>
     <t>TotalCost</t>
-  </si>
-  <si>
-    <t>KnownSales</t>
   </si>
   <si>
     <t>LinearInterpolation</t>
@@ -737,6 +736,1876 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4893-4346-9C77-5179A5BAD40B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>'Task 2 &amp; 3'!$B$2:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>908</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>140</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4893-4346-9C77-5179A5BAD40B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>'Task 2 &amp; 3'!$C$2:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>908</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>601</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>469</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>140</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4893-4346-9C77-5179A5BAD40B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>'Task 2 &amp; 3'!$D$2:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>959</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>876</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>835</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>751</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>668</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>627</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>502</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4893-4346-9C77-5179A5BAD40B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1034529168"/>
+        <c:axId val="1278175440"/>
+        <c:axId val="842463759"/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="1034529168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1278175440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1278175440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1034529168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="842463759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1278175440"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="0"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:softEdge rad="38100"/>
+        </a:effectLst>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 2 &amp; 3'!$C$2:$C$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000 920 908 830 780 730 680 630 601 573 544 515 469 423 376 330 288 247 205 190 140</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-42AB-4567-9D16-98A1B4F1011A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="853589087"/>
+        <c:axId val="853586687"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="853589087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="853586687"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="853586687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="853589087"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 2 &amp; 3'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Task 2 &amp; 3'!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Task 2 &amp; 3'!$B$2:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>908</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>140</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-68F4-474D-8565-5E551F800107}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 2 &amp; 3'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LinearInterpolation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Task 2 &amp; 3'!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Task 2 &amp; 3'!$C$2:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>908</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>601</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>469</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>140</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-68F4-474D-8565-5E551F800107}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Task 2 &amp; 3'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ForcastLinearInterpolation</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Task 2 &amp; 3'!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Task 2 &amp; 3'!$D$2:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>959</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>876</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>835</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>751</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>668</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>627</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>502</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>461</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-68F4-474D-8565-5E551F800107}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1514635344"/>
+        <c:axId val="1514636304"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1514635344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="320"/>
+          <c:min val="80"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1514636304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="20"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1514636304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1514635344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="50"/>
+        <c:minorUnit val="25"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+            <a:sp3d prstMaterial="metal"/>
+          </c:spPr>
+          <c:val>
+            <c:numRef>
+              <c:f>'Task 2 &amp; 3old'!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7754-4229-A7D6-563DCA544ABE}"/>
             </c:ext>
           </c:extLst>
@@ -756,7 +2625,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Task 2 &amp; 3'!$B$2:$B$22</c:f>
+              <c:f>'Task 2 &amp; 3old'!$B$2:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -824,7 +2693,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Task 2 &amp; 3'!$C$2:$C$22</c:f>
+              <c:f>'Task 2 &amp; 3old'!$C$2:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -918,7 +2787,7 @@
           </c:spPr>
           <c:val>
             <c:numRef>
-              <c:f>'Task 2 &amp; 3'!$D$2:$D$22</c:f>
+              <c:f>'Task 2 &amp; 3old'!$D$2:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1367,7 +3236,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1422,7 +3291,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Task 2 &amp; 3'!$C$2:$C$22</c:f>
+              <c:f>'Task 2 &amp; 3old'!$C$2:$C$22</c:f>
               <c:strCache>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
@@ -1676,7 +3545,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1731,11 +3600,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Task 2 &amp; 3'!$B$1</c:f>
+              <c:f>'Task 2 &amp; 3old'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>KnownSales</c:v>
+                  <c:v>Sales</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1754,7 +3623,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Task 2 &amp; 3'!$A$2:$A$22</c:f>
+              <c:f>'Task 2 &amp; 3old'!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1826,7 +3695,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Task 2 &amp; 3'!$B$2:$B$22</c:f>
+              <c:f>'Task 2 &amp; 3old'!$B$2:$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1884,7 +3753,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Task 2 &amp; 3'!$C$1</c:f>
+              <c:f>'Task 2 &amp; 3old'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1907,7 +3776,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Task 2 &amp; 3'!$A$2:$A$22</c:f>
+              <c:f>'Task 2 &amp; 3old'!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1979,7 +3848,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Task 2 &amp; 3'!$C$2:$C$22</c:f>
+              <c:f>'Task 2 &amp; 3old'!$C$2:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2061,7 +3930,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Task 2 &amp; 3'!$D$1</c:f>
+              <c:f>'Task 2 &amp; 3old'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2084,7 +3953,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Task 2 &amp; 3'!$A$2:$A$22</c:f>
+              <c:f>'Task 2 &amp; 3old'!$A$2:$A$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2156,7 +4025,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Task 2 &amp; 3'!$D$2:$D$22</c:f>
+              <c:f>'Task 2 &amp; 3old'!$D$2:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -2487,6 +4356,581 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Field3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:tint val="88500"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="20"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="88900" cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="57150" cap="rnd" cmpd="sng">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="53975" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:softEdge rad="0"/>
+              </a:effectLst>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Task 2 &amp; 3old'!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Task 2 &amp; 3old'!$C$2:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>908</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>601</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>469</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>140</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A69F-4999-B725-E27426C5A044}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1002224336"/>
+        <c:axId val="1002226736"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1002224336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="310"/>
+          <c:min val="90"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:alpha val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln cap="rnd" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:bevel/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Price ($)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1002226736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1002226736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Sales (units)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1002224336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="accent5"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="2400">
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
@@ -2604,6 +5048,150 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="307">
   <cs:axisTitle>
@@ -4152,7 +6740,2209 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="307">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="247">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" spc="100" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr"/>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="22225">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="79000">
+              <a:schemeClr val="phClr"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:alpha val="60000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:tint val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>465042</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>124385</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>246528</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE92D66A-F125-46B3-B55B-518A06E0A0F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1075765</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>68355</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>144555</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A73E221-91A1-48F1-ADA2-2F1DBDCDE30B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>117763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>8659</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>3463</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E36EA74-8ECA-4794-94FC-326F29BEF04F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4257,6 +9047,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>642938</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>75766</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>166686</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9" descr="Chart type: Scatter. Field: Field1 and Field: Field3 appear highly correlated.&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{566961CF-1C49-5F1D-1790-1577507CC8BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4661,8 +9487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S245"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10993,11 +15819,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{558EC54B-5876-4CB7-8871-7D9F2D95160F}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q44" sqref="Q44"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11012,13 +15838,13 @@
         <v>25</v>
       </c>
       <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>55</v>
-      </c>
-      <c r="D1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -11172,7 +15998,7 @@
         <v>190</v>
       </c>
       <c r="C11" s="8">
-        <f t="shared" ref="C11:C12" si="0">ROUND($B$9-(A11-$A$9)*($B$9-$B$13)/($A$13-$A$9), 0)</f>
+        <f>ROUND($B$9-(A11-$A$9)*($B$9-$B$13)/($A$13-$A$9), 0)</f>
         <v>573</v>
       </c>
       <c r="D11" s="33">
@@ -11186,7 +16012,7 @@
         <v>200</v>
       </c>
       <c r="C12" s="8">
-        <f t="shared" si="0"/>
+        <f>ROUND($B$9-(A12-$A$9)*($B$9-$B$13)/($A$13-$A$9), 0)</f>
         <v>544</v>
       </c>
       <c r="D12" s="33">
@@ -11229,7 +16055,7 @@
         <v>230</v>
       </c>
       <c r="C15" s="8">
-        <f t="shared" ref="C15:C16" si="1">ROUND($B$13-(A15-$A$13)*($B$13-$B$17)/($A$17-$A$13), 0)</f>
+        <f>ROUND($B$13-(A15-$A$13)*($B$13-$B$17)/($A$17-$A$13), 0)</f>
         <v>423</v>
       </c>
       <c r="D15" s="33">
@@ -11243,7 +16069,7 @@
         <v>240</v>
       </c>
       <c r="C16" s="8">
-        <f t="shared" si="1"/>
+        <f>ROUND($B$13-(A16-$A$13)*($B$13-$B$17)/($A$17-$A$13), 0)</f>
         <v>376</v>
       </c>
       <c r="D16" s="33">
@@ -11454,6 +16280,467 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView topLeftCell="C16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+      <c r="C2">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="33">
+        <f>ROUND(_xlfn.FORECAST.LINEAR(A2, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <v>959</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>110</v>
+      </c>
+      <c r="B3">
+        <v>920</v>
+      </c>
+      <c r="C3">
+        <v>920</v>
+      </c>
+      <c r="D3" s="33">
+        <f>ROUND(_xlfn.FORECAST.LINEAR(A3, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <v>918</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>120</v>
+      </c>
+      <c r="B4">
+        <v>908</v>
+      </c>
+      <c r="C4">
+        <v>908</v>
+      </c>
+      <c r="D4" s="33">
+        <f>ROUND(_xlfn.FORECAST.LINEAR(A4, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <v>876</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>130</v>
+      </c>
+      <c r="B5">
+        <v>830</v>
+      </c>
+      <c r="C5">
+        <v>830</v>
+      </c>
+      <c r="D5" s="33">
+        <f>ROUND(_xlfn.FORECAST.LINEAR(A5, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <v>835</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>140</v>
+      </c>
+      <c r="B6" s="12">
+        <f>830-(A6-130)*(830-630)/(170-130)</f>
+        <v>780</v>
+      </c>
+      <c r="C6" s="8">
+        <f>ROUND(B$5-(A6-A$5)*(B$5-B$9)/(A$9-A$5), 0)</f>
+        <v>780</v>
+      </c>
+      <c r="D6" s="33">
+        <f>ROUND(_xlfn.FORECAST.LINEAR(A6, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <v>793</v>
+      </c>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>150</v>
+      </c>
+      <c r="B7" s="12">
+        <f>830-(A7-130)*(830-630)/(170-130)</f>
+        <v>730</v>
+      </c>
+      <c r="C7" s="8">
+        <f>ROUND(B$5-(A7-A$5)*(B$5-B$9)/(A$9-A$5), 0)</f>
+        <v>730</v>
+      </c>
+      <c r="D7" s="33">
+        <f>ROUND(_xlfn.FORECAST.LINEAR(A7, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <v>751</v>
+      </c>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>160</v>
+      </c>
+      <c r="B8" s="12">
+        <f>830-(A8-130)*(830-630)/(170-130)</f>
+        <v>680</v>
+      </c>
+      <c r="C8" s="8">
+        <f>ROUND(B$5-(A8-A$5)*(B$5-B$9)/(A$9-A$5), 0)</f>
+        <v>680</v>
+      </c>
+      <c r="D8" s="33">
+        <f>ROUND(_xlfn.FORECAST.LINEAR(A8, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <v>710</v>
+      </c>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>170</v>
+      </c>
+      <c r="B9">
+        <v>630</v>
+      </c>
+      <c r="C9">
+        <v>630</v>
+      </c>
+      <c r="D9" s="33">
+        <f>ROUND(_xlfn.FORECAST.LINEAR(A9, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <v>668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>180</v>
+      </c>
+      <c r="C10" s="8">
+        <f>ROUND($B$9-(A10-$A$9)*($B$9-$B$13)/($A$13-$A$9), 0)</f>
+        <v>601</v>
+      </c>
+      <c r="D10" s="33">
+        <f>ROUND(_xlfn.FORECAST.LINEAR(A10, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <v>627</v>
+      </c>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>190</v>
+      </c>
+      <c r="C11" s="8">
+        <f>ROUND($B$9-(A11-$A$9)*($B$9-$B$13)/($A$13-$A$9), 0)</f>
+        <v>573</v>
+      </c>
+      <c r="D11" s="33">
+        <f>ROUND(_xlfn.FORECAST.LINEAR(A11, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <v>585</v>
+      </c>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>200</v>
+      </c>
+      <c r="C12" s="8">
+        <f>ROUND($B$9-(A12-$A$9)*($B$9-$B$13)/($A$13-$A$9), 0)</f>
+        <v>544</v>
+      </c>
+      <c r="D12" s="33">
+        <f>ROUND(_xlfn.FORECAST.LINEAR(A12, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <v>544</v>
+      </c>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>210</v>
+      </c>
+      <c r="B13">
+        <v>515</v>
+      </c>
+      <c r="C13">
+        <v>515</v>
+      </c>
+      <c r="D13" s="33">
+        <f>ROUND(_xlfn.FORECAST.LINEAR(A13, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <v>502</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>220</v>
+      </c>
+      <c r="C14" s="8">
+        <f>ROUND($B$13-(A14-$A$13)*($B$13-$B$17)/($A$17-$A$13), 0)</f>
+        <v>469</v>
+      </c>
+      <c r="D14" s="33">
+        <f>ROUND(_xlfn.FORECAST.LINEAR(A14, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <v>461</v>
+      </c>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>230</v>
+      </c>
+      <c r="C15" s="8">
+        <f>ROUND($B$13-(A15-$A$13)*($B$13-$B$17)/($A$17-$A$13), 0)</f>
+        <v>423</v>
+      </c>
+      <c r="D15" s="33">
+        <f>ROUND(_xlfn.FORECAST.LINEAR(A15, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <v>419</v>
+      </c>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>240</v>
+      </c>
+      <c r="C16" s="8">
+        <f>ROUND($B$13-(A16-$A$13)*($B$13-$B$17)/($A$17-$A$13), 0)</f>
+        <v>376</v>
+      </c>
+      <c r="D16" s="33">
+        <f>ROUND(_xlfn.FORECAST.LINEAR(A16, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <v>378</v>
+      </c>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>250</v>
+      </c>
+      <c r="B17">
+        <v>330</v>
+      </c>
+      <c r="C17">
+        <v>330</v>
+      </c>
+      <c r="D17" s="33">
+        <f>ROUND(_xlfn.FORECAST.LINEAR(A17, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>260</v>
+      </c>
+      <c r="C18" s="8">
+        <f>ROUND($B$17-(A18-$A$17)*($B$17-$B$20)/($A$20-$A$17), 0)</f>
+        <v>288</v>
+      </c>
+      <c r="D18" s="33">
+        <f>ROUND(_xlfn.FORECAST.LINEAR(A18, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <v>294</v>
+      </c>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>270</v>
+      </c>
+      <c r="C19" s="8">
+        <f>ROUND($B$17-(A19-$A$17)*($B$17-$B$20)/($A$20-$A$17), 0)</f>
+        <v>247</v>
+      </c>
+      <c r="D19" s="33">
+        <f>ROUND(_xlfn.FORECAST.LINEAR(A19, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <v>253</v>
+      </c>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>280</v>
+      </c>
+      <c r="B20">
+        <v>205</v>
+      </c>
+      <c r="C20">
+        <v>205</v>
+      </c>
+      <c r="D20" s="33">
+        <f>ROUND(_xlfn.FORECAST.LINEAR(A20, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>290</v>
+      </c>
+      <c r="B21">
+        <v>190</v>
+      </c>
+      <c r="C21">
+        <v>190</v>
+      </c>
+      <c r="D21" s="33">
+        <f>ROUND(_xlfn.FORECAST.LINEAR(A21, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>300</v>
+      </c>
+      <c r="B22">
+        <v>140</v>
+      </c>
+      <c r="C22">
+        <v>140</v>
+      </c>
+      <c r="D22" s="33">
+        <f>ROUND(_xlfn.FORECAST.LINEAR(A22, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>100</v>
+      </c>
+      <c r="E26">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>110</v>
+      </c>
+      <c r="E27">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>120</v>
+      </c>
+      <c r="E28">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>130</v>
+      </c>
+      <c r="E29">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>140</v>
+      </c>
+      <c r="E30" s="12">
+        <f>830-(D30-130)*(830-630)/(170-130)</f>
+        <v>780</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>150</v>
+      </c>
+      <c r="E31" s="12">
+        <f>830-(D31-130)*(830-630)/(170-130)</f>
+        <v>730</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>160</v>
+      </c>
+      <c r="E32" s="12">
+        <f>830-(D32-130)*(830-630)/(170-130)</f>
+        <v>680</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>170</v>
+      </c>
+      <c r="E33">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>210</v>
+      </c>
+      <c r="E34">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>250</v>
+      </c>
+      <c r="E35">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>280</v>
+      </c>
+      <c r="E36">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>290</v>
+      </c>
+      <c r="E37">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>300</v>
+      </c>
+      <c r="E38">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>

--- a/Semester-2/Data-and-Machine-Learning/Assessments/AT1-OptimisingPrice-Presentation/AssessmentTask01_presentation.xlsx
+++ b/Semester-2/Data-and-Machine-Learning/Assessments/AT1-OptimisingPrice-Presentation/AssessmentTask01_presentation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\TAFE\Dual-Diploma-2024\Semester-2\Data-and-Machine-Learning\Assessments\AT1-OptimisingPrice-Presentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34184DB1-54BE-41B9-97D2-845B141BC497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B82ED2-C75C-4D2A-8FB4-38CAE830B4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
     <definedName name="UnitPrice">'Task 1'!$C:$C</definedName>
     <definedName name="UnitPurchacePrice">'Task 1'!$C:$C</definedName>
     <definedName name="Units_Sold">'Task 1'!$G:$G</definedName>
-    <definedName name="units_sold_per_product">'Task 1'!$S$12</definedName>
+    <definedName name="units_sold_per_product">'Task 1'!$T$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="57">
   <si>
     <t>Product</t>
   </si>
@@ -254,6 +254,9 @@
   <si>
     <t>ForcastLinearInterpolation</t>
   </si>
+  <si>
+    <t>PricePerUnit</t>
+  </si>
 </sst>
 </file>
 
@@ -265,7 +268,7 @@
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,6 +308,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -392,7 +401,7 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -437,13 +446,25 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
@@ -508,12 +529,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -3060,7 +3075,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -3293,69 +3308,9 @@
             <c:strRef>
               <c:f>'Task 2 &amp; 3old'!$C$2:$C$22</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>920</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>908</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>830</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>780</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>730</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>680</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>630</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>601</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>573</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>544</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>515</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>469</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>423</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>376</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>288</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>247</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>140</c:v>
+                  <c:v>1000 920 908 830 780 730 680 630 601 573 544 515 469 423 376 330 288 247 205 190 140</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4597,7 +4552,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -9154,26 +9108,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{53973AEC-E9E3-4471-A7E3-D5F42B40A02A}" name="Table3" displayName="Table3" ref="J3:P13" totalsRowShown="0" headerRowDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="J3:P13" xr:uid="{53973AEC-E9E3-4471-A7E3-D5F42B40A02A}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{53973AEC-E9E3-4471-A7E3-D5F42B40A02A}" name="Table3" displayName="Table3" ref="J3:Q13" totalsRowShown="0" headerRowDxfId="12" tableBorderDxfId="11">
+  <autoFilter ref="J3:Q13" xr:uid="{53973AEC-E9E3-4471-A7E3-D5F42B40A02A}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{04180E76-32F2-4955-AC93-E04E4793C8D9}" name="Product"/>
-    <tableColumn id="2" xr3:uid="{468ED6E1-71CB-4BE4-AB1A-E75CB755288D}" name="TotalUnits" dataDxfId="9">
+    <tableColumn id="2" xr3:uid="{468ED6E1-71CB-4BE4-AB1A-E75CB755288D}" name="TotalUnits" dataDxfId="1">
       <calculatedColumnFormula>SUMIF(A2:A245, J4, B2:B245)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{04386D9B-9882-432A-99E1-9EB7BF8FD18A}" name="PurchacePrice" dataDxfId="8">
+    <tableColumn id="15" xr3:uid="{5B0A306A-BCB8-4CDB-BED3-A9F8D67276A6}" name="PricePerUnit" dataDxfId="0">
+      <calculatedColumnFormula>VLOOKUP(Table3[[#This Row],[Product]], A:C, 3, FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{04386D9B-9882-432A-99E1-9EB7BF8FD18A}" name="PurchacePrice" dataDxfId="2">
       <calculatedColumnFormula>SUMIF(A2:A245, Table3[[#This Row],[Product]], D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8AF79FAB-FD53-4C64-8A20-A39D623B2118}" name="UnitsSold" dataDxfId="7">
+    <tableColumn id="4" xr3:uid="{8AF79FAB-FD53-4C64-8A20-A39D623B2118}" name="UnitsSold" dataDxfId="10">
       <calculatedColumnFormula>units_sold_per_product</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{21944251-D615-469A-AC73-C721D2A0B40C}" name="SalesIncome" dataDxfId="6">
+    <tableColumn id="5" xr3:uid="{21944251-D615-469A-AC73-C721D2A0B40C}" name="SalesIncome" dataDxfId="9">
       <calculatedColumnFormula>Table3[[#This Row],[UnitsSold]]*F2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{4E018A35-8C5D-4677-A964-D154CF6E2AAB}" name="StockPercentageSold" dataDxfId="5" dataCellStyle="Percent">
+    <tableColumn id="6" xr3:uid="{4E018A35-8C5D-4677-A964-D154CF6E2AAB}" name="StockPercentageSold" dataDxfId="8" dataCellStyle="Percent">
       <calculatedColumnFormula>(Table3[[#This Row],[UnitsSold]]/Table3[[#This Row],[TotalUnits]])*100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{641F3081-9379-4CE9-9F09-CF0D6485A03D}" name="Remaining Stock" dataDxfId="4">
+    <tableColumn id="7" xr3:uid="{641F3081-9379-4CE9-9F09-CF0D6485A03D}" name="Remaining Stock" dataDxfId="7">
       <calculatedColumnFormula>100-Table3[[#This Row],[StockPercentageSold]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9185,13 +9142,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D007CCC8-6B19-43D6-BD04-E60924EC0CB4}" name="Table6" displayName="Table6" ref="I23:L26" totalsRowShown="0">
   <autoFilter ref="I23:L26" xr:uid="{D007CCC8-6B19-43D6-BD04-E60924EC0CB4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D238210E-7B6C-4F9D-8CD2-C938858FFFC4}" name="Process" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{DD0FADBA-10AD-47D2-844D-9652C35FA408}" name="TotalCost" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{038AD9B9-A3F0-444A-94F5-ED7D5885F0A8}" name="Single Unit Contribution" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{D238210E-7B6C-4F9D-8CD2-C938858FFFC4}" name="Process" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{DD0FADBA-10AD-47D2-844D-9652C35FA408}" name="TotalCost" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{038AD9B9-A3F0-444A-94F5-ED7D5885F0A8}" name="Single Unit Contribution" dataDxfId="4">
       <calculatedColumnFormula>Table6[[#This Row],[TotalCost]]/K$13</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{AFF3AF5B-92BE-45EE-86F9-43A4C69C32AD}" name="VariableCostsForSales" dataDxfId="0">
-      <calculatedColumnFormula>Table6[[#This Row],[Single Unit Contribution]]*M$13</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{AFF3AF5B-92BE-45EE-86F9-43A4C69C32AD}" name="VariableCostsForSales" dataDxfId="3">
+      <calculatedColumnFormula>Table6[[#This Row],[Single Unit Contribution]]*N$13</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -9485,10 +9442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S245"/>
+  <dimension ref="A1:T245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9512,7 +9469,7 @@
     <col min="19" max="19" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9536,7 +9493,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -9569,7 +9526,7 @@
       <c r="L2"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -9598,23 +9555,26 @@
       <c r="K3" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="30" t="s">
+      <c r="N3" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="Q3" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -9640,32 +9600,36 @@
       <c r="J4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="28">
         <f>SUMIF(A2:A245, J4, B2:B245)</f>
         <v>4187</v>
       </c>
       <c r="L4" s="20">
-        <f ca="1">SUMIF(A2:A245, Table3[[#This Row],[Product]], D2)</f>
-        <v>7410.9900000000007</v>
-      </c>
-      <c r="M4" s="28">
-        <f t="shared" ref="M4:M12" si="3">units_sold_per_product</f>
-        <v>100</v>
-      </c>
-      <c r="N4" s="20">
+        <f>VLOOKUP(Table3[[#This Row],[Product]], A:C, 3, FALSE)</f>
+        <v>1.7699999999999998</v>
+      </c>
+      <c r="M4" s="20">
+        <f>Table3[[#This Row],[TotalUnits]]*Table3[[#This Row],[PricePerUnit]]</f>
+        <v>7410.9899999999989</v>
+      </c>
+      <c r="N4" s="28">
+        <f t="shared" ref="N4:N12" si="3">units_sold_per_product</f>
+        <v>100</v>
+      </c>
+      <c r="O4" s="20">
         <f>Table3[[#This Row],[UnitsSold]]*F2</f>
         <v>531</v>
       </c>
-      <c r="O4" s="32">
+      <c r="P4" s="32">
         <f>(Table3[[#This Row],[UnitsSold]]/Table3[[#This Row],[TotalUnits]])*100</f>
         <v>2.3883448770002391</v>
       </c>
-      <c r="P4" s="7">
+      <c r="Q4" s="7">
         <f>100-Table3[[#This Row],[StockPercentageSold]]</f>
         <v>97.611655122999764</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -9691,35 +9655,39 @@
       <c r="J5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="28">
         <f>SUMIF(A3:A245, J5, B3:B245)</f>
         <v>957</v>
       </c>
       <c r="L5" s="20">
-        <f ca="1">SUMIF(A3:A245, Table3[[#This Row],[Product]], D3)</f>
-        <v>3339.9299999999994</v>
-      </c>
-      <c r="M5" s="28">
+        <f>VLOOKUP(Table3[[#This Row],[Product]], A:C, 3, FALSE)</f>
+        <v>3.4899999999999998</v>
+      </c>
+      <c r="M5" s="20">
+        <f>Table3[[#This Row],[TotalUnits]]*Table3[[#This Row],[PricePerUnit]]</f>
+        <v>3339.93</v>
+      </c>
+      <c r="N5" s="28">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="N5" s="20">
+      <c r="O5" s="20">
         <f>Table3[[#This Row],[UnitsSold]]*F3</f>
         <v>1047</v>
       </c>
-      <c r="O5" s="32">
+      <c r="P5" s="32">
         <f>(Table3[[#This Row],[UnitsSold]]/Table3[[#This Row],[TotalUnits]])*100</f>
         <v>10.449320794148379</v>
       </c>
-      <c r="P5" s="7">
+      <c r="Q5" s="7">
         <f>100-Table3[[#This Row],[StockPercentageSold]]</f>
         <v>89.550679205851623</v>
       </c>
-      <c r="R5" s="6" t="s">
+      <c r="S5" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -9745,38 +9713,42 @@
       <c r="J6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="28">
         <f ca="1">SUMIF(A4:A249, J6, B4:B246)</f>
         <v>2445</v>
       </c>
       <c r="L6" s="20">
-        <f ca="1">SUMIF(A4:A249, Table3[[#This Row],[Product]], D4)</f>
-        <v>4572.1500000000005</v>
-      </c>
-      <c r="M6" s="28">
+        <f>VLOOKUP(Table3[[#This Row],[Product]], A:C, 3, FALSE)</f>
+        <v>1.8699999999999999</v>
+      </c>
+      <c r="M6" s="20">
+        <f ca="1">Table3[[#This Row],[TotalUnits]]*Table3[[#This Row],[PricePerUnit]]</f>
+        <v>4572.1499999999996</v>
+      </c>
+      <c r="N6" s="28">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="N6" s="20">
+      <c r="O6" s="20">
         <f>Table3[[#This Row],[UnitsSold]]*F4</f>
         <v>561</v>
       </c>
-      <c r="O6" s="32">
+      <c r="P6" s="32">
         <f ca="1">(Table3[[#This Row],[UnitsSold]]/Table3[[#This Row],[TotalUnits]])*100</f>
         <v>4.0899795501022496</v>
       </c>
-      <c r="P6" s="7">
+      <c r="Q6" s="7">
         <f ca="1">100-Table3[[#This Row],[StockPercentageSold]]</f>
         <v>95.910020449897758</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="S6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="S6" s="10" t="s">
+      <c r="T6" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -9802,38 +9774,42 @@
       <c r="J7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="7">
-        <f t="shared" ref="K7:K12" si="4">SUMIF(A5:A247, J7, B5:B247)</f>
+      <c r="K7" s="28">
+        <f>SUMIF(A5:A247, J7, B5:B247)</f>
         <v>2445</v>
       </c>
       <c r="L7" s="20">
-        <f ca="1">SUMIF(A5:A247, Table3[[#This Row],[Product]], D5)</f>
-        <v>5330.0999999999995</v>
-      </c>
-      <c r="M7" s="28">
+        <f>VLOOKUP(Table3[[#This Row],[Product]], A:C, 3, FALSE)</f>
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="M7" s="20">
+        <f>Table3[[#This Row],[TotalUnits]]*Table3[[#This Row],[PricePerUnit]]</f>
+        <v>5330.1</v>
+      </c>
+      <c r="N7" s="28">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="N7" s="20">
+      <c r="O7" s="20">
         <f>Table3[[#This Row],[UnitsSold]]*F5</f>
         <v>561</v>
       </c>
-      <c r="O7" s="32">
+      <c r="P7" s="32">
         <f>(Table3[[#This Row],[UnitsSold]]/Table3[[#This Row],[TotalUnits]])*100</f>
         <v>4.0899795501022496</v>
       </c>
-      <c r="P7" s="7">
+      <c r="Q7" s="7">
         <f>100-Table3[[#This Row],[StockPercentageSold]]</f>
         <v>95.910020449897758</v>
       </c>
-      <c r="R7" s="11" t="s">
+      <c r="S7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="S7" s="26">
+      <c r="T7" s="26">
         <v>2020</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -9859,38 +9835,42 @@
       <c r="J8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="K8" s="7">
-        <f t="shared" si="4"/>
+      <c r="K8" s="28">
+        <f>SUMIF(A6:A248, J8, B6:B248)</f>
         <v>994</v>
       </c>
       <c r="L8" s="20">
-        <f ca="1">SUMIF(A6:A248, Table3[[#This Row],[Product]], D6)</f>
-        <v>1651.7700000000002</v>
-      </c>
-      <c r="M8" s="28">
+        <f>VLOOKUP(Table3[[#This Row],[Product]], A:C, 3, FALSE)</f>
+        <v>1.35</v>
+      </c>
+      <c r="M8" s="20">
+        <f>Table3[[#This Row],[TotalUnits]]*Table3[[#This Row],[PricePerUnit]]</f>
+        <v>1341.9</v>
+      </c>
+      <c r="N8" s="28">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="N8" s="20">
+      <c r="O8" s="20">
         <f>Table3[[#This Row],[UnitsSold]]*F6</f>
         <v>654.00000000000011</v>
       </c>
-      <c r="O8" s="32">
+      <c r="P8" s="32">
         <f>(Table3[[#This Row],[UnitsSold]]/Table3[[#This Row],[TotalUnits]])*100</f>
         <v>10.06036217303823</v>
       </c>
-      <c r="P8" s="7">
+      <c r="Q8" s="7">
         <f>100-Table3[[#This Row],[StockPercentageSold]]</f>
         <v>89.939637826961771</v>
       </c>
-      <c r="R8" s="11" t="s">
+      <c r="S8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="S8" s="26">
+      <c r="T8" s="26">
         <v>1500</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -9916,38 +9896,42 @@
       <c r="J9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="7">
-        <f t="shared" si="4"/>
+      <c r="K9" s="28">
+        <f>SUMIF(A7:A249, J9, B7:B249)</f>
         <v>2574</v>
       </c>
       <c r="L9" s="20">
-        <f ca="1">SUMIF(A7:A249, Table3[[#This Row],[Product]], D7)</f>
-        <v>7310.1599999999989</v>
-      </c>
-      <c r="M9" s="28">
+        <f>VLOOKUP(Table3[[#This Row],[Product]], A:C, 3, FALSE)</f>
+        <v>2.84</v>
+      </c>
+      <c r="M9" s="20">
+        <f>Table3[[#This Row],[TotalUnits]]*Table3[[#This Row],[PricePerUnit]]</f>
+        <v>7310.16</v>
+      </c>
+      <c r="N9" s="28">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="N9" s="20">
+      <c r="O9" s="20">
         <f>Table3[[#This Row],[UnitsSold]]*F7</f>
         <v>531</v>
       </c>
-      <c r="O9" s="32">
+      <c r="P9" s="32">
         <f>(Table3[[#This Row],[UnitsSold]]/Table3[[#This Row],[TotalUnits]])*100</f>
         <v>3.8850038850038846</v>
       </c>
-      <c r="P9" s="7">
+      <c r="Q9" s="7">
         <f>100-Table3[[#This Row],[StockPercentageSold]]</f>
         <v>96.114996114996117</v>
       </c>
-      <c r="R9" s="11" t="s">
+      <c r="S9" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="S9" s="26">
+      <c r="T9" s="26">
         <v>1750</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -9973,32 +9957,36 @@
       <c r="J10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K10" s="7">
-        <f t="shared" si="4"/>
+      <c r="K10" s="28">
+        <f>SUMIF(A8:A250, J10, B8:B250)</f>
         <v>1575</v>
       </c>
       <c r="L10" s="20">
-        <f ca="1">SUMIF(A8:A250, Table3[[#This Row],[Product]], D8)</f>
+        <f>VLOOKUP(Table3[[#This Row],[Product]], A:C, 3, FALSE)</f>
+        <v>1.87</v>
+      </c>
+      <c r="M10" s="20">
+        <f>Table3[[#This Row],[TotalUnits]]*Table3[[#This Row],[PricePerUnit]]</f>
         <v>2945.25</v>
       </c>
-      <c r="M10" s="28">
+      <c r="N10" s="28">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="N10" s="20">
+      <c r="O10" s="20">
         <f>Table3[[#This Row],[UnitsSold]]*F8</f>
         <v>1047</v>
       </c>
-      <c r="O10" s="32">
+      <c r="P10" s="32">
         <f>(Table3[[#This Row],[UnitsSold]]/Table3[[#This Row],[TotalUnits]])*100</f>
         <v>6.3492063492063489</v>
       </c>
-      <c r="P10" s="7">
+      <c r="Q10" s="7">
         <f>100-Table3[[#This Row],[StockPercentageSold]]</f>
         <v>93.650793650793645</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -10024,39 +10012,43 @@
       <c r="J11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="7">
-        <f t="shared" si="4"/>
+      <c r="K11" s="28">
+        <f>SUMIF(A9:A251, J11, B9:B251)</f>
         <v>186</v>
       </c>
       <c r="L11" s="20">
-        <f ca="1">SUMIF(A9:A251, Table3[[#This Row],[Product]], D9)</f>
+        <f>VLOOKUP(Table3[[#This Row],[Product]], A:C, 3, FALSE)</f>
+        <v>3.15</v>
+      </c>
+      <c r="M11" s="20">
+        <f>Table3[[#This Row],[TotalUnits]]*Table3[[#This Row],[PricePerUnit]]</f>
         <v>585.9</v>
       </c>
-      <c r="M11" s="28">
+      <c r="N11" s="28">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="N11" s="20">
+      <c r="O11" s="20">
         <f>Table3[[#This Row],[UnitsSold]]*F9</f>
         <v>531</v>
       </c>
-      <c r="O11" s="32">
+      <c r="P11" s="32">
         <f>(Table3[[#This Row],[UnitsSold]]/Table3[[#This Row],[TotalUnits]])*100</f>
         <v>53.763440860215049</v>
       </c>
-      <c r="P11" s="7">
+      <c r="Q11" s="7">
         <f>100-Table3[[#This Row],[StockPercentageSold]]</f>
         <v>46.236559139784951</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>20</v>
       </c>
-      <c r="S11" s="20">
-        <f>SUM(D2:D245)+SUM(S7:S9)</f>
+      <c r="T11" s="20">
+        <f>SUM(D2:D245)+SUM(T7:T9)</f>
         <v>38595.579999999987</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -10082,38 +10074,42 @@
       <c r="J12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="K12" s="7">
-        <f t="shared" si="4"/>
+      <c r="K12" s="28">
+        <f>SUMIF(A10:A252, J12, B10:B252)</f>
         <v>79</v>
       </c>
       <c r="L12" s="20">
-        <f ca="1">SUMIF(A10:A252, Table3[[#This Row],[Product]], D10)</f>
-        <v>179.32999999999998</v>
-      </c>
-      <c r="M12" s="28">
+        <f>VLOOKUP(Table3[[#This Row],[Product]], A:C, 3, FALSE)</f>
+        <v>2.27</v>
+      </c>
+      <c r="M12" s="20">
+        <f>Table3[[#This Row],[TotalUnits]]*Table3[[#This Row],[PricePerUnit]]</f>
+        <v>179.33</v>
+      </c>
+      <c r="N12" s="28">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="N12" s="20">
+      <c r="O12" s="20">
         <f>Table3[[#This Row],[UnitsSold]]*F10</f>
         <v>531</v>
       </c>
-      <c r="O12" s="32">
+      <c r="P12" s="32">
         <f>(Table3[[#This Row],[UnitsSold]]/Table3[[#This Row],[TotalUnits]])*100</f>
         <v>126.58227848101266</v>
       </c>
-      <c r="P12" s="7">
+      <c r="Q12" s="7">
         <f>100-Table3[[#This Row],[StockPercentageSold]]</f>
         <v>-26.582278481012665</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>21</v>
       </c>
-      <c r="S12" s="28">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T12" s="28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -10139,33 +10135,34 @@
       <c r="J13" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="7">
-        <f ca="1">SUM(K3:K12)</f>
-        <v>15442</v>
-      </c>
-      <c r="L13" s="31">
-        <f ca="1">-SUM(L3:L12)</f>
-        <v>-33325.58</v>
-      </c>
-      <c r="M13" s="28">
-        <f>SUM(M3:M12)</f>
+      <c r="K13" s="34" t="str">
+        <f ca="1">_xlfn.CONCAT(SUM(K3:K12), " Units")</f>
+        <v>15442 Units</v>
+      </c>
+      <c r="L13" s="28"/>
+      <c r="M13" s="31">
+        <f ca="1">-SUM(M3:M12)</f>
+        <v>-33015.71</v>
+      </c>
+      <c r="N13" s="28">
+        <f>SUM(N3:N12)</f>
         <v>900</v>
       </c>
-      <c r="N13" s="20">
-        <f>SUM(N3:N12)</f>
+      <c r="O13" s="20">
+        <f>SUM(O3:O12)</f>
         <v>5994</v>
       </c>
-      <c r="O13" s="32">
+      <c r="P13" s="32" t="e">
         <f ca="1">(Table3[[#This Row],[UnitsSold]]/Table3[[#This Row],[TotalUnits]])*100</f>
-        <v>5.8282605880067351</v>
-      </c>
-      <c r="P13" s="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q13" s="7" t="e">
         <f ca="1">100-Table3[[#This Row],[StockPercentageSold]]</f>
-        <v>94.171739411993258</v>
-      </c>
-      <c r="S13" s="15"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T13" s="15"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -10195,7 +10192,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -10225,7 +10222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -10464,13 +10461,13 @@
       <c r="J24" s="20">
         <v>2020</v>
       </c>
-      <c r="K24" s="20">
+      <c r="K24" s="20" t="e">
         <f ca="1">Table6[[#This Row],[TotalCost]]/K$13</f>
-        <v>0.13081207097526226</v>
-      </c>
-      <c r="L24" s="20">
-        <f ca="1">Table6[[#This Row],[Single Unit Contribution]]*M$13</f>
-        <v>117.73086387773604</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L24" s="20" t="e">
+        <f ca="1">Table6[[#This Row],[Single Unit Contribution]]*N$13</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -10502,13 +10499,13 @@
       <c r="J25" s="20">
         <v>1500</v>
       </c>
-      <c r="K25" s="20">
+      <c r="K25" s="20" t="e">
         <f ca="1">Table6[[#This Row],[TotalCost]]/K$13</f>
-        <v>9.7137676466778913E-2</v>
-      </c>
-      <c r="L25" s="20">
-        <f ca="1">Table6[[#This Row],[Single Unit Contribution]]*M$13</f>
-        <v>87.423908820101019</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L25" s="20" t="e">
+        <f ca="1">Table6[[#This Row],[Single Unit Contribution]]*N$13</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -10540,13 +10537,13 @@
       <c r="J26" s="20">
         <v>1750</v>
       </c>
-      <c r="K26" s="20">
+      <c r="K26" s="20" t="e">
         <f ca="1">Table6[[#This Row],[TotalCost]]/K$13</f>
-        <v>0.11332728921124206</v>
-      </c>
-      <c r="L26" s="20">
-        <f ca="1">Table6[[#This Row],[Single Unit Contribution]]*M$13</f>
-        <v>101.99456029011786</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="L26" s="20" t="e">
+        <f ca="1">Table6[[#This Row],[Single Unit Contribution]]*N$13</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -11501,11 +11498,11 @@
       </c>
       <c r="E66" s="18"/>
       <c r="F66" s="20">
-        <f t="shared" ref="F66:F129" si="5">C66*3</f>
+        <f t="shared" ref="F66:F129" si="4">C66*3</f>
         <v>10.47</v>
       </c>
       <c r="G66" s="28">
-        <f t="shared" ref="G66:G129" si="6">units_sold_per_product</f>
+        <f t="shared" ref="G66:G129" si="5">units_sold_per_product</f>
         <v>100</v>
       </c>
     </row>
@@ -11520,16 +11517,16 @@
         <v>1.87</v>
       </c>
       <c r="D67" s="20">
-        <f t="shared" ref="D67:D130" si="7">C67*B67</f>
+        <f t="shared" ref="D67:D130" si="6">C67*B67</f>
         <v>140.25</v>
       </c>
       <c r="E67" s="18"/>
       <c r="F67" s="20">
+        <f t="shared" si="4"/>
+        <v>5.61</v>
+      </c>
+      <c r="G67" s="28">
         <f t="shared" si="5"/>
-        <v>5.61</v>
-      </c>
-      <c r="G67" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -11544,16 +11541,16 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D68" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>134.63999999999999</v>
       </c>
       <c r="E68" s="18"/>
       <c r="F68" s="20">
+        <f t="shared" si="4"/>
+        <v>5.6099999999999994</v>
+      </c>
+      <c r="G68" s="28">
         <f t="shared" si="5"/>
-        <v>5.6099999999999994</v>
-      </c>
-      <c r="G68" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -11568,16 +11565,16 @@
         <v>2.84</v>
       </c>
       <c r="D69" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>159.04</v>
       </c>
       <c r="E69" s="18"/>
       <c r="F69" s="20">
+        <f t="shared" si="4"/>
+        <v>8.52</v>
+      </c>
+      <c r="G69" s="28">
         <f t="shared" si="5"/>
-        <v>8.52</v>
-      </c>
-      <c r="G69" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -11592,16 +11589,16 @@
         <v>1.87</v>
       </c>
       <c r="D70" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>95.37</v>
       </c>
       <c r="E70" s="18"/>
       <c r="F70" s="20">
+        <f t="shared" si="4"/>
+        <v>5.61</v>
+      </c>
+      <c r="G70" s="28">
         <f t="shared" si="5"/>
-        <v>5.61</v>
-      </c>
-      <c r="G70" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -11616,16 +11613,16 @@
         <v>1.68</v>
       </c>
       <c r="D71" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>52.08</v>
       </c>
       <c r="E71" s="18"/>
       <c r="F71" s="20">
+        <f t="shared" si="4"/>
+        <v>5.04</v>
+      </c>
+      <c r="G71" s="28">
         <f t="shared" si="5"/>
-        <v>5.04</v>
-      </c>
-      <c r="G71" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -11640,16 +11637,16 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D72" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>104.72</v>
       </c>
       <c r="E72" s="18"/>
       <c r="F72" s="20">
+        <f t="shared" si="4"/>
+        <v>5.6099999999999994</v>
+      </c>
+      <c r="G72" s="28">
         <f t="shared" si="5"/>
-        <v>5.6099999999999994</v>
-      </c>
-      <c r="G72" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -11664,16 +11661,16 @@
         <v>2.84</v>
       </c>
       <c r="D73" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>389.08</v>
       </c>
       <c r="E73" s="18"/>
       <c r="F73" s="20">
+        <f t="shared" si="4"/>
+        <v>8.52</v>
+      </c>
+      <c r="G73" s="28">
         <f t="shared" si="5"/>
-        <v>8.52</v>
-      </c>
-      <c r="G73" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -11688,16 +11685,16 @@
         <v>1.87</v>
       </c>
       <c r="D74" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>200.09</v>
       </c>
       <c r="E74" s="18"/>
       <c r="F74" s="20">
+        <f t="shared" si="4"/>
+        <v>5.61</v>
+      </c>
+      <c r="G74" s="28">
         <f t="shared" si="5"/>
-        <v>5.61</v>
-      </c>
-      <c r="G74" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -11712,16 +11709,16 @@
         <v>1.7699999999999998</v>
       </c>
       <c r="D75" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>42.48</v>
       </c>
       <c r="E75" s="18"/>
       <c r="F75" s="20">
+        <f t="shared" si="4"/>
+        <v>5.31</v>
+      </c>
+      <c r="G75" s="28">
         <f t="shared" si="5"/>
-        <v>5.31</v>
-      </c>
-      <c r="G75" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -11736,16 +11733,16 @@
         <v>3.49</v>
       </c>
       <c r="D76" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>104.7</v>
       </c>
       <c r="E76" s="18"/>
       <c r="F76" s="20">
+        <f t="shared" si="4"/>
+        <v>10.47</v>
+      </c>
+      <c r="G76" s="28">
         <f t="shared" si="5"/>
-        <v>10.47</v>
-      </c>
-      <c r="G76" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -11760,16 +11757,16 @@
         <v>1.87</v>
       </c>
       <c r="D77" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>130.9</v>
       </c>
       <c r="E77" s="18"/>
       <c r="F77" s="20">
+        <f t="shared" si="4"/>
+        <v>5.61</v>
+      </c>
+      <c r="G77" s="28">
         <f t="shared" si="5"/>
-        <v>5.61</v>
-      </c>
-      <c r="G77" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -11784,16 +11781,16 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D78" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>67.58</v>
       </c>
       <c r="E78" s="18"/>
       <c r="F78" s="20">
+        <f t="shared" si="4"/>
+        <v>6.5400000000000009</v>
+      </c>
+      <c r="G78" s="28">
         <f t="shared" si="5"/>
-        <v>6.5400000000000009</v>
-      </c>
-      <c r="G78" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -11808,16 +11805,16 @@
         <v>1.77</v>
       </c>
       <c r="D79" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>192.93</v>
       </c>
       <c r="E79" s="18"/>
       <c r="F79" s="20">
+        <f t="shared" si="4"/>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G79" s="28">
         <f t="shared" si="5"/>
-        <v>5.3100000000000005</v>
-      </c>
-      <c r="G79" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -11832,16 +11829,16 @@
         <v>3.49</v>
       </c>
       <c r="D80" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>73.290000000000006</v>
       </c>
       <c r="E80" s="18"/>
       <c r="F80" s="20">
+        <f t="shared" si="4"/>
+        <v>10.47</v>
+      </c>
+      <c r="G80" s="28">
         <f t="shared" si="5"/>
-        <v>10.47</v>
-      </c>
-      <c r="G80" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -11856,16 +11853,16 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D81" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>149.6</v>
       </c>
       <c r="E81" s="18"/>
       <c r="F81" s="20">
+        <f t="shared" si="4"/>
+        <v>5.6099999999999994</v>
+      </c>
+      <c r="G81" s="28">
         <f t="shared" si="5"/>
-        <v>5.6099999999999994</v>
-      </c>
-      <c r="G81" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -11880,16 +11877,16 @@
         <v>1.87</v>
       </c>
       <c r="D82" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>140.25</v>
       </c>
       <c r="E82" s="18"/>
       <c r="F82" s="20">
+        <f t="shared" si="4"/>
+        <v>5.61</v>
+      </c>
+      <c r="G82" s="28">
         <f t="shared" si="5"/>
-        <v>5.61</v>
-      </c>
-      <c r="G82" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -11904,16 +11901,16 @@
         <v>2.84</v>
       </c>
       <c r="D83" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>210.16</v>
       </c>
       <c r="E83" s="18"/>
       <c r="F83" s="20">
+        <f t="shared" si="4"/>
+        <v>8.52</v>
+      </c>
+      <c r="G83" s="28">
         <f t="shared" si="5"/>
-        <v>8.52</v>
-      </c>
-      <c r="G83" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -11928,16 +11925,16 @@
         <v>1.77</v>
       </c>
       <c r="D84" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>79.650000000000006</v>
       </c>
       <c r="E84" s="18"/>
       <c r="F84" s="20">
+        <f t="shared" si="4"/>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G84" s="28">
         <f t="shared" si="5"/>
-        <v>5.3100000000000005</v>
-      </c>
-      <c r="G84" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -11952,16 +11949,16 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D85" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>61.040000000000006</v>
       </c>
       <c r="E85" s="18"/>
       <c r="F85" s="20">
+        <f t="shared" si="4"/>
+        <v>6.5400000000000009</v>
+      </c>
+      <c r="G85" s="28">
         <f t="shared" si="5"/>
-        <v>6.5400000000000009</v>
-      </c>
-      <c r="G85" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -11976,16 +11973,16 @@
         <v>1.77</v>
       </c>
       <c r="D86" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>253.11</v>
       </c>
       <c r="E86" s="18"/>
       <c r="F86" s="20">
+        <f t="shared" si="4"/>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G86" s="28">
         <f t="shared" si="5"/>
-        <v>5.3100000000000005</v>
-      </c>
-      <c r="G86" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -12000,16 +11997,16 @@
         <v>3.15</v>
       </c>
       <c r="D87" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>85.05</v>
       </c>
       <c r="E87" s="18"/>
       <c r="F87" s="20">
+        <f t="shared" si="4"/>
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="G87" s="28">
         <f t="shared" si="5"/>
-        <v>9.4499999999999993</v>
-      </c>
-      <c r="G87" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -12024,16 +12021,16 @@
         <v>1.77</v>
       </c>
       <c r="D88" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>235.41</v>
       </c>
       <c r="E88" s="18"/>
       <c r="F88" s="20">
+        <f t="shared" si="4"/>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G88" s="28">
         <f t="shared" si="5"/>
-        <v>5.3100000000000005</v>
-      </c>
-      <c r="G88" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -12048,16 +12045,16 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D89" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>239.8</v>
       </c>
       <c r="E89" s="18"/>
       <c r="F89" s="20">
+        <f t="shared" si="4"/>
+        <v>6.5400000000000009</v>
+      </c>
+      <c r="G89" s="28">
         <f t="shared" si="5"/>
-        <v>6.5400000000000009</v>
-      </c>
-      <c r="G89" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -12072,16 +12069,16 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D90" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>121.55</v>
       </c>
       <c r="E90" s="18"/>
       <c r="F90" s="20">
+        <f t="shared" si="4"/>
+        <v>5.6099999999999994</v>
+      </c>
+      <c r="G90" s="28">
         <f t="shared" si="5"/>
-        <v>5.6099999999999994</v>
-      </c>
-      <c r="G90" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -12096,16 +12093,16 @@
         <v>1.87</v>
       </c>
       <c r="D91" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>61.71</v>
       </c>
       <c r="E91" s="18"/>
       <c r="F91" s="20">
+        <f t="shared" si="4"/>
+        <v>5.61</v>
+      </c>
+      <c r="G91" s="28">
         <f t="shared" si="5"/>
-        <v>5.61</v>
-      </c>
-      <c r="G91" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -12120,16 +12117,16 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D92" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>176.58</v>
       </c>
       <c r="E92" s="18"/>
       <c r="F92" s="20">
+        <f t="shared" si="4"/>
+        <v>6.5400000000000009</v>
+      </c>
+      <c r="G92" s="28">
         <f t="shared" si="5"/>
-        <v>6.5400000000000009</v>
-      </c>
-      <c r="G92" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -12144,16 +12141,16 @@
         <v>1.7699999999999998</v>
       </c>
       <c r="D93" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>136.29</v>
       </c>
       <c r="E93" s="18"/>
       <c r="F93" s="20">
+        <f t="shared" si="4"/>
+        <v>5.31</v>
+      </c>
+      <c r="G93" s="28">
         <f t="shared" si="5"/>
-        <v>5.31</v>
-      </c>
-      <c r="G93" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -12168,16 +12165,16 @@
         <v>3.49</v>
       </c>
       <c r="D94" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>132.62</v>
       </c>
       <c r="E94" s="18"/>
       <c r="F94" s="20">
+        <f t="shared" si="4"/>
+        <v>10.47</v>
+      </c>
+      <c r="G94" s="28">
         <f t="shared" si="5"/>
-        <v>10.47</v>
-      </c>
-      <c r="G94" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -12192,16 +12189,16 @@
         <v>1.77</v>
       </c>
       <c r="D95" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>70.8</v>
       </c>
       <c r="E95" s="18"/>
       <c r="F95" s="20">
+        <f t="shared" si="4"/>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G95" s="28">
         <f t="shared" si="5"/>
-        <v>5.3100000000000005</v>
-      </c>
-      <c r="G95" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -12216,16 +12213,16 @@
         <v>1.6800000000000002</v>
       </c>
       <c r="D96" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>191.52</v>
       </c>
       <c r="E96" s="18"/>
       <c r="F96" s="20">
+        <f t="shared" si="4"/>
+        <v>5.0400000000000009</v>
+      </c>
+      <c r="G96" s="28">
         <f t="shared" si="5"/>
-        <v>5.0400000000000009</v>
-      </c>
-      <c r="G96" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -12240,16 +12237,16 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D97" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>488.32000000000005</v>
       </c>
       <c r="E97" s="18"/>
       <c r="F97" s="20">
+        <f t="shared" si="4"/>
+        <v>6.5400000000000009</v>
+      </c>
+      <c r="G97" s="28">
         <f t="shared" si="5"/>
-        <v>6.5400000000000009</v>
-      </c>
-      <c r="G97" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -12264,16 +12261,16 @@
         <v>1.77</v>
       </c>
       <c r="D98" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>249.57</v>
       </c>
       <c r="E98" s="18"/>
       <c r="F98" s="20">
+        <f t="shared" si="4"/>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G98" s="28">
         <f t="shared" si="5"/>
-        <v>5.3100000000000005</v>
-      </c>
-      <c r="G98" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -12288,16 +12285,16 @@
         <v>3.49</v>
       </c>
       <c r="D99" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>111.68</v>
       </c>
       <c r="E99" s="18"/>
       <c r="F99" s="20">
+        <f t="shared" si="4"/>
+        <v>10.47</v>
+      </c>
+      <c r="G99" s="28">
         <f t="shared" si="5"/>
-        <v>10.47</v>
-      </c>
-      <c r="G99" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -12312,16 +12309,16 @@
         <v>1.77</v>
       </c>
       <c r="D100" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>35.4</v>
       </c>
       <c r="E100" s="18"/>
       <c r="F100" s="20">
+        <f t="shared" si="4"/>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G100" s="28">
         <f t="shared" si="5"/>
-        <v>5.3100000000000005</v>
-      </c>
-      <c r="G100" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -12336,16 +12333,16 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D101" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>87.2</v>
       </c>
       <c r="E101" s="18"/>
       <c r="F101" s="20">
+        <f t="shared" si="4"/>
+        <v>6.5400000000000009</v>
+      </c>
+      <c r="G101" s="28">
         <f t="shared" si="5"/>
-        <v>6.5400000000000009</v>
-      </c>
-      <c r="G101" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -12360,16 +12357,16 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D102" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>91.63</v>
       </c>
       <c r="E102" s="18"/>
       <c r="F102" s="20">
+        <f t="shared" si="4"/>
+        <v>5.6099999999999994</v>
+      </c>
+      <c r="G102" s="28">
         <f t="shared" si="5"/>
-        <v>5.6099999999999994</v>
-      </c>
-      <c r="G102" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -12384,16 +12381,16 @@
         <v>3.4899999999999998</v>
       </c>
       <c r="D103" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>160.54</v>
       </c>
       <c r="E103" s="18"/>
       <c r="F103" s="20">
+        <f t="shared" si="4"/>
+        <v>10.469999999999999</v>
+      </c>
+      <c r="G103" s="28">
         <f t="shared" si="5"/>
-        <v>10.469999999999999</v>
-      </c>
-      <c r="G103" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -12408,16 +12405,16 @@
         <v>1.77</v>
       </c>
       <c r="D104" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>69.03</v>
       </c>
       <c r="E104" s="18"/>
       <c r="F104" s="20">
+        <f t="shared" si="4"/>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G104" s="28">
         <f t="shared" si="5"/>
-        <v>5.3100000000000005</v>
-      </c>
-      <c r="G104" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -12432,16 +12429,16 @@
         <v>1.68</v>
       </c>
       <c r="D105" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>104.16</v>
       </c>
       <c r="E105" s="18"/>
       <c r="F105" s="20">
+        <f t="shared" si="4"/>
+        <v>5.04</v>
+      </c>
+      <c r="G105" s="28">
         <f t="shared" si="5"/>
-        <v>5.04</v>
-      </c>
-      <c r="G105" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -12456,16 +12453,16 @@
         <v>1.77</v>
       </c>
       <c r="D106" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>159.30000000000001</v>
       </c>
       <c r="E106" s="18"/>
       <c r="F106" s="20">
+        <f t="shared" si="4"/>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G106" s="28">
         <f t="shared" si="5"/>
-        <v>5.3100000000000005</v>
-      </c>
-      <c r="G106" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -12480,16 +12477,16 @@
         <v>2.1799999999999997</v>
       </c>
       <c r="D107" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>224.53999999999996</v>
       </c>
       <c r="E107" s="18"/>
       <c r="F107" s="20">
+        <f t="shared" si="4"/>
+        <v>6.5399999999999991</v>
+      </c>
+      <c r="G107" s="28">
         <f t="shared" si="5"/>
-        <v>6.5399999999999991</v>
-      </c>
-      <c r="G107" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -12504,16 +12501,16 @@
         <v>2.84</v>
       </c>
       <c r="D108" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>90.88</v>
       </c>
       <c r="E108" s="18"/>
       <c r="F108" s="20">
+        <f t="shared" si="4"/>
+        <v>8.52</v>
+      </c>
+      <c r="G108" s="28">
         <f t="shared" si="5"/>
-        <v>8.52</v>
-      </c>
-      <c r="G108" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -12528,16 +12525,16 @@
         <v>1.87</v>
       </c>
       <c r="D109" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>123.42</v>
       </c>
       <c r="E109" s="18"/>
       <c r="F109" s="20">
+        <f t="shared" si="4"/>
+        <v>5.61</v>
+      </c>
+      <c r="G109" s="28">
         <f t="shared" si="5"/>
-        <v>5.61</v>
-      </c>
-      <c r="G109" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -12552,16 +12549,16 @@
         <v>2.8400000000000003</v>
       </c>
       <c r="D110" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>275.48</v>
       </c>
       <c r="E110" s="18"/>
       <c r="F110" s="20">
+        <f t="shared" si="4"/>
+        <v>8.5200000000000014</v>
+      </c>
+      <c r="G110" s="28">
         <f t="shared" si="5"/>
-        <v>8.5200000000000014</v>
-      </c>
-      <c r="G110" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -12576,16 +12573,16 @@
         <v>1.77</v>
       </c>
       <c r="D111" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>53.1</v>
       </c>
       <c r="E111" s="18"/>
       <c r="F111" s="20">
+        <f t="shared" si="4"/>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G111" s="28">
         <f t="shared" si="5"/>
-        <v>5.3100000000000005</v>
-      </c>
-      <c r="G111" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -12600,16 +12597,16 @@
         <v>1.68</v>
       </c>
       <c r="D112" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>48.72</v>
       </c>
       <c r="E112" s="18"/>
       <c r="F112" s="20">
+        <f t="shared" si="4"/>
+        <v>5.04</v>
+      </c>
+      <c r="G112" s="28">
         <f t="shared" si="5"/>
-        <v>5.04</v>
-      </c>
-      <c r="G112" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -12624,16 +12621,16 @@
         <v>1.77</v>
       </c>
       <c r="D113" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>162.84</v>
       </c>
       <c r="E113" s="18"/>
       <c r="F113" s="20">
+        <f t="shared" si="4"/>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G113" s="28">
         <f t="shared" si="5"/>
-        <v>5.3100000000000005</v>
-      </c>
-      <c r="G113" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -12648,16 +12645,16 @@
         <v>2.1799999999999997</v>
       </c>
       <c r="D114" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>303.02</v>
       </c>
       <c r="E114" s="18"/>
       <c r="F114" s="20">
+        <f t="shared" si="4"/>
+        <v>6.5399999999999991</v>
+      </c>
+      <c r="G114" s="28">
         <f t="shared" si="5"/>
-        <v>6.5399999999999991</v>
-      </c>
-      <c r="G114" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -12672,16 +12669,16 @@
         <v>2.84</v>
       </c>
       <c r="D115" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>82.36</v>
       </c>
       <c r="E115" s="18"/>
       <c r="F115" s="20">
+        <f t="shared" si="4"/>
+        <v>8.52</v>
+      </c>
+      <c r="G115" s="28">
         <f t="shared" si="5"/>
-        <v>8.52</v>
-      </c>
-      <c r="G115" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -12696,16 +12693,16 @@
         <v>2.27</v>
       </c>
       <c r="D116" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>68.099999999999994</v>
       </c>
       <c r="E116" s="18"/>
       <c r="F116" s="20">
+        <f t="shared" si="4"/>
+        <v>6.8100000000000005</v>
+      </c>
+      <c r="G116" s="28">
         <f t="shared" si="5"/>
-        <v>6.8100000000000005</v>
-      </c>
-      <c r="G116" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -12720,16 +12717,16 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D117" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>67.319999999999993</v>
       </c>
       <c r="E117" s="18"/>
       <c r="F117" s="20">
+        <f t="shared" si="4"/>
+        <v>5.6099999999999994</v>
+      </c>
+      <c r="G117" s="28">
         <f t="shared" si="5"/>
-        <v>5.6099999999999994</v>
-      </c>
-      <c r="G117" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -12744,16 +12741,16 @@
         <v>3.49</v>
       </c>
       <c r="D118" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>143.09</v>
       </c>
       <c r="E118" s="18"/>
       <c r="F118" s="20">
+        <f t="shared" si="4"/>
+        <v>10.47</v>
+      </c>
+      <c r="G118" s="28">
         <f t="shared" si="5"/>
-        <v>10.47</v>
-      </c>
-      <c r="G118" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -12768,16 +12765,16 @@
         <v>1.7699999999999998</v>
       </c>
       <c r="D119" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>77.88</v>
       </c>
       <c r="E119" s="18"/>
       <c r="F119" s="20">
+        <f t="shared" si="4"/>
+        <v>5.31</v>
+      </c>
+      <c r="G119" s="28">
         <f t="shared" si="5"/>
-        <v>5.31</v>
-      </c>
-      <c r="G119" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -12792,16 +12789,16 @@
         <v>1.68</v>
       </c>
       <c r="D120" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>48.72</v>
       </c>
       <c r="E120" s="18"/>
       <c r="F120" s="20">
+        <f t="shared" si="4"/>
+        <v>5.04</v>
+      </c>
+      <c r="G120" s="28">
         <f t="shared" si="5"/>
-        <v>5.04</v>
-      </c>
-      <c r="G120" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -12816,16 +12813,16 @@
         <v>2.1799999999999997</v>
       </c>
       <c r="D121" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>516.66</v>
       </c>
       <c r="E121" s="18"/>
       <c r="F121" s="20">
+        <f t="shared" si="4"/>
+        <v>6.5399999999999991</v>
+      </c>
+      <c r="G121" s="28">
         <f t="shared" si="5"/>
-        <v>6.5399999999999991</v>
-      </c>
-      <c r="G121" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -12840,16 +12837,16 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D122" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>121.55</v>
       </c>
       <c r="E122" s="18"/>
       <c r="F122" s="20">
+        <f t="shared" si="4"/>
+        <v>5.6099999999999994</v>
+      </c>
+      <c r="G122" s="28">
         <f t="shared" si="5"/>
-        <v>5.6099999999999994</v>
-      </c>
-      <c r="G122" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -12864,16 +12861,16 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D123" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>180.94000000000003</v>
       </c>
       <c r="E123" s="18"/>
       <c r="F123" s="20">
+        <f t="shared" si="4"/>
+        <v>6.5400000000000009</v>
+      </c>
+      <c r="G123" s="28">
         <f t="shared" si="5"/>
-        <v>6.5400000000000009</v>
-      </c>
-      <c r="G123" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -12888,16 +12885,16 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D124" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>69.760000000000005</v>
       </c>
       <c r="E124" s="18"/>
       <c r="F124" s="20">
+        <f t="shared" si="4"/>
+        <v>6.5400000000000009</v>
+      </c>
+      <c r="G124" s="28">
         <f t="shared" si="5"/>
-        <v>6.5400000000000009</v>
-      </c>
-      <c r="G124" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -12912,16 +12909,16 @@
         <v>1.77</v>
       </c>
       <c r="D125" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>111.51</v>
       </c>
       <c r="E125" s="18"/>
       <c r="F125" s="20">
+        <f t="shared" si="4"/>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G125" s="28">
         <f t="shared" si="5"/>
-        <v>5.3100000000000005</v>
-      </c>
-      <c r="G125" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -12936,16 +12933,16 @@
         <v>3.15</v>
       </c>
       <c r="D126" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>91.35</v>
       </c>
       <c r="E126" s="18"/>
       <c r="F126" s="20">
+        <f t="shared" si="4"/>
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="G126" s="28">
         <f t="shared" si="5"/>
-        <v>9.4499999999999993</v>
-      </c>
-      <c r="G126" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -12960,16 +12957,16 @@
         <v>1.87</v>
       </c>
       <c r="D127" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>143.99</v>
       </c>
       <c r="E127" s="18"/>
       <c r="F127" s="20">
+        <f t="shared" si="4"/>
+        <v>5.61</v>
+      </c>
+      <c r="G127" s="28">
         <f t="shared" si="5"/>
-        <v>5.61</v>
-      </c>
-      <c r="G127" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -12984,16 +12981,16 @@
         <v>2.84</v>
       </c>
       <c r="D128" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>227.2</v>
       </c>
       <c r="E128" s="18"/>
       <c r="F128" s="20">
+        <f t="shared" si="4"/>
+        <v>8.52</v>
+      </c>
+      <c r="G128" s="28">
         <f t="shared" si="5"/>
-        <v>8.52</v>
-      </c>
-      <c r="G128" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -13008,16 +13005,16 @@
         <v>1.77</v>
       </c>
       <c r="D129" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>180.54</v>
       </c>
       <c r="E129" s="18"/>
       <c r="F129" s="20">
+        <f t="shared" si="4"/>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G129" s="28">
         <f t="shared" si="5"/>
-        <v>5.3100000000000005</v>
-      </c>
-      <c r="G129" s="28">
-        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -13032,16 +13029,16 @@
         <v>3.4899999999999998</v>
       </c>
       <c r="D130" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>108.19</v>
       </c>
       <c r="E130" s="18"/>
       <c r="F130" s="20">
-        <f t="shared" ref="F130:F193" si="8">C130*3</f>
+        <f t="shared" ref="F130:F193" si="7">C130*3</f>
         <v>10.469999999999999</v>
       </c>
       <c r="G130" s="28">
-        <f t="shared" ref="G130:G193" si="9">units_sold_per_product</f>
+        <f t="shared" ref="G130:G193" si="8">units_sold_per_product</f>
         <v>100</v>
       </c>
     </row>
@@ -13056,16 +13053,16 @@
         <v>1.77</v>
       </c>
       <c r="D131" s="20">
-        <f t="shared" ref="D131:D194" si="10">C131*B131</f>
+        <f t="shared" ref="D131:D194" si="9">C131*B131</f>
         <v>99.12</v>
       </c>
       <c r="E131" s="18"/>
       <c r="F131" s="20">
+        <f t="shared" si="7"/>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G131" s="28">
         <f t="shared" si="8"/>
-        <v>5.3100000000000005</v>
-      </c>
-      <c r="G131" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -13080,16 +13077,16 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D132" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>113.36000000000001</v>
       </c>
       <c r="E132" s="18"/>
       <c r="F132" s="20">
+        <f t="shared" si="7"/>
+        <v>6.5400000000000009</v>
+      </c>
+      <c r="G132" s="28">
         <f t="shared" si="8"/>
-        <v>6.5400000000000009</v>
-      </c>
-      <c r="G132" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -13104,16 +13101,16 @@
         <v>1.77</v>
       </c>
       <c r="D133" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>90.27</v>
       </c>
       <c r="E133" s="18"/>
       <c r="F133" s="20">
+        <f t="shared" si="7"/>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G133" s="28">
         <f t="shared" si="8"/>
-        <v>5.3100000000000005</v>
-      </c>
-      <c r="G133" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -13128,16 +13125,16 @@
         <v>1.68</v>
       </c>
       <c r="D134" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>40.32</v>
       </c>
       <c r="E134" s="18"/>
       <c r="F134" s="20">
+        <f t="shared" si="7"/>
+        <v>5.04</v>
+      </c>
+      <c r="G134" s="28">
         <f t="shared" si="8"/>
-        <v>5.04</v>
-      </c>
-      <c r="G134" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -13152,16 +13149,16 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D135" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>126.44000000000001</v>
       </c>
       <c r="E135" s="18"/>
       <c r="F135" s="20">
+        <f t="shared" si="7"/>
+        <v>6.5400000000000009</v>
+      </c>
+      <c r="G135" s="28">
         <f t="shared" si="8"/>
-        <v>6.5400000000000009</v>
-      </c>
-      <c r="G135" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -13176,16 +13173,16 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D136" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>63.58</v>
       </c>
       <c r="E136" s="18"/>
       <c r="F136" s="20">
+        <f t="shared" si="7"/>
+        <v>5.6099999999999994</v>
+      </c>
+      <c r="G136" s="28">
         <f t="shared" si="8"/>
-        <v>5.6099999999999994</v>
-      </c>
-      <c r="G136" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -13200,16 +13197,16 @@
         <v>1.77</v>
       </c>
       <c r="D137" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>60.18</v>
       </c>
       <c r="E137" s="18"/>
       <c r="F137" s="20">
+        <f t="shared" si="7"/>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G137" s="28">
         <f t="shared" si="8"/>
-        <v>5.3100000000000005</v>
-      </c>
-      <c r="G137" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -13224,16 +13221,16 @@
         <v>1.6800000000000002</v>
       </c>
       <c r="D138" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>35.28</v>
       </c>
       <c r="E138" s="18"/>
       <c r="F138" s="20">
+        <f t="shared" si="7"/>
+        <v>5.0400000000000009</v>
+      </c>
+      <c r="G138" s="28">
         <f t="shared" si="8"/>
-        <v>5.0400000000000009</v>
-      </c>
-      <c r="G138" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -13248,16 +13245,16 @@
         <v>2.84</v>
       </c>
       <c r="D139" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>82.36</v>
       </c>
       <c r="E139" s="18"/>
       <c r="F139" s="20">
+        <f t="shared" si="7"/>
+        <v>8.52</v>
+      </c>
+      <c r="G139" s="28">
         <f t="shared" si="8"/>
-        <v>8.52</v>
-      </c>
-      <c r="G139" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -13272,16 +13269,16 @@
         <v>1.77</v>
       </c>
       <c r="D140" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>120.36</v>
       </c>
       <c r="E140" s="18"/>
       <c r="F140" s="20">
+        <f t="shared" si="7"/>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G140" s="28">
         <f t="shared" si="8"/>
-        <v>5.3100000000000005</v>
-      </c>
-      <c r="G140" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -13296,16 +13293,16 @@
         <v>3.1500000000000004</v>
       </c>
       <c r="D141" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>97.65</v>
       </c>
       <c r="E141" s="18"/>
       <c r="F141" s="20">
+        <f t="shared" si="7"/>
+        <v>9.4500000000000011</v>
+      </c>
+      <c r="G141" s="28">
         <f t="shared" si="8"/>
-        <v>9.4500000000000011</v>
-      </c>
-      <c r="G141" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -13320,16 +13317,16 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D142" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>65.400000000000006</v>
       </c>
       <c r="E142" s="18"/>
       <c r="F142" s="20">
+        <f t="shared" si="7"/>
+        <v>6.5400000000000009</v>
+      </c>
+      <c r="G142" s="28">
         <f t="shared" si="8"/>
-        <v>6.5400000000000009</v>
-      </c>
-      <c r="G142" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -13344,16 +13341,16 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D143" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>433.84</v>
       </c>
       <c r="E143" s="18"/>
       <c r="F143" s="20">
+        <f t="shared" si="7"/>
+        <v>5.6099999999999994</v>
+      </c>
+      <c r="G143" s="28">
         <f t="shared" si="8"/>
-        <v>5.6099999999999994</v>
-      </c>
-      <c r="G143" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -13368,16 +13365,16 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D144" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>127.16</v>
       </c>
       <c r="E144" s="18"/>
       <c r="F144" s="20">
+        <f t="shared" si="7"/>
+        <v>5.6099999999999994</v>
+      </c>
+      <c r="G144" s="28">
         <f t="shared" si="8"/>
-        <v>5.6099999999999994</v>
-      </c>
-      <c r="G144" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -13392,16 +13389,16 @@
         <v>2.8400000000000003</v>
       </c>
       <c r="D145" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>275.48</v>
       </c>
       <c r="E145" s="18"/>
       <c r="F145" s="20">
+        <f t="shared" si="7"/>
+        <v>8.5200000000000014</v>
+      </c>
+      <c r="G145" s="28">
         <f t="shared" si="8"/>
-        <v>8.5200000000000014</v>
-      </c>
-      <c r="G145" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -13416,16 +13413,16 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D146" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>160.82</v>
       </c>
       <c r="E146" s="18"/>
       <c r="F146" s="20">
+        <f t="shared" si="7"/>
+        <v>5.6099999999999994</v>
+      </c>
+      <c r="G146" s="28">
         <f t="shared" si="8"/>
-        <v>5.6099999999999994</v>
-      </c>
-      <c r="G146" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -13440,16 +13437,16 @@
         <v>1.68</v>
       </c>
       <c r="D147" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>68.88</v>
       </c>
       <c r="E147" s="18"/>
       <c r="F147" s="20">
+        <f t="shared" si="7"/>
+        <v>5.04</v>
+      </c>
+      <c r="G147" s="28">
         <f t="shared" si="8"/>
-        <v>5.04</v>
-      </c>
-      <c r="G147" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -13464,16 +13461,16 @@
         <v>1.7700000000000002</v>
       </c>
       <c r="D148" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>164.61</v>
       </c>
       <c r="E148" s="18"/>
       <c r="F148" s="20">
+        <f t="shared" si="7"/>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G148" s="28">
         <f t="shared" si="8"/>
-        <v>5.3100000000000005</v>
-      </c>
-      <c r="G148" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -13488,16 +13485,16 @@
         <v>1.68</v>
       </c>
       <c r="D149" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>78.959999999999994</v>
       </c>
       <c r="E149" s="18"/>
       <c r="F149" s="20">
+        <f t="shared" si="7"/>
+        <v>5.04</v>
+      </c>
+      <c r="G149" s="28">
         <f t="shared" si="8"/>
-        <v>5.04</v>
-      </c>
-      <c r="G149" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -13512,16 +13509,16 @@
         <v>1.77</v>
       </c>
       <c r="D150" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>182.31</v>
       </c>
       <c r="E150" s="18"/>
       <c r="F150" s="20">
+        <f t="shared" si="7"/>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G150" s="28">
         <f t="shared" si="8"/>
-        <v>5.3100000000000005</v>
-      </c>
-      <c r="G150" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -13536,16 +13533,16 @@
         <v>1.68</v>
       </c>
       <c r="D151" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>55.44</v>
       </c>
       <c r="E151" s="18"/>
       <c r="F151" s="20">
+        <f t="shared" si="7"/>
+        <v>5.04</v>
+      </c>
+      <c r="G151" s="28">
         <f t="shared" si="8"/>
-        <v>5.04</v>
-      </c>
-      <c r="G151" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -13560,16 +13557,16 @@
         <v>1.87</v>
       </c>
       <c r="D152" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>106.59</v>
       </c>
       <c r="E152" s="18"/>
       <c r="F152" s="20">
+        <f t="shared" si="7"/>
+        <v>5.61</v>
+      </c>
+      <c r="G152" s="28">
         <f t="shared" si="8"/>
-        <v>5.61</v>
-      </c>
-      <c r="G152" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -13584,16 +13581,16 @@
         <v>2.84</v>
       </c>
       <c r="D153" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>184.6</v>
       </c>
       <c r="E153" s="18"/>
       <c r="F153" s="20">
+        <f t="shared" si="7"/>
+        <v>8.52</v>
+      </c>
+      <c r="G153" s="28">
         <f t="shared" si="8"/>
-        <v>8.52</v>
-      </c>
-      <c r="G153" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -13608,16 +13605,16 @@
         <v>1.77</v>
       </c>
       <c r="D154" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>208.86</v>
       </c>
       <c r="E154" s="18"/>
       <c r="F154" s="20">
+        <f t="shared" si="7"/>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G154" s="28">
         <f t="shared" si="8"/>
-        <v>5.3100000000000005</v>
-      </c>
-      <c r="G154" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -13632,16 +13629,16 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D155" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>78.48</v>
       </c>
       <c r="E155" s="18"/>
       <c r="F155" s="20">
+        <f t="shared" si="7"/>
+        <v>6.5400000000000009</v>
+      </c>
+      <c r="G155" s="28">
         <f t="shared" si="8"/>
-        <v>6.5400000000000009</v>
-      </c>
-      <c r="G155" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -13656,16 +13653,16 @@
         <v>2.84</v>
       </c>
       <c r="D156" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>349.32</v>
       </c>
       <c r="E156" s="18"/>
       <c r="F156" s="20">
+        <f t="shared" si="7"/>
+        <v>8.52</v>
+      </c>
+      <c r="G156" s="28">
         <f t="shared" si="8"/>
-        <v>8.52</v>
-      </c>
-      <c r="G156" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -13680,16 +13677,16 @@
         <v>1.77</v>
       </c>
       <c r="D157" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>159.30000000000001</v>
       </c>
       <c r="E157" s="18"/>
       <c r="F157" s="20">
+        <f t="shared" si="7"/>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G157" s="28">
         <f t="shared" si="8"/>
-        <v>5.3100000000000005</v>
-      </c>
-      <c r="G157" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -13704,16 +13701,16 @@
         <v>3.49</v>
       </c>
       <c r="D158" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>73.290000000000006</v>
       </c>
       <c r="E158" s="18"/>
       <c r="F158" s="20">
+        <f t="shared" si="7"/>
+        <v>10.47</v>
+      </c>
+      <c r="G158" s="28">
         <f t="shared" si="8"/>
-        <v>10.47</v>
-      </c>
-      <c r="G158" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -13728,16 +13725,16 @@
         <v>1.7699999999999998</v>
       </c>
       <c r="D159" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>84.96</v>
       </c>
       <c r="E159" s="18"/>
       <c r="F159" s="20">
+        <f t="shared" si="7"/>
+        <v>5.31</v>
+      </c>
+      <c r="G159" s="28">
         <f t="shared" si="8"/>
-        <v>5.31</v>
-      </c>
-      <c r="G159" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -13752,16 +13749,16 @@
         <v>1.68</v>
       </c>
       <c r="D160" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>40.32</v>
       </c>
       <c r="E160" s="18"/>
       <c r="F160" s="20">
+        <f t="shared" si="7"/>
+        <v>5.04</v>
+      </c>
+      <c r="G160" s="28">
         <f t="shared" si="8"/>
-        <v>5.04</v>
-      </c>
-      <c r="G160" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -13776,16 +13773,16 @@
         <v>1.87</v>
       </c>
       <c r="D161" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>125.29</v>
       </c>
       <c r="E161" s="18"/>
       <c r="F161" s="20">
+        <f t="shared" si="7"/>
+        <v>5.61</v>
+      </c>
+      <c r="G161" s="28">
         <f t="shared" si="8"/>
-        <v>5.61</v>
-      </c>
-      <c r="G161" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -13800,16 +13797,16 @@
         <v>1.87</v>
       </c>
       <c r="D162" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>50.49</v>
       </c>
       <c r="E162" s="18"/>
       <c r="F162" s="20">
+        <f t="shared" si="7"/>
+        <v>5.61</v>
+      </c>
+      <c r="G162" s="28">
         <f t="shared" si="8"/>
-        <v>5.61</v>
-      </c>
-      <c r="G162" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -13824,16 +13821,16 @@
         <v>2.8400000000000003</v>
       </c>
       <c r="D163" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>366.36</v>
       </c>
       <c r="E163" s="18"/>
       <c r="F163" s="20">
+        <f t="shared" si="7"/>
+        <v>8.5200000000000014</v>
+      </c>
+      <c r="G163" s="28">
         <f t="shared" si="8"/>
-        <v>8.5200000000000014</v>
-      </c>
-      <c r="G163" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -13848,16 +13845,16 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D164" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>167.86</v>
       </c>
       <c r="E164" s="18"/>
       <c r="F164" s="20">
+        <f t="shared" si="7"/>
+        <v>6.5400000000000009</v>
+      </c>
+      <c r="G164" s="28">
         <f t="shared" si="8"/>
-        <v>6.5400000000000009</v>
-      </c>
-      <c r="G164" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -13872,16 +13869,16 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D165" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>108.46</v>
       </c>
       <c r="E165" s="18"/>
       <c r="F165" s="20">
+        <f t="shared" si="7"/>
+        <v>5.6099999999999994</v>
+      </c>
+      <c r="G165" s="28">
         <f t="shared" si="8"/>
-        <v>5.6099999999999994</v>
-      </c>
-      <c r="G165" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -13896,16 +13893,16 @@
         <v>1.87</v>
       </c>
       <c r="D166" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>87.89</v>
       </c>
       <c r="E166" s="18"/>
       <c r="F166" s="20">
+        <f t="shared" si="7"/>
+        <v>5.61</v>
+      </c>
+      <c r="G166" s="28">
         <f t="shared" si="8"/>
-        <v>5.61</v>
-      </c>
-      <c r="G166" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -13920,16 +13917,16 @@
         <v>2.84</v>
       </c>
       <c r="D167" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>93.72</v>
       </c>
       <c r="E167" s="18"/>
       <c r="F167" s="20">
+        <f t="shared" si="7"/>
+        <v>8.52</v>
+      </c>
+      <c r="G167" s="28">
         <f t="shared" si="8"/>
-        <v>8.52</v>
-      </c>
-      <c r="G167" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -13944,16 +13941,16 @@
         <v>1.87</v>
       </c>
       <c r="D168" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>153.34</v>
       </c>
       <c r="E168" s="18"/>
       <c r="F168" s="20">
+        <f t="shared" si="7"/>
+        <v>5.61</v>
+      </c>
+      <c r="G168" s="28">
         <f t="shared" si="8"/>
-        <v>5.61</v>
-      </c>
-      <c r="G168" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -13968,16 +13965,16 @@
         <v>1.77</v>
       </c>
       <c r="D169" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>102.66</v>
       </c>
       <c r="E169" s="18"/>
       <c r="F169" s="20">
+        <f t="shared" si="7"/>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G169" s="28">
         <f t="shared" si="8"/>
-        <v>5.3100000000000005</v>
-      </c>
-      <c r="G169" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -13992,16 +13989,16 @@
         <v>3.15</v>
       </c>
       <c r="D170" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>94.5</v>
       </c>
       <c r="E170" s="18"/>
       <c r="F170" s="20">
+        <f t="shared" si="7"/>
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="G170" s="28">
         <f t="shared" si="8"/>
-        <v>9.4499999999999993</v>
-      </c>
-      <c r="G170" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -14016,16 +14013,16 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D171" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>80.41</v>
       </c>
       <c r="E171" s="18"/>
       <c r="F171" s="20">
+        <f t="shared" si="7"/>
+        <v>5.6099999999999994</v>
+      </c>
+      <c r="G171" s="28">
         <f t="shared" si="8"/>
-        <v>5.6099999999999994</v>
-      </c>
-      <c r="G171" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -14040,16 +14037,16 @@
         <v>1.77</v>
       </c>
       <c r="D172" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>148.68</v>
       </c>
       <c r="E172" s="18"/>
       <c r="F172" s="20">
+        <f t="shared" si="7"/>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G172" s="28">
         <f t="shared" si="8"/>
-        <v>5.3100000000000005</v>
-      </c>
-      <c r="G172" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -14064,16 +14061,16 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D173" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>78.48</v>
       </c>
       <c r="E173" s="18"/>
       <c r="F173" s="20">
+        <f t="shared" si="7"/>
+        <v>6.5400000000000009</v>
+      </c>
+      <c r="G173" s="28">
         <f t="shared" si="8"/>
-        <v>6.5400000000000009</v>
-      </c>
-      <c r="G173" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -14088,16 +14085,16 @@
         <v>2.84</v>
       </c>
       <c r="D174" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>124.96</v>
       </c>
       <c r="E174" s="18"/>
       <c r="F174" s="20">
+        <f t="shared" si="7"/>
+        <v>8.52</v>
+      </c>
+      <c r="G174" s="28">
         <f t="shared" si="8"/>
-        <v>8.52</v>
-      </c>
-      <c r="G174" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -14112,16 +14109,16 @@
         <v>1.87</v>
       </c>
       <c r="D175" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>50.49</v>
       </c>
       <c r="E175" s="18"/>
       <c r="F175" s="20">
+        <f t="shared" si="7"/>
+        <v>5.61</v>
+      </c>
+      <c r="G175" s="28">
         <f t="shared" si="8"/>
-        <v>5.61</v>
-      </c>
-      <c r="G175" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -14136,16 +14133,16 @@
         <v>2.8400000000000003</v>
       </c>
       <c r="D176" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>340.8</v>
       </c>
       <c r="E176" s="18"/>
       <c r="F176" s="20">
+        <f t="shared" si="7"/>
+        <v>8.5200000000000014</v>
+      </c>
+      <c r="G176" s="28">
         <f t="shared" si="8"/>
-        <v>8.5200000000000014</v>
-      </c>
-      <c r="G176" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -14160,16 +14157,16 @@
         <v>3.4899999999999998</v>
       </c>
       <c r="D177" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>90.74</v>
       </c>
       <c r="E177" s="18"/>
       <c r="F177" s="20">
+        <f t="shared" si="7"/>
+        <v>10.469999999999999</v>
+      </c>
+      <c r="G177" s="28">
         <f t="shared" si="8"/>
-        <v>10.469999999999999</v>
-      </c>
-      <c r="G177" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -14184,16 +14181,16 @@
         <v>1.77</v>
       </c>
       <c r="D178" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>129.21</v>
       </c>
       <c r="E178" s="18"/>
       <c r="F178" s="20">
+        <f t="shared" si="7"/>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G178" s="28">
         <f t="shared" si="8"/>
-        <v>5.3100000000000005</v>
-      </c>
-      <c r="G178" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -14208,16 +14205,16 @@
         <v>1.87</v>
       </c>
       <c r="D179" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>71.06</v>
       </c>
       <c r="E179" s="18"/>
       <c r="F179" s="20">
+        <f t="shared" si="7"/>
+        <v>5.61</v>
+      </c>
+      <c r="G179" s="28">
         <f t="shared" si="8"/>
-        <v>5.61</v>
-      </c>
-      <c r="G179" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -14232,16 +14229,16 @@
         <v>2.84</v>
       </c>
       <c r="D180" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>113.6</v>
       </c>
       <c r="E180" s="18"/>
       <c r="F180" s="20">
+        <f t="shared" si="7"/>
+        <v>8.52</v>
+      </c>
+      <c r="G180" s="28">
         <f t="shared" si="8"/>
-        <v>8.52</v>
-      </c>
-      <c r="G180" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -14256,16 +14253,16 @@
         <v>1.7699999999999998</v>
       </c>
       <c r="D181" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>72.569999999999993</v>
       </c>
       <c r="E181" s="18"/>
       <c r="F181" s="20">
+        <f t="shared" si="7"/>
+        <v>5.31</v>
+      </c>
+      <c r="G181" s="28">
         <f t="shared" si="8"/>
-        <v>5.31</v>
-      </c>
-      <c r="G181" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -14280,16 +14277,16 @@
         <v>2.27</v>
       </c>
       <c r="D182" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>61.29</v>
       </c>
       <c r="E182" s="18"/>
       <c r="F182" s="20">
+        <f t="shared" si="7"/>
+        <v>6.8100000000000005</v>
+      </c>
+      <c r="G182" s="28">
         <f t="shared" si="8"/>
-        <v>6.8100000000000005</v>
-      </c>
-      <c r="G182" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -14304,16 +14301,16 @@
         <v>1.87</v>
       </c>
       <c r="D183" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>71.06</v>
       </c>
       <c r="E183" s="18"/>
       <c r="F183" s="20">
+        <f t="shared" si="7"/>
+        <v>5.61</v>
+      </c>
+      <c r="G183" s="28">
         <f t="shared" si="8"/>
-        <v>5.61</v>
-      </c>
-      <c r="G183" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -14328,16 +14325,16 @@
         <v>3.4899999999999998</v>
       </c>
       <c r="D184" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>118.66</v>
       </c>
       <c r="E184" s="18"/>
       <c r="F184" s="20">
+        <f t="shared" si="7"/>
+        <v>10.469999999999999</v>
+      </c>
+      <c r="G184" s="28">
         <f t="shared" si="8"/>
-        <v>10.469999999999999</v>
-      </c>
-      <c r="G184" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -14352,16 +14349,16 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D185" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>121.55</v>
       </c>
       <c r="E185" s="18"/>
       <c r="F185" s="20">
+        <f t="shared" si="7"/>
+        <v>5.6099999999999994</v>
+      </c>
+      <c r="G185" s="28">
         <f t="shared" si="8"/>
-        <v>5.6099999999999994</v>
-      </c>
-      <c r="G185" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -14376,16 +14373,16 @@
         <v>2.8400000000000003</v>
       </c>
       <c r="D186" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>170.4</v>
       </c>
       <c r="E186" s="18"/>
       <c r="F186" s="20">
+        <f t="shared" si="7"/>
+        <v>8.5200000000000014</v>
+      </c>
+      <c r="G186" s="28">
         <f t="shared" si="8"/>
-        <v>8.5200000000000014</v>
-      </c>
-      <c r="G186" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -14400,16 +14397,16 @@
         <v>2.1799999999999997</v>
       </c>
       <c r="D187" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>80.66</v>
       </c>
       <c r="E187" s="18"/>
       <c r="F187" s="20">
+        <f t="shared" si="7"/>
+        <v>6.5399999999999991</v>
+      </c>
+      <c r="G187" s="28">
         <f t="shared" si="8"/>
-        <v>6.5399999999999991</v>
-      </c>
-      <c r="G187" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -14424,16 +14421,16 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D188" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>74.8</v>
       </c>
       <c r="E188" s="18"/>
       <c r="F188" s="20">
+        <f t="shared" si="7"/>
+        <v>5.6099999999999994</v>
+      </c>
+      <c r="G188" s="28">
         <f t="shared" si="8"/>
-        <v>5.6099999999999994</v>
-      </c>
-      <c r="G188" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -14448,16 +14445,16 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D189" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>48.62</v>
       </c>
       <c r="E189" s="18"/>
       <c r="F189" s="20">
+        <f t="shared" si="7"/>
+        <v>5.6099999999999994</v>
+      </c>
+      <c r="G189" s="28">
         <f t="shared" si="8"/>
-        <v>5.6099999999999994</v>
-      </c>
-      <c r="G189" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -14472,16 +14469,16 @@
         <v>2.27</v>
       </c>
       <c r="D190" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>49.94</v>
       </c>
       <c r="E190" s="18"/>
       <c r="F190" s="20">
+        <f t="shared" si="7"/>
+        <v>6.8100000000000005</v>
+      </c>
+      <c r="G190" s="28">
         <f t="shared" si="8"/>
-        <v>6.8100000000000005</v>
-      </c>
-      <c r="G190" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -14496,16 +14493,16 @@
         <v>1.87</v>
       </c>
       <c r="D191" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>59.84</v>
       </c>
       <c r="E191" s="18"/>
       <c r="F191" s="20">
+        <f t="shared" si="7"/>
+        <v>5.61</v>
+      </c>
+      <c r="G191" s="28">
         <f t="shared" si="8"/>
-        <v>5.61</v>
-      </c>
-      <c r="G191" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -14520,16 +14517,16 @@
         <v>3.4899999999999998</v>
       </c>
       <c r="D192" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>80.27</v>
       </c>
       <c r="E192" s="18"/>
       <c r="F192" s="20">
+        <f t="shared" si="7"/>
+        <v>10.469999999999999</v>
+      </c>
+      <c r="G192" s="28">
         <f t="shared" si="8"/>
-        <v>10.469999999999999</v>
-      </c>
-      <c r="G192" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -14544,16 +14541,16 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D193" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>43.6</v>
       </c>
       <c r="E193" s="18"/>
       <c r="F193" s="20">
+        <f t="shared" si="7"/>
+        <v>6.5400000000000009</v>
+      </c>
+      <c r="G193" s="28">
         <f t="shared" si="8"/>
-        <v>6.5400000000000009</v>
-      </c>
-      <c r="G193" s="28">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
@@ -14568,16 +14565,16 @@
         <v>1.87</v>
       </c>
       <c r="D194" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>119.68</v>
       </c>
       <c r="E194" s="18"/>
       <c r="F194" s="20">
-        <f t="shared" ref="F194:F245" si="11">C194*3</f>
+        <f t="shared" ref="F194:F245" si="10">C194*3</f>
         <v>5.61</v>
       </c>
       <c r="G194" s="28">
-        <f t="shared" ref="G194:G245" si="12">units_sold_per_product</f>
+        <f t="shared" ref="G194:G245" si="11">units_sold_per_product</f>
         <v>100</v>
       </c>
     </row>
@@ -14592,16 +14589,16 @@
         <v>1.77</v>
       </c>
       <c r="D195" s="20">
-        <f t="shared" ref="D195:D245" si="13">C195*B195</f>
+        <f t="shared" ref="D195:D245" si="12">C195*B195</f>
         <v>125.67</v>
       </c>
       <c r="E195" s="18"/>
       <c r="F195" s="20">
+        <f t="shared" si="10"/>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G195" s="28">
         <f t="shared" si="11"/>
-        <v>5.3100000000000005</v>
-      </c>
-      <c r="G195" s="28">
-        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -14616,16 +14613,16 @@
         <v>2.1799999999999997</v>
       </c>
       <c r="D196" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>196.2</v>
       </c>
       <c r="E196" s="18"/>
       <c r="F196" s="20">
+        <f t="shared" si="10"/>
+        <v>6.5399999999999991</v>
+      </c>
+      <c r="G196" s="28">
         <f t="shared" si="11"/>
-        <v>6.5399999999999991</v>
-      </c>
-      <c r="G196" s="28">
-        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -14640,16 +14637,16 @@
         <v>2.84</v>
       </c>
       <c r="D197" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>107.91999999999999</v>
       </c>
       <c r="E197" s="18"/>
       <c r="F197" s="20">
+        <f t="shared" si="10"/>
+        <v>8.52</v>
+      </c>
+      <c r="G197" s="28">
         <f t="shared" si="11"/>
-        <v>8.52</v>
-      </c>
-      <c r="G197" s="28">
-        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -14664,16 +14661,16 @@
         <v>1.7699999999999998</v>
       </c>
       <c r="D198" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>97.35</v>
       </c>
       <c r="E198" s="18"/>
       <c r="F198" s="20">
+        <f t="shared" si="10"/>
+        <v>5.31</v>
+      </c>
+      <c r="G198" s="28">
         <f t="shared" si="11"/>
-        <v>5.31</v>
-      </c>
-      <c r="G198" s="28">
-        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -14688,16 +14685,16 @@
         <v>3.15</v>
       </c>
       <c r="D199" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>69.3</v>
       </c>
       <c r="E199" s="18"/>
       <c r="F199" s="20">
+        <f t="shared" si="10"/>
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="G199" s="28">
         <f t="shared" si="11"/>
-        <v>9.4499999999999993</v>
-      </c>
-      <c r="G199" s="28">
-        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -14712,16 +14709,16 @@
         <v>1.77</v>
       </c>
       <c r="D200" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>60.18</v>
       </c>
       <c r="E200" s="18"/>
       <c r="F200" s="20">
+        <f t="shared" si="10"/>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G200" s="28">
         <f t="shared" si="11"/>
-        <v>5.3100000000000005</v>
-      </c>
-      <c r="G200" s="28">
-        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -14736,16 +14733,16 @@
         <v>1.87</v>
       </c>
       <c r="D201" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>72.930000000000007</v>
       </c>
       <c r="E201" s="18"/>
       <c r="F201" s="20">
+        <f t="shared" si="10"/>
+        <v>5.61</v>
+      </c>
+      <c r="G201" s="28">
         <f t="shared" si="11"/>
-        <v>5.61</v>
-      </c>
-      <c r="G201" s="28">
-        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -14760,16 +14757,16 @@
         <v>2.84</v>
       </c>
       <c r="D202" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>116.44</v>
       </c>
       <c r="E202" s="18"/>
       <c r="F202" s="20">
+        <f t="shared" si="10"/>
+        <v>8.52</v>
+      </c>
+      <c r="G202" s="28">
         <f t="shared" si="11"/>
-        <v>8.52</v>
-      </c>
-      <c r="G202" s="28">
-        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -14784,16 +14781,16 @@
         <v>1.7699999999999998</v>
       </c>
       <c r="D203" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>72.569999999999993</v>
       </c>
       <c r="E203" s="18"/>
       <c r="F203" s="20">
+        <f t="shared" si="10"/>
+        <v>5.31</v>
+      </c>
+      <c r="G203" s="28">
         <f t="shared" si="11"/>
-        <v>5.31</v>
-      </c>
-      <c r="G203" s="28">
-        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -14808,16 +14805,16 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D204" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>296.48</v>
       </c>
       <c r="E204" s="18"/>
       <c r="F204" s="20">
+        <f t="shared" si="10"/>
+        <v>6.5400000000000009</v>
+      </c>
+      <c r="G204" s="28">
         <f t="shared" si="11"/>
-        <v>6.5400000000000009</v>
-      </c>
-      <c r="G204" s="28">
-        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -14832,16 +14829,16 @@
         <v>1.77</v>
       </c>
       <c r="D205" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>44.25</v>
       </c>
       <c r="E205" s="18"/>
       <c r="F205" s="20">
+        <f t="shared" si="10"/>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G205" s="28">
         <f t="shared" si="11"/>
-        <v>5.3100000000000005</v>
-      </c>
-      <c r="G205" s="28">
-        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -14856,16 +14853,16 @@
         <v>3.1500000000000004</v>
       </c>
       <c r="D206" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>81.900000000000006</v>
       </c>
       <c r="E206" s="18"/>
       <c r="F206" s="20">
+        <f t="shared" si="10"/>
+        <v>9.4500000000000011</v>
+      </c>
+      <c r="G206" s="28">
         <f t="shared" si="11"/>
-        <v>9.4500000000000011</v>
-      </c>
-      <c r="G206" s="28">
-        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -14880,16 +14877,16 @@
         <v>1.87</v>
       </c>
       <c r="D207" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>93.5</v>
       </c>
       <c r="E207" s="18"/>
       <c r="F207" s="20">
+        <f t="shared" si="10"/>
+        <v>5.61</v>
+      </c>
+      <c r="G207" s="28">
         <f t="shared" si="11"/>
-        <v>5.61</v>
-      </c>
-      <c r="G207" s="28">
-        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -14904,16 +14901,16 @@
         <v>2.8400000000000003</v>
       </c>
       <c r="D208" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>224.36</v>
       </c>
       <c r="E208" s="18"/>
       <c r="F208" s="20">
+        <f t="shared" si="10"/>
+        <v>8.5200000000000014</v>
+      </c>
+      <c r="G208" s="28">
         <f t="shared" si="11"/>
-        <v>8.5200000000000014</v>
-      </c>
-      <c r="G208" s="28">
-        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -14928,16 +14925,16 @@
         <v>1.77</v>
       </c>
       <c r="D209" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>53.1</v>
       </c>
       <c r="E209" s="18"/>
       <c r="F209" s="20">
+        <f t="shared" si="10"/>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G209" s="28">
         <f t="shared" si="11"/>
-        <v>5.3100000000000005</v>
-      </c>
-      <c r="G209" s="28">
-        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -14952,16 +14949,16 @@
         <v>1.6800000000000002</v>
       </c>
       <c r="D210" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>33.6</v>
       </c>
       <c r="E210" s="18"/>
       <c r="F210" s="20">
+        <f t="shared" si="10"/>
+        <v>5.0400000000000009</v>
+      </c>
+      <c r="G210" s="28">
         <f t="shared" si="11"/>
-        <v>5.0400000000000009</v>
-      </c>
-      <c r="G210" s="28">
-        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -14976,16 +14973,16 @@
         <v>1.77</v>
       </c>
       <c r="D211" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>86.73</v>
       </c>
       <c r="E211" s="18"/>
       <c r="F211" s="20">
+        <f t="shared" si="10"/>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G211" s="28">
         <f t="shared" si="11"/>
-        <v>5.3100000000000005</v>
-      </c>
-      <c r="G211" s="28">
-        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -15000,16 +14997,16 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D212" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>87.2</v>
       </c>
       <c r="E212" s="18"/>
       <c r="F212" s="20">
+        <f t="shared" si="10"/>
+        <v>6.5400000000000009</v>
+      </c>
+      <c r="G212" s="28">
         <f t="shared" si="11"/>
-        <v>6.5400000000000009</v>
-      </c>
-      <c r="G212" s="28">
-        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -15024,16 +15021,16 @@
         <v>1.77</v>
       </c>
       <c r="D213" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>54.87</v>
       </c>
       <c r="E213" s="18"/>
       <c r="F213" s="20">
+        <f t="shared" si="10"/>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G213" s="28">
         <f t="shared" si="11"/>
-        <v>5.3100000000000005</v>
-      </c>
-      <c r="G213" s="28">
-        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -15048,16 +15045,16 @@
         <v>3.1500000000000004</v>
       </c>
       <c r="D214" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>66.150000000000006</v>
       </c>
       <c r="E214" s="18"/>
       <c r="F214" s="20">
+        <f t="shared" si="10"/>
+        <v>9.4500000000000011</v>
+      </c>
+      <c r="G214" s="28">
         <f t="shared" si="11"/>
-        <v>9.4500000000000011</v>
-      </c>
-      <c r="G214" s="28">
-        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -15072,16 +15069,16 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D215" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>80.41</v>
       </c>
       <c r="E215" s="18"/>
       <c r="F215" s="20">
+        <f t="shared" si="10"/>
+        <v>5.6099999999999994</v>
+      </c>
+      <c r="G215" s="28">
         <f t="shared" si="11"/>
-        <v>5.6099999999999994</v>
-      </c>
-      <c r="G215" s="28">
-        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -15096,16 +15093,16 @@
         <v>2.84</v>
       </c>
       <c r="D216" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>133.47999999999999</v>
       </c>
       <c r="E216" s="18"/>
       <c r="F216" s="20">
+        <f t="shared" si="10"/>
+        <v>8.52</v>
+      </c>
+      <c r="G216" s="28">
         <f t="shared" si="11"/>
-        <v>8.52</v>
-      </c>
-      <c r="G216" s="28">
-        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -15120,16 +15117,16 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D217" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>381.5</v>
       </c>
       <c r="E217" s="18"/>
       <c r="F217" s="20">
+        <f t="shared" si="10"/>
+        <v>6.5400000000000009</v>
+      </c>
+      <c r="G217" s="28">
         <f t="shared" si="11"/>
-        <v>6.5400000000000009</v>
-      </c>
-      <c r="G217" s="28">
-        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -15144,16 +15141,16 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D218" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>43.01</v>
       </c>
       <c r="E218" s="18"/>
       <c r="F218" s="20">
+        <f t="shared" si="10"/>
+        <v>5.6099999999999994</v>
+      </c>
+      <c r="G218" s="28">
         <f t="shared" si="11"/>
-        <v>5.6099999999999994</v>
-      </c>
-      <c r="G218" s="28">
-        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -15168,16 +15165,16 @@
         <v>1.77</v>
       </c>
       <c r="D219" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>70.8</v>
       </c>
       <c r="E219" s="18"/>
       <c r="F219" s="20">
+        <f t="shared" si="10"/>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G219" s="28">
         <f t="shared" si="11"/>
-        <v>5.3100000000000005</v>
-      </c>
-      <c r="G219" s="28">
-        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -15192,16 +15189,16 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D220" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>189.66000000000003</v>
       </c>
       <c r="E220" s="18"/>
       <c r="F220" s="20">
+        <f t="shared" si="10"/>
+        <v>6.5400000000000009</v>
+      </c>
+      <c r="G220" s="28">
         <f t="shared" si="11"/>
-        <v>6.5400000000000009</v>
-      </c>
-      <c r="G220" s="28">
-        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -15216,16 +15213,16 @@
         <v>1.77</v>
       </c>
       <c r="D221" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>76.11</v>
       </c>
       <c r="E221" s="18"/>
       <c r="F221" s="20">
+        <f t="shared" si="10"/>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G221" s="28">
         <f t="shared" si="11"/>
-        <v>5.3100000000000005</v>
-      </c>
-      <c r="G221" s="28">
-        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -15240,16 +15237,16 @@
         <v>3.49</v>
       </c>
       <c r="D222" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>104.7</v>
       </c>
       <c r="E222" s="18"/>
       <c r="F222" s="20">
+        <f t="shared" si="10"/>
+        <v>10.47</v>
+      </c>
+      <c r="G222" s="28">
         <f t="shared" si="11"/>
-        <v>10.47</v>
-      </c>
-      <c r="G222" s="28">
-        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -15264,16 +15261,16 @@
         <v>1.77</v>
       </c>
       <c r="D223" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>61.95</v>
       </c>
       <c r="E223" s="18"/>
       <c r="F223" s="20">
+        <f t="shared" si="10"/>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G223" s="28">
         <f t="shared" si="11"/>
-        <v>5.3100000000000005</v>
-      </c>
-      <c r="G223" s="28">
-        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -15288,16 +15285,16 @@
         <v>1.87</v>
       </c>
       <c r="D224" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>106.59</v>
       </c>
       <c r="E224" s="18"/>
       <c r="F224" s="20">
+        <f t="shared" si="10"/>
+        <v>5.61</v>
+      </c>
+      <c r="G224" s="28">
         <f t="shared" si="11"/>
-        <v>5.61</v>
-      </c>
-      <c r="G224" s="28">
-        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -15312,16 +15309,16 @@
         <v>1.68</v>
       </c>
       <c r="D225" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>42</v>
       </c>
       <c r="E225" s="18"/>
       <c r="F225" s="20">
+        <f t="shared" si="10"/>
+        <v>5.04</v>
+      </c>
+      <c r="G225" s="28">
         <f t="shared" si="11"/>
-        <v>5.04</v>
-      </c>
-      <c r="G225" s="28">
-        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -15336,16 +15333,16 @@
         <v>1.87</v>
       </c>
       <c r="D226" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>44.88</v>
       </c>
       <c r="E226" s="18"/>
       <c r="F226" s="20">
+        <f t="shared" si="10"/>
+        <v>5.61</v>
+      </c>
+      <c r="G226" s="28">
         <f t="shared" si="11"/>
-        <v>5.61</v>
-      </c>
-      <c r="G226" s="28">
-        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -15360,16 +15357,16 @@
         <v>1.87</v>
       </c>
       <c r="D227" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>155.21</v>
       </c>
       <c r="E227" s="18"/>
       <c r="F227" s="20">
+        <f t="shared" si="10"/>
+        <v>5.61</v>
+      </c>
+      <c r="G227" s="28">
         <f t="shared" si="11"/>
-        <v>5.61</v>
-      </c>
-      <c r="G227" s="28">
-        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -15384,16 +15381,16 @@
         <v>2.8400000000000003</v>
       </c>
       <c r="D228" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>352.16</v>
       </c>
       <c r="E228" s="18"/>
       <c r="F228" s="20">
+        <f t="shared" si="10"/>
+        <v>8.5200000000000014</v>
+      </c>
+      <c r="G228" s="28">
         <f t="shared" si="11"/>
-        <v>8.5200000000000014</v>
-      </c>
-      <c r="G228" s="28">
-        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -15408,16 +15405,16 @@
         <v>1.77</v>
       </c>
       <c r="D229" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>242.49</v>
       </c>
       <c r="E229" s="18"/>
       <c r="F229" s="20">
+        <f t="shared" si="10"/>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G229" s="28">
         <f t="shared" si="11"/>
-        <v>5.3100000000000005</v>
-      </c>
-      <c r="G229" s="28">
-        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -15432,16 +15429,16 @@
         <v>2.1799999999999997</v>
       </c>
       <c r="D230" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>318.27999999999997</v>
       </c>
       <c r="E230" s="18"/>
       <c r="F230" s="20">
+        <f t="shared" si="10"/>
+        <v>6.5399999999999991</v>
+      </c>
+      <c r="G230" s="28">
         <f t="shared" si="11"/>
-        <v>6.5399999999999991</v>
-      </c>
-      <c r="G230" s="28">
-        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -15456,16 +15453,16 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D231" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>63.58</v>
       </c>
       <c r="E231" s="18"/>
       <c r="F231" s="20">
+        <f t="shared" si="10"/>
+        <v>5.6099999999999994</v>
+      </c>
+      <c r="G231" s="28">
         <f t="shared" si="11"/>
-        <v>5.6099999999999994</v>
-      </c>
-      <c r="G231" s="28">
-        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -15480,16 +15477,16 @@
         <v>1.77</v>
       </c>
       <c r="D232" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>35.4</v>
       </c>
       <c r="E232" s="18"/>
       <c r="F232" s="20">
+        <f t="shared" si="10"/>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G232" s="28">
         <f t="shared" si="11"/>
-        <v>5.3100000000000005</v>
-      </c>
-      <c r="G232" s="28">
-        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -15504,16 +15501,16 @@
         <v>2.1799999999999997</v>
       </c>
       <c r="D233" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>303.02</v>
       </c>
       <c r="E233" s="18"/>
       <c r="F233" s="20">
+        <f t="shared" si="10"/>
+        <v>6.5399999999999991</v>
+      </c>
+      <c r="G233" s="28">
         <f t="shared" si="11"/>
-        <v>6.5399999999999991</v>
-      </c>
-      <c r="G233" s="28">
-        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -15528,16 +15525,16 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D234" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>394.57</v>
       </c>
       <c r="E234" s="18"/>
       <c r="F234" s="20">
+        <f t="shared" si="10"/>
+        <v>5.6099999999999994</v>
+      </c>
+      <c r="G234" s="28">
         <f t="shared" si="11"/>
-        <v>5.6099999999999994</v>
-      </c>
-      <c r="G234" s="28">
-        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -15552,16 +15549,16 @@
         <v>3.4899999999999998</v>
       </c>
       <c r="D235" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>69.8</v>
       </c>
       <c r="E235" s="18"/>
       <c r="F235" s="20">
+        <f t="shared" si="10"/>
+        <v>10.469999999999999</v>
+      </c>
+      <c r="G235" s="28">
         <f t="shared" si="11"/>
-        <v>10.469999999999999</v>
-      </c>
-      <c r="G235" s="28">
-        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -15576,16 +15573,16 @@
         <v>1.87</v>
       </c>
       <c r="D236" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>78.540000000000006</v>
       </c>
       <c r="E236" s="18"/>
       <c r="F236" s="20">
+        <f t="shared" si="10"/>
+        <v>5.61</v>
+      </c>
+      <c r="G236" s="28">
         <f t="shared" si="11"/>
-        <v>5.61</v>
-      </c>
-      <c r="G236" s="28">
-        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -15600,16 +15597,16 @@
         <v>2.84</v>
       </c>
       <c r="D237" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>284</v>
       </c>
       <c r="E237" s="18"/>
       <c r="F237" s="20">
+        <f t="shared" si="10"/>
+        <v>8.52</v>
+      </c>
+      <c r="G237" s="28">
         <f t="shared" si="11"/>
-        <v>8.52</v>
-      </c>
-      <c r="G237" s="28">
-        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -15624,16 +15621,16 @@
         <v>1.7700000000000002</v>
       </c>
       <c r="D238" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>67.260000000000005</v>
       </c>
       <c r="E238" s="18"/>
       <c r="F238" s="20">
+        <f t="shared" si="10"/>
+        <v>5.3100000000000005</v>
+      </c>
+      <c r="G238" s="28">
         <f t="shared" si="11"/>
-        <v>5.3100000000000005</v>
-      </c>
-      <c r="G238" s="28">
-        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -15648,16 +15645,16 @@
         <v>3.49</v>
       </c>
       <c r="D239" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>87.25</v>
       </c>
       <c r="E239" s="18"/>
       <c r="F239" s="20">
+        <f t="shared" si="10"/>
+        <v>10.47</v>
+      </c>
+      <c r="G239" s="28">
         <f t="shared" si="11"/>
-        <v>10.47</v>
-      </c>
-      <c r="G239" s="28">
-        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -15672,16 +15669,16 @@
         <v>1.87</v>
       </c>
       <c r="D240" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>179.52</v>
       </c>
       <c r="E240" s="18"/>
       <c r="F240" s="20">
+        <f t="shared" si="10"/>
+        <v>5.61</v>
+      </c>
+      <c r="G240" s="28">
         <f t="shared" si="11"/>
-        <v>5.61</v>
-      </c>
-      <c r="G240" s="28">
-        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -15696,16 +15693,16 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="D241" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>74.12</v>
       </c>
       <c r="E241" s="18"/>
       <c r="F241" s="20">
+        <f t="shared" si="10"/>
+        <v>6.5400000000000009</v>
+      </c>
+      <c r="G241" s="28">
         <f t="shared" si="11"/>
-        <v>6.5400000000000009</v>
-      </c>
-      <c r="G241" s="28">
-        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -15720,16 +15717,16 @@
         <v>1.8699999999999999</v>
       </c>
       <c r="D242" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>458.15</v>
       </c>
       <c r="E242" s="18"/>
       <c r="F242" s="20">
+        <f t="shared" si="10"/>
+        <v>5.6099999999999994</v>
+      </c>
+      <c r="G242" s="28">
         <f t="shared" si="11"/>
-        <v>5.6099999999999994</v>
-      </c>
-      <c r="G242" s="28">
-        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -15744,16 +15741,16 @@
         <v>3.49</v>
       </c>
       <c r="D243" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>104.7</v>
       </c>
       <c r="E243" s="18"/>
       <c r="F243" s="20">
+        <f t="shared" si="10"/>
+        <v>10.47</v>
+      </c>
+      <c r="G243" s="28">
         <f t="shared" si="11"/>
-        <v>10.47</v>
-      </c>
-      <c r="G243" s="28">
-        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -15768,16 +15765,16 @@
         <v>1.87</v>
       </c>
       <c r="D244" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>56.1</v>
       </c>
       <c r="E244" s="18"/>
       <c r="F244" s="20">
+        <f t="shared" si="10"/>
+        <v>5.61</v>
+      </c>
+      <c r="G244" s="28">
         <f t="shared" si="11"/>
-        <v>5.61</v>
-      </c>
-      <c r="G244" s="28">
-        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
@@ -15792,20 +15789,21 @@
         <v>2.84</v>
       </c>
       <c r="D245" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>124.96</v>
       </c>
       <c r="E245" s="18"/>
       <c r="F245" s="20">
+        <f t="shared" si="10"/>
+        <v>8.52</v>
+      </c>
+      <c r="G245" s="28">
         <f t="shared" si="11"/>
-        <v>8.52</v>
-      </c>
-      <c r="G245" s="28">
-        <f t="shared" si="12"/>
         <v>100</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
@@ -15858,7 +15856,7 @@
         <v>1000</v>
       </c>
       <c r="D2" s="33">
-        <f>ROUND(_xlfn.FORECAST.LINEAR(A2, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <f t="shared" ref="D2:D22" si="0">ROUND(_xlfn.FORECAST.LINEAR(A2, $E$26:$E$38, $D$26:$D$38), 0)</f>
         <v>959</v>
       </c>
       <c r="G2" t="s">
@@ -15876,7 +15874,7 @@
         <v>920</v>
       </c>
       <c r="D3" s="33">
-        <f>ROUND(_xlfn.FORECAST.LINEAR(A3, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <f t="shared" si="0"/>
         <v>918</v>
       </c>
     </row>
@@ -15891,7 +15889,7 @@
         <v>908</v>
       </c>
       <c r="D4" s="33">
-        <f>ROUND(_xlfn.FORECAST.LINEAR(A4, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <f t="shared" si="0"/>
         <v>876</v>
       </c>
     </row>
@@ -15906,7 +15904,7 @@
         <v>830</v>
       </c>
       <c r="D5" s="33">
-        <f>ROUND(_xlfn.FORECAST.LINEAR(A5, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <f t="shared" si="0"/>
         <v>835</v>
       </c>
     </row>
@@ -15923,7 +15921,7 @@
         <v>780</v>
       </c>
       <c r="D6" s="33">
-        <f>ROUND(_xlfn.FORECAST.LINEAR(A6, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <f t="shared" si="0"/>
         <v>793</v>
       </c>
       <c r="E6" s="12"/>
@@ -15941,7 +15939,7 @@
         <v>730</v>
       </c>
       <c r="D7" s="33">
-        <f>ROUND(_xlfn.FORECAST.LINEAR(A7, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <f t="shared" si="0"/>
         <v>751</v>
       </c>
       <c r="E7" s="12"/>
@@ -15959,7 +15957,7 @@
         <v>680</v>
       </c>
       <c r="D8" s="33">
-        <f>ROUND(_xlfn.FORECAST.LINEAR(A8, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <f t="shared" si="0"/>
         <v>710</v>
       </c>
       <c r="E8" s="12"/>
@@ -15975,7 +15973,7 @@
         <v>630</v>
       </c>
       <c r="D9" s="33">
-        <f>ROUND(_xlfn.FORECAST.LINEAR(A9, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <f t="shared" si="0"/>
         <v>668</v>
       </c>
     </row>
@@ -15988,7 +15986,7 @@
         <v>601</v>
       </c>
       <c r="D10" s="33">
-        <f>ROUND(_xlfn.FORECAST.LINEAR(A10, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <f t="shared" si="0"/>
         <v>627</v>
       </c>
       <c r="E10" s="8"/>
@@ -16002,7 +16000,7 @@
         <v>573</v>
       </c>
       <c r="D11" s="33">
-        <f>ROUND(_xlfn.FORECAST.LINEAR(A11, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <f t="shared" si="0"/>
         <v>585</v>
       </c>
       <c r="E11" s="8"/>
@@ -16016,7 +16014,7 @@
         <v>544</v>
       </c>
       <c r="D12" s="33">
-        <f>ROUND(_xlfn.FORECAST.LINEAR(A12, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <f t="shared" si="0"/>
         <v>544</v>
       </c>
       <c r="E12" s="8"/>
@@ -16032,7 +16030,7 @@
         <v>515</v>
       </c>
       <c r="D13" s="33">
-        <f>ROUND(_xlfn.FORECAST.LINEAR(A13, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <f t="shared" si="0"/>
         <v>502</v>
       </c>
     </row>
@@ -16045,7 +16043,7 @@
         <v>469</v>
       </c>
       <c r="D14" s="33">
-        <f>ROUND(_xlfn.FORECAST.LINEAR(A14, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <f t="shared" si="0"/>
         <v>461</v>
       </c>
       <c r="E14" s="8"/>
@@ -16059,7 +16057,7 @@
         <v>423</v>
       </c>
       <c r="D15" s="33">
-        <f>ROUND(_xlfn.FORECAST.LINEAR(A15, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <f t="shared" si="0"/>
         <v>419</v>
       </c>
       <c r="E15" s="8"/>
@@ -16073,7 +16071,7 @@
         <v>376</v>
       </c>
       <c r="D16" s="33">
-        <f>ROUND(_xlfn.FORECAST.LINEAR(A16, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <f t="shared" si="0"/>
         <v>378</v>
       </c>
       <c r="E16" s="8"/>
@@ -16089,7 +16087,7 @@
         <v>330</v>
       </c>
       <c r="D17" s="33">
-        <f>ROUND(_xlfn.FORECAST.LINEAR(A17, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <f t="shared" si="0"/>
         <v>336</v>
       </c>
     </row>
@@ -16102,7 +16100,7 @@
         <v>288</v>
       </c>
       <c r="D18" s="33">
-        <f>ROUND(_xlfn.FORECAST.LINEAR(A18, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <f t="shared" si="0"/>
         <v>294</v>
       </c>
       <c r="E18" s="8"/>
@@ -16116,7 +16114,7 @@
         <v>247</v>
       </c>
       <c r="D19" s="33">
-        <f>ROUND(_xlfn.FORECAST.LINEAR(A19, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <f t="shared" si="0"/>
         <v>253</v>
       </c>
       <c r="E19" s="8"/>
@@ -16132,7 +16130,7 @@
         <v>205</v>
       </c>
       <c r="D20" s="33">
-        <f>ROUND(_xlfn.FORECAST.LINEAR(A20, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <f t="shared" si="0"/>
         <v>211</v>
       </c>
     </row>
@@ -16147,7 +16145,7 @@
         <v>190</v>
       </c>
       <c r="D21" s="33">
-        <f>ROUND(_xlfn.FORECAST.LINEAR(A21, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <f t="shared" si="0"/>
         <v>170</v>
       </c>
     </row>
@@ -16162,7 +16160,7 @@
         <v>140</v>
       </c>
       <c r="D22" s="33">
-        <f>ROUND(_xlfn.FORECAST.LINEAR(A22, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <f t="shared" si="0"/>
         <v>128</v>
       </c>
     </row>
@@ -16319,7 +16317,7 @@
         <v>1000</v>
       </c>
       <c r="D2" s="33">
-        <f>ROUND(_xlfn.FORECAST.LINEAR(A2, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <f t="shared" ref="D2:D22" si="0">ROUND(_xlfn.FORECAST.LINEAR(A2, $E$26:$E$38, $D$26:$D$38), 0)</f>
         <v>959</v>
       </c>
       <c r="G2" t="s">
@@ -16337,7 +16335,7 @@
         <v>920</v>
       </c>
       <c r="D3" s="33">
-        <f>ROUND(_xlfn.FORECAST.LINEAR(A3, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <f t="shared" si="0"/>
         <v>918</v>
       </c>
     </row>
@@ -16352,7 +16350,7 @@
         <v>908</v>
       </c>
       <c r="D4" s="33">
-        <f>ROUND(_xlfn.FORECAST.LINEAR(A4, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <f t="shared" si="0"/>
         <v>876</v>
       </c>
     </row>
@@ -16367,7 +16365,7 @@
         <v>830</v>
       </c>
       <c r="D5" s="33">
-        <f>ROUND(_xlfn.FORECAST.LINEAR(A5, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <f t="shared" si="0"/>
         <v>835</v>
       </c>
     </row>
@@ -16384,7 +16382,7 @@
         <v>780</v>
       </c>
       <c r="D6" s="33">
-        <f>ROUND(_xlfn.FORECAST.LINEAR(A6, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <f t="shared" si="0"/>
         <v>793</v>
       </c>
       <c r="E6" s="12"/>
@@ -16402,7 +16400,7 @@
         <v>730</v>
       </c>
       <c r="D7" s="33">
-        <f>ROUND(_xlfn.FORECAST.LINEAR(A7, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <f t="shared" si="0"/>
         <v>751</v>
       </c>
       <c r="E7" s="12"/>
@@ -16420,7 +16418,7 @@
         <v>680</v>
       </c>
       <c r="D8" s="33">
-        <f>ROUND(_xlfn.FORECAST.LINEAR(A8, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <f t="shared" si="0"/>
         <v>710</v>
       </c>
       <c r="E8" s="12"/>
@@ -16436,7 +16434,7 @@
         <v>630</v>
       </c>
       <c r="D9" s="33">
-        <f>ROUND(_xlfn.FORECAST.LINEAR(A9, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <f t="shared" si="0"/>
         <v>668</v>
       </c>
     </row>
@@ -16449,7 +16447,7 @@
         <v>601</v>
       </c>
       <c r="D10" s="33">
-        <f>ROUND(_xlfn.FORECAST.LINEAR(A10, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <f t="shared" si="0"/>
         <v>627</v>
       </c>
       <c r="E10" s="8"/>
@@ -16463,7 +16461,7 @@
         <v>573</v>
       </c>
       <c r="D11" s="33">
-        <f>ROUND(_xlfn.FORECAST.LINEAR(A11, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <f t="shared" si="0"/>
         <v>585</v>
       </c>
       <c r="E11" s="8"/>
@@ -16477,7 +16475,7 @@
         <v>544</v>
       </c>
       <c r="D12" s="33">
-        <f>ROUND(_xlfn.FORECAST.LINEAR(A12, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <f t="shared" si="0"/>
         <v>544</v>
       </c>
       <c r="E12" s="8"/>
@@ -16493,7 +16491,7 @@
         <v>515</v>
       </c>
       <c r="D13" s="33">
-        <f>ROUND(_xlfn.FORECAST.LINEAR(A13, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <f t="shared" si="0"/>
         <v>502</v>
       </c>
     </row>
@@ -16506,7 +16504,7 @@
         <v>469</v>
       </c>
       <c r="D14" s="33">
-        <f>ROUND(_xlfn.FORECAST.LINEAR(A14, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <f t="shared" si="0"/>
         <v>461</v>
       </c>
       <c r="E14" s="8"/>
@@ -16520,7 +16518,7 @@
         <v>423</v>
       </c>
       <c r="D15" s="33">
-        <f>ROUND(_xlfn.FORECAST.LINEAR(A15, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <f t="shared" si="0"/>
         <v>419</v>
       </c>
       <c r="E15" s="8"/>
@@ -16534,7 +16532,7 @@
         <v>376</v>
       </c>
       <c r="D16" s="33">
-        <f>ROUND(_xlfn.FORECAST.LINEAR(A16, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <f t="shared" si="0"/>
         <v>378</v>
       </c>
       <c r="E16" s="8"/>
@@ -16550,7 +16548,7 @@
         <v>330</v>
       </c>
       <c r="D17" s="33">
-        <f>ROUND(_xlfn.FORECAST.LINEAR(A17, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <f t="shared" si="0"/>
         <v>336</v>
       </c>
     </row>
@@ -16563,7 +16561,7 @@
         <v>288</v>
       </c>
       <c r="D18" s="33">
-        <f>ROUND(_xlfn.FORECAST.LINEAR(A18, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <f t="shared" si="0"/>
         <v>294</v>
       </c>
       <c r="E18" s="8"/>
@@ -16577,7 +16575,7 @@
         <v>247</v>
       </c>
       <c r="D19" s="33">
-        <f>ROUND(_xlfn.FORECAST.LINEAR(A19, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <f t="shared" si="0"/>
         <v>253</v>
       </c>
       <c r="E19" s="8"/>
@@ -16593,7 +16591,7 @@
         <v>205</v>
       </c>
       <c r="D20" s="33">
-        <f>ROUND(_xlfn.FORECAST.LINEAR(A20, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <f t="shared" si="0"/>
         <v>211</v>
       </c>
     </row>
@@ -16608,7 +16606,7 @@
         <v>190</v>
       </c>
       <c r="D21" s="33">
-        <f>ROUND(_xlfn.FORECAST.LINEAR(A21, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <f t="shared" si="0"/>
         <v>170</v>
       </c>
     </row>
@@ -16623,7 +16621,7 @@
         <v>140</v>
       </c>
       <c r="D22" s="33">
-        <f>ROUND(_xlfn.FORECAST.LINEAR(A22, $E$26:$E$38, $D$26:$D$38), 0)</f>
+        <f t="shared" si="0"/>
         <v>128</v>
       </c>
     </row>
